--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -662,8 +662,8 @@
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>

--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>最低</t>
     <rPh sb="0" eb="1">
@@ -44,9 +44,6 @@
       <t>ym</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>景顺长城中证500行业中性低波动(000478)</t>
   </si>
   <si>
     <t>基金</t>
@@ -188,13 +185,138 @@
   </si>
   <si>
     <t>易方达消费行业股票(110022)</t>
+  </si>
+  <si>
+    <t>慧定投指数</t>
+    <rPh sb="0" eb="1">
+      <t>dhd</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>pg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>rmc</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>rxj</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>tlf</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>iy</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中小盘</t>
+    <rPh sb="0" eb="1">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ih</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tel</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盘</t>
+    <rPh sb="0" eb="1">
+      <t>dd</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tel</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>均衡</t>
+    <rPh sb="0" eb="1">
+      <t>fqtq</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证500，500日均线</t>
+    <rPh sb="0" eb="1">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ygh</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jjjj</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸深300，500日均线</t>
+    <rPh sb="0" eb="1">
+      <t>ihn</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ipw</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jjjj</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前500日</t>
+    <rPh sb="0" eb="1">
+      <t>ue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jjjj</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前250日</t>
+    <rPh sb="0" eb="1">
+      <t>ue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jjjj</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城中证500行业中性低波动(003318)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天日期</t>
+    <rPh sb="0" eb="1">
+      <t>wygd</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jjad</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,6 +335,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -278,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -287,6 +425,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -564,35 +716,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -601,150 +755,186 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="7">
-        <v>500</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="9">
+        <v>400</v>
       </c>
       <c r="D2" s="6">
         <f>C2*1.5</f>
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E2" s="6">
         <f>C2*60%</f>
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="F2" s="6">
         <f>C2*210%</f>
-        <v>1050</v>
+        <v>840</v>
       </c>
       <c r="G2" s="6">
-        <f>D2*4*12</f>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <f t="shared" ref="G2:G9" si="0">D2*4*12</f>
+        <v>28800</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7">
-        <v>500</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="9">
+        <v>400</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D6" si="0">C3*1.5</f>
-        <v>750</v>
+        <f>C3*1.5</f>
+        <v>600</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E6" si="1">C3*60%</f>
-        <v>300</v>
+        <f>C3*60%</f>
+        <v>240</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F6" si="2">C3*210%</f>
-        <v>1050</v>
+        <f>C3*210%</f>
+        <v>840</v>
       </c>
       <c r="G3" s="6">
         <f>D3*4*12</f>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>28800</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <f>C4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <f>C4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <f>C4</f>
-        <v>0</v>
+      <c r="C4" s="9">
+        <v>300</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4" si="1">C4*1.5</f>
+        <v>450</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4" si="2">C4*60%</f>
+        <v>180</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4" si="3">C4*210%</f>
+        <v>630</v>
       </c>
       <c r="G4" s="6">
-        <f>D4*4*12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>21600</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5">
         <v>200</v>
       </c>
       <c r="D5" s="5">
+        <f t="shared" ref="D5:D8" si="4">C5*1.5</f>
+        <v>300</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" ref="E5:E8" si="5">C5*60%</f>
+        <v>120</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F8" si="6">C5*210%</f>
+        <v>420</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5">
+        <v>200</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="E5" s="5">
-        <f t="shared" si="1"/>
+      <c r="E6" s="5">
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="F5" s="5">
-        <f t="shared" si="2"/>
+      <c r="F6" s="5">
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
-      <c r="G5" s="5">
-        <f>D5*4*12</f>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
         <v>14400</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="5">
-        <v>100</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="G6" s="5">
-        <f>D6*4*12</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>100</v>
@@ -762,43 +952,47 @@
         <v>100</v>
       </c>
       <c r="G7" s="1">
-        <f>D7*4*12</f>
+        <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
         <f>C8</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <f>C8</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <f>C8</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <f>D8*4*12</f>
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -816,84 +1010,121 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f>D9*4*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>2150</v>
+        <v>2350</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="2">
         <f>SUM(F2:F9)</f>
-        <v>2930</v>
+        <v>3250</v>
       </c>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
         <f>C10*4</f>
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="D11" s="4">
         <f>D10*4</f>
-        <v>8600</v>
+        <v>9400</v>
       </c>
       <c r="E11" s="4">
         <f>E10*4</f>
-        <v>3920</v>
+        <v>4000</v>
       </c>
       <c r="F11" s="4">
         <f>F10*4</f>
-        <v>11720</v>
+        <v>13000</v>
       </c>
       <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
         <f>C11*12</f>
-        <v>72000</v>
+        <v>76800</v>
       </c>
       <c r="D12" s="4">
         <f>D11*12</f>
-        <v>103200</v>
+        <v>112800</v>
       </c>
       <c r="E12" s="4">
         <f>E11*12</f>
-        <v>47040</v>
+        <v>48000</v>
       </c>
       <c r="F12" s="4">
         <f>F11*12</f>
-        <v>140640</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>156000</v>
+      </c>
+      <c r="G12" s="4">
+        <f>SUM(G2:G9)</f>
+        <v>112800</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="G17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="12">
+        <f ca="1">TODAY()</f>
+        <v>43087</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D18" s="8"/>
+      <c r="G18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="13">
+        <f ca="1">H17-500</f>
+        <v>42587</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D19" s="8"/>
+      <c r="G19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="13">
+        <f ca="1">H17-250</f>
+        <v>42837</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D4:F4" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>最低</t>
     <rPh sb="0" eb="1">
@@ -305,6 +305,151 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>jjad</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸深300，250日均线</t>
+    <rPh sb="0" eb="1">
+      <t>ihn</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ipw</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jjjj</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城泸深300增强(000311)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前180日</t>
+    <rPh sb="0" eb="1">
+      <t>ue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jjjj</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>慧定投/周</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>慧定投/周</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>慧定投/周</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-12-23:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-12-21：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达消费赎回。</t>
+    <rPh sb="0" eb="1">
+      <t>jqr</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yy</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dp</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>iie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xjm</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mfn</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lkd</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸深300增强替换基本面50；建信中证500暂停，后续低值后再恢复。</t>
+    <rPh sb="0" eb="1">
+      <t>ihn</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ipw</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xk</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fwf</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>rq</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ad</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>sg</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>vfhp</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wy</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ygh</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>lrj</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wyp</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>rg</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xfn</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wqa</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>wfhg</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>rg</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>gmf</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ndo</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>tjt</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -314,7 +459,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -425,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -433,10 +578,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -716,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -732,7 +877,7 @@
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -769,7 +914,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C2" s="9">
         <v>400</v>
@@ -787,7 +932,7 @@
         <v>840</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G9" si="0">D2*4*12</f>
+        <f t="shared" ref="G2:G10" si="0">D2*4*12</f>
         <v>28800</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -802,7 +947,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C3" s="9">
         <v>400</v>
@@ -835,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C4" s="9">
         <v>300</v>
@@ -871,23 +1016,23 @@
         <v>16</v>
       </c>
       <c r="C5" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D8" si="4">C5*1.5</f>
-        <v>300</v>
+        <f t="shared" ref="D5:D6" si="4">C5*1.5</f>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E8" si="5">C5*60%</f>
-        <v>120</v>
+        <f t="shared" ref="E5:E6" si="5">C5*60%</f>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F8" si="6">C5*210%</f>
-        <v>420</v>
+        <f t="shared" ref="F5:F6" si="6">C5*210%</f>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>25</v>
@@ -904,23 +1049,23 @@
         <v>16</v>
       </c>
       <c r="C6" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="6"/>
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>24</v>
@@ -930,66 +1075,70 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5">
+        <v>200</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7" si="7">C7*1.5</f>
+        <v>300</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7" si="8">C7*60%</f>
+        <v>120</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" ref="F7" si="9">C7*210%</f>
+        <v>420</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" ref="G7" si="10">D7*4*12</f>
+        <v>14400</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>100</v>
       </c>
-      <c r="D7" s="3">
-        <f>C7</f>
+      <c r="D8" s="3">
+        <f>C8</f>
         <v>100</v>
       </c>
-      <c r="E7" s="1">
-        <f>C7</f>
+      <c r="E8" s="1">
+        <f>C8</f>
         <v>100</v>
       </c>
-      <c r="F7" s="1">
-        <f>C7</f>
+      <c r="F8" s="1">
+        <f>C8</f>
         <v>100</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <f>C8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <f>C8</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <f>C8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -1017,110 +1166,165 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <f>C10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <f>C10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2">
-        <f>SUM(C2:C9)</f>
-        <v>1600</v>
-      </c>
-      <c r="D10" s="2">
-        <f>SUM(D2:D9)</f>
-        <v>2350</v>
-      </c>
-      <c r="E10" s="2">
-        <f>SUM(E2:E9)</f>
-        <v>1000</v>
-      </c>
-      <c r="F10" s="2">
-        <f>SUM(F2:F9)</f>
-        <v>3250</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
-        <f>C10*4</f>
-        <v>6400</v>
-      </c>
-      <c r="D11" s="4">
-        <f>D10*4</f>
-        <v>9400</v>
-      </c>
-      <c r="E11" s="4">
-        <f>E10*4</f>
-        <v>4000</v>
-      </c>
-      <c r="F11" s="4">
-        <f>F10*4</f>
-        <v>13000</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <f>SUM(C2:C10)</f>
+        <v>1400</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(D2:D10)</f>
+        <v>2050</v>
+      </c>
+      <c r="E11" s="2">
+        <f>SUM(E2:E10)</f>
+        <v>880</v>
+      </c>
+      <c r="F11" s="2">
+        <f>SUM(F2:F10)</f>
+        <v>2830</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
-        <f>C11*12</f>
-        <v>76800</v>
+        <f>C11*4</f>
+        <v>5600</v>
       </c>
       <c r="D12" s="4">
-        <f>D11*12</f>
-        <v>112800</v>
+        <f>D11*4</f>
+        <v>8200</v>
       </c>
       <c r="E12" s="4">
-        <f>E11*12</f>
-        <v>48000</v>
+        <f>E11*4</f>
+        <v>3520</v>
       </c>
       <c r="F12" s="4">
-        <f>F11*12</f>
-        <v>156000</v>
-      </c>
-      <c r="G12" s="4">
-        <f>SUM(G2:G9)</f>
-        <v>112800</v>
-      </c>
+        <f>F11*4</f>
+        <v>11320</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="G17" s="10" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
+        <f>C12*12</f>
+        <v>67200</v>
+      </c>
+      <c r="D13" s="4">
+        <f>D12*12</f>
+        <v>98400</v>
+      </c>
+      <c r="E13" s="4">
+        <f>E12*12</f>
+        <v>42240</v>
+      </c>
+      <c r="F13" s="4">
+        <f>F12*12</f>
+        <v>135840</v>
+      </c>
+      <c r="G13" s="4">
+        <f>SUM(G2:G10)</f>
+        <v>98400</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="G19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H19" s="12">
         <f ca="1">TODAY()</f>
-        <v>43087</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D18" s="8"/>
-      <c r="G18" s="11" t="s">
+        <v>43092</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D20" s="8"/>
+      <c r="G20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="13">
-        <f ca="1">H17-500</f>
-        <v>42587</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D19" s="8"/>
-      <c r="G19" s="11" t="s">
+      <c r="H20" s="13">
+        <f ca="1">H19-500</f>
+        <v>42592</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D21" s="8"/>
+      <c r="G21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="13">
-        <f ca="1">H17-250</f>
-        <v>42837</v>
+      <c r="H21" s="13">
+        <f ca="1">H19-250</f>
+        <v>42842</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D22" s="8"/>
+      <c r="G22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="13">
+        <f ca="1">H19-180</f>
+        <v>42912</v>
       </c>
     </row>
   </sheetData>

--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -381,7 +381,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>泸深300增强替换基本面50；建信中证500暂停，后续低值后再恢复。</t>
+    <t>泸深300增强替换基本面50；建信中证500暂停，进入低值后再恢复。</t>
     <rPh sb="0" eb="1">
       <t>ihn</t>
     </rPh>
@@ -428,10 +428,10 @@
       <t>wyp</t>
     </rPh>
     <rPh sb="25" eb="26">
-      <t>rg</t>
+      <t>fj</t>
     </rPh>
     <rPh sb="26" eb="27">
-      <t>xfn</t>
+      <t>ty</t>
     </rPh>
     <rPh sb="27" eb="28">
       <t>wqa</t>

--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>最低</t>
     <rPh sb="0" eb="1">
@@ -176,14 +176,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>慧定投/周五</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定投/周五</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>易方达消费行业股票(110022)</t>
   </si>
   <si>
@@ -216,19 +208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中小盘</t>
-    <rPh sb="0" eb="1">
-      <t>kh</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ih</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tel</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>大盘</t>
     <rPh sb="0" eb="1">
       <t>dd</t>
@@ -450,6 +429,78 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>tjt</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投/周</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证500，250日均线</t>
+    <rPh sb="0" eb="1">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ygh</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jjjj</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类小计</t>
+    <rPh sb="0" eb="1">
+      <t>wv</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>od</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ih</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yf</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类比例</t>
+    <rPh sb="0" eb="1">
+      <t>wv</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>od</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xx</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wgq</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中盘</t>
+    <rPh sb="0" eb="1">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tel</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中盘(150只)</t>
+    <rPh sb="0" eb="1">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tel</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kw</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -461,7 +512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -501,8 +552,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,18 +587,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -557,32 +639,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="144" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -873,11 +1025,10 @@
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -903,208 +1054,208 @@
         <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12">
+        <v>400</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2" si="0">C2*1.5</f>
+        <v>600</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2" si="1">C2*60%</f>
+        <v>240</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2" si="2">C2*210%</f>
+        <v>840</v>
+      </c>
+      <c r="G2" s="4">
+        <f>D2*4*12</f>
+        <v>28800</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3" si="3">C3*1.5</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3" si="4">C3*60%</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3" si="5">C3*210%</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>D3*4*12</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4" si="6">C4*1.5</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4" si="7">C4*60%</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4" si="8">C4*210%</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4" si="9">D4*4*12</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="11">
+        <v>400</v>
+      </c>
+      <c r="D5" s="10">
+        <f>C5*1.5</f>
+        <v>600</v>
+      </c>
+      <c r="E5" s="10">
+        <f>C5*60%</f>
+        <v>240</v>
+      </c>
+      <c r="F5" s="10">
+        <f>C5*210%</f>
+        <v>840</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" ref="G5:G10" si="10">D5*4*12</f>
+        <v>28800</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="10">
+        <v>200</v>
+      </c>
+      <c r="D6" s="10">
+        <f>C6*1.5</f>
+        <v>300</v>
+      </c>
+      <c r="E6" s="10">
+        <f>C6*60%</f>
+        <v>120</v>
+      </c>
+      <c r="F6" s="10">
+        <f>C6*210%</f>
+        <v>420</v>
+      </c>
+      <c r="G6" s="10">
+        <f>D6*4*12</f>
+        <v>14400</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="11">
+        <v>400</v>
+      </c>
+      <c r="D7" s="10">
+        <f>C7*1.5</f>
+        <v>600</v>
+      </c>
+      <c r="E7" s="10">
+        <f>C7*60%</f>
+        <v>240</v>
+      </c>
+      <c r="F7" s="10">
+        <f>C7*210%</f>
+        <v>840</v>
+      </c>
+      <c r="G7" s="10">
+        <f>D7*4*12</f>
+        <v>28800</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="9">
-        <v>400</v>
-      </c>
-      <c r="D2" s="6">
-        <f>C2*1.5</f>
-        <v>600</v>
-      </c>
-      <c r="E2" s="6">
-        <f>C2*60%</f>
-        <v>240</v>
-      </c>
-      <c r="F2" s="6">
-        <f>C2*210%</f>
-        <v>840</v>
-      </c>
-      <c r="G2" s="6">
-        <f t="shared" ref="G2:G10" si="0">D2*4*12</f>
-        <v>28800</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="9">
-        <v>400</v>
-      </c>
-      <c r="D3" s="6">
-        <f>C3*1.5</f>
-        <v>600</v>
-      </c>
-      <c r="E3" s="6">
-        <f>C3*60%</f>
-        <v>240</v>
-      </c>
-      <c r="F3" s="6">
-        <f>C3*210%</f>
-        <v>840</v>
-      </c>
-      <c r="G3" s="6">
-        <f>D3*4*12</f>
-        <v>28800</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="9">
-        <v>300</v>
-      </c>
-      <c r="D4" s="6">
-        <f t="shared" ref="D4" si="1">C4*1.5</f>
-        <v>450</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" ref="E4" si="2">C4*60%</f>
-        <v>180</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4" si="3">C4*210%</f>
-        <v>630</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" si="0"/>
-        <v>21600</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" ref="D5:D6" si="4">C5*1.5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" ref="E5:E6" si="5">C5*60%</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" ref="F5:F6" si="6">C5*210%</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5">
-        <v>200</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" ref="D7" si="7">C7*1.5</f>
-        <v>300</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" ref="E7" si="8">C7*60%</f>
-        <v>120</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" ref="F7" si="9">C7*210%</f>
-        <v>420</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" ref="G7" si="10">D7*4*12</f>
-        <v>14400</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1112,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
         <v>100</v>
@@ -1130,7 +1281,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>4800</v>
       </c>
       <c r="H8" s="1"/>
@@ -1141,7 +1292,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1159,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H9" s="1"/>
@@ -1167,10 +1318,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1188,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H10" s="1"/>
@@ -1201,19 +1352,19 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="D11" s="2">
-        <f>SUM(D2:D10)</f>
-        <v>2050</v>
+        <f t="shared" ref="D11:F11" si="11">SUM(D2:D10)</f>
+        <v>2200</v>
       </c>
       <c r="E11" s="2">
-        <f>SUM(E2:E10)</f>
-        <v>880</v>
+        <f t="shared" si="11"/>
+        <v>940</v>
       </c>
       <c r="F11" s="2">
-        <f>SUM(F2:F10)</f>
-        <v>2830</v>
+        <f t="shared" si="11"/>
+        <v>3040</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1226,19 +1377,19 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4">
         <f>C11*4</f>
-        <v>5600</v>
+        <v>6000</v>
       </c>
       <c r="D12" s="4">
         <f>D11*4</f>
-        <v>8200</v>
+        <v>8800</v>
       </c>
       <c r="E12" s="4">
         <f>E11*4</f>
-        <v>3520</v>
+        <v>3760</v>
       </c>
       <c r="F12" s="4">
         <f>F11*4</f>
-        <v>11320</v>
+        <v>12160</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1251,81 +1402,341 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4">
         <f>C12*12</f>
-        <v>67200</v>
+        <v>72000</v>
       </c>
       <c r="D13" s="4">
         <f>D12*12</f>
-        <v>98400</v>
+        <v>105600</v>
       </c>
       <c r="E13" s="4">
         <f>E12*12</f>
-        <v>42240</v>
+        <v>45120</v>
       </c>
       <c r="F13" s="4">
         <f>F12*12</f>
-        <v>135840</v>
+        <v>145920</v>
       </c>
       <c r="G13" s="4">
-        <f>SUM(G2:G10)</f>
-        <v>98400</v>
+        <f>SUM(G5:G10)</f>
+        <v>76800</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D20" s="5"/>
+      <c r="G20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="9">
+        <f ca="1">H19-500</f>
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D21" s="5"/>
+      <c r="G21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="9">
+        <f ca="1">H19-250</f>
+        <v>42850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D22" s="5"/>
+      <c r="G22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="9">
+        <f ca="1">H19-180</f>
+        <v>42920</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="G19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="12">
-        <f ca="1">TODAY()</f>
-        <v>43092</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D20" s="8"/>
-      <c r="G20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="13">
-        <f ca="1">H19-500</f>
-        <v>42592</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D21" s="8"/>
-      <c r="G21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="13">
-        <f ca="1">H19-250</f>
-        <v>42842</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D22" s="8"/>
-      <c r="G22" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="13">
-        <f ca="1">H19-180</f>
-        <v>42912</v>
-      </c>
+      <c r="G25" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="16">
+        <v>400</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" ref="D26:D34" si="12">C26*4*12</f>
+        <v>19200</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="21">
+        <f>SUM(C26:C28)</f>
+        <v>800</v>
+      </c>
+      <c r="G26" s="24">
+        <f>F26/F35</f>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="15">
+        <v>400</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" si="12"/>
+        <v>19200</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="16">
+        <v>400</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="12"/>
+        <v>19200</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="21">
+        <f>SUM(C29:C31)</f>
+        <v>1000</v>
+      </c>
+      <c r="G29" s="24">
+        <f>F29/F35</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="16">
+        <v>400</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" si="12"/>
+        <v>19200</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="16">
+        <v>200</v>
+      </c>
+      <c r="D31" s="16">
+        <f t="shared" si="12"/>
+        <v>9600</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="14">
+        <v>100</v>
+      </c>
+      <c r="D32" s="14">
+        <f t="shared" si="12"/>
+        <v>4800</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="21">
+        <f>SUM(C32:C34)</f>
+        <v>100</v>
+      </c>
+      <c r="G32" s="24">
+        <f>F32/F35</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12">
+        <f>SUM(C26:C34)</f>
+        <v>1900</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="19">
+        <f>SUM(F26:F34)</f>
+        <v>1900</v>
+      </c>
+      <c r="G35" s="20">
+        <f>SUM(G26:G34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12">
+        <f>C35*4</f>
+        <v>7600</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12">
+        <f>C36*12</f>
+        <v>91200</v>
+      </c>
+      <c r="D37" s="12">
+        <f>SUM(D26:D34)</f>
+        <v>91200</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="70" r:id="rId2"/>
+    <pivotCache cacheId="94" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>基金</t>
     <rPh sb="0" eb="1">
@@ -348,6 +348,25 @@
       <t>xfn</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动</t>
+  </si>
+  <si>
+    <t>主动</t>
+    <rPh sb="0" eb="1">
+      <t>y</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fcl</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低估值</t>
+  </si>
+  <si>
+    <t>正常估值</t>
   </si>
 </sst>
 </file>
@@ -475,19 +494,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Microsoft Office 用户" refreshedDate="43100.79980763889" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="9">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Microsoft Office 用户" refreshedDate="43100.808362962962" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="9">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G10" sheet="工作表1"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="基金" numFmtId="0">
       <sharedItems/>
-    </cacheField>
-    <cacheField name="周投金额" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="400"/>
-    </cacheField>
-    <cacheField name="年投估算" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="19200"/>
     </cacheField>
     <cacheField name="类型" numFmtId="0">
       <sharedItems containsBlank="1" count="10">
@@ -504,13 +517,24 @@
       </sharedItems>
     </cacheField>
     <cacheField name="估值状态" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="4">
+        <s v="低估值"/>
+        <s v="正常估值"/>
+        <s v="主动"/>
+        <m u="1"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="计划" numFmtId="0">
       <sharedItems/>
     </cacheField>
+    <cacheField name="周投金额" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="400"/>
+    </cacheField>
+    <cacheField name="年投估算" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="19200"/>
+    </cacheField>
     <cacheField name="备注" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="比例" numFmtId="0" formula="周投金额" databaseField="0"/>
   </cacheFields>
@@ -526,95 +550,168 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="9">
   <r>
     <s v="富国中证红利指数增强(100032)"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="定投/周"/>
     <n v="400"/>
     <n v="19200"/>
-    <x v="0"/>
-    <s v="低估值"/>
-    <s v="定投/周"/>
-    <m/>
+    <s v="低估边缘，后续加大额度"/>
   </r>
   <r>
     <s v="嘉实基本面50指数(160716)"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="持有"/>
     <m/>
     <n v="0"/>
-    <x v="0"/>
-    <s v="正常估值"/>
-    <s v="持有"/>
     <m/>
   </r>
   <r>
     <s v="景顺长城泸深300增强(000311)"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="持有"/>
     <m/>
     <n v="0"/>
-    <x v="0"/>
-    <s v="正常估值"/>
-    <s v="持有"/>
-    <m/>
+    <s v="待进入低值后再开始定投"/>
   </r>
   <r>
     <s v="华宝兴业标普中国A股红利机会(501029)"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="定投/周"/>
     <n v="400"/>
     <n v="19200"/>
-    <x v="1"/>
-    <s v="低估值"/>
-    <s v="定投/周"/>
     <m/>
   </r>
   <r>
     <s v="景顺长城中证500行业中性低波动(003318)"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="定投/周"/>
     <n v="400"/>
     <n v="19200"/>
-    <x v="2"/>
-    <s v="低估值"/>
-    <s v="定投/周"/>
     <m/>
   </r>
   <r>
     <s v="建信中证500指数增强(000478)"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="定投/周"/>
     <n v="200"/>
     <n v="9600"/>
-    <x v="2"/>
-    <s v="低估值"/>
-    <s v="定投/周"/>
-    <m/>
+    <s v="低估边缘，后续加大额度"/>
   </r>
   <r>
     <s v="国泰金龙行业混合(020003)"/>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="定投/周"/>
     <n v="100"/>
     <n v="4800"/>
-    <x v="3"/>
-    <m/>
-    <s v="定投/周"/>
     <m/>
   </r>
   <r>
     <s v="嘉实泸港深精选股票(001878)"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="持有"/>
     <m/>
     <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <s v="持有"/>
     <m/>
   </r>
   <r>
     <s v="易方达消费行业股票(110022)"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="持有"/>
     <m/>
     <n v="0"/>
-    <x v="5"/>
-    <m/>
-    <s v="持有"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="基金类型-金额统计" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
+  <location ref="N1:Q5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" sortType="descending">
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="3"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="基金数" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="周投合计" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="投入比例" fld="4" showDataAs="percentOfCol" baseField="1" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleDark7" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="基金类型-金额统计" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
   <location ref="I1:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="11">
         <item m="1" x="6"/>
@@ -641,11 +738,13 @@
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="3"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="7">
     <i>
@@ -686,8 +785,8 @@
   </colItems>
   <dataFields count="3">
     <dataField name="基金数" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="周投合计" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="投入比例" fld="1" showDataAs="percentOfCol" baseField="1" baseItem="0" numFmtId="10"/>
+    <dataField name="周投合计" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="投入比例" fld="4" showDataAs="percentOfCol" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleDark7" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
   <extLst>
@@ -961,44 +1060,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
     <col min="9" max="9" width="9.5" customWidth="1"/>
     <col min="10" max="10" width="7.5" customWidth="1"/>
     <col min="11" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="10.5" customWidth="1"/>
-    <col min="14" max="14" width="5.5" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>8</v>
@@ -1015,26 +1117,38 @@
       <c r="L1" t="s">
         <v>32</v>
       </c>
+      <c r="N1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4">
         <v>400</v>
       </c>
-      <c r="C2" s="4">
-        <f t="shared" ref="C2:C10" si="0">B2*4*12</f>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F10" si="0">E2*4*12</f>
         <v>19200</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>39</v>
@@ -1051,24 +1165,36 @@
       <c r="L2" s="9">
         <v>0.4</v>
       </c>
+      <c r="N2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="6">
+        <v>4</v>
+      </c>
+      <c r="P2" s="6">
+        <v>1400</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0.93333333333333335</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G3" s="3"/>
       <c r="I3" s="8" t="s">
@@ -1083,25 +1209,35 @@
       <c r="L3" s="9">
         <v>0.26666666666666666</v>
       </c>
+      <c r="N3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="6">
+        <v>2</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G4" s="3" t="s">
         <v>38</v>
       </c>
@@ -1117,26 +1253,38 @@
       <c r="L4" s="9">
         <v>0.26666666666666666</v>
       </c>
+      <c r="N4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="6">
+        <v>3</v>
+      </c>
+      <c r="P4" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4">
         <v>400</v>
       </c>
-      <c r="C5" s="4">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>19200</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G5" s="4"/>
       <c r="I5" s="8" t="s">
@@ -1151,26 +1299,38 @@
       <c r="L5" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="N5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="6">
+        <v>9</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1500</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4">
         <v>400</v>
       </c>
-      <c r="C6" s="4">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>19200</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G6" s="4"/>
       <c r="I6" s="8" t="s">
@@ -1184,25 +1344,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4">
         <v>200</v>
       </c>
-      <c r="C7" s="4">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>9600</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>39</v>
@@ -1218,23 +1378,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2">
         <v>100</v>
       </c>
-      <c r="C8" s="2">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>4800</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="G8" s="2"/>
       <c r="I8" s="8" t="s">
@@ -1250,288 +1412,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2">
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="1">
-        <f>SUM(B2:B10)</f>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <f>SUM(E2:E10)</f>
         <v>1500</v>
       </c>
-      <c r="C11" s="1">
-        <f>SUM(C2:C10)</f>
+      <c r="F11" s="1">
+        <f>SUM(F2:F10)</f>
         <v>72000</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4">
-        <v>600</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" ref="C16:C24" si="1">B16*4*12</f>
-        <v>28800</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4">
-        <v>600</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="1"/>
-        <v>28800</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4">
-        <v>600</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="1"/>
-        <v>28800</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="4">
-        <v>200</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="1"/>
-        <v>9600</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2">
-        <v>100</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="1"/>
-        <v>4800</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="1">
-        <f>SUM(B16:B24)</f>
-        <v>2100</v>
-      </c>
-      <c r="C25" s="1">
-        <f>SUM(C16:C24)</f>
-        <v>100800</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="94" r:id="rId2"/>
+    <pivotCache cacheId="99" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>基金</t>
     <rPh sb="0" eb="1">
@@ -367,6 +367,19 @@
   </si>
   <si>
     <t>正常估值</t>
+  </si>
+  <si>
+    <t>已赎回</t>
+    <rPh sb="0" eb="1">
+      <t>nnxc</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mfn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lkd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -494,7 +507,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Microsoft Office 用户" refreshedDate="43100.808362962962" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="9">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Microsoft Office 用户" refreshedDate="43101.16596215278" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="9">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G10" sheet="工作表1"/>
   </cacheSource>
@@ -633,7 +646,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
   <location ref="N1:Q5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -708,7 +721,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="基金类型-金额统计" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="基金类型-金额统计" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
   <location ref="I1:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -1062,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1443,7 +1456,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2">

--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/data/soft/xstarcd.github.io/wiki/img/fund/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="99" r:id="rId2"/>
+    <pivotCache cacheId="8" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -507,7 +502,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Microsoft Office 用户" refreshedDate="43101.16596215278" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="9">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43106.714193402775" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="9">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G10" sheet="工作表1"/>
   </cacheSource>
@@ -524,8 +519,8 @@
         <s v="泸港深"/>
         <s v="消费行业"/>
         <m u="1"/>
+        <s v="中盘(150只)" u="1"/>
         <s v="主动型" u="1"/>
-        <s v="中盘(150只)" u="1"/>
         <s v="中盘" u="1"/>
       </sharedItems>
     </cacheField>
@@ -611,8 +606,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="定投/周"/>
-    <n v="200"/>
-    <n v="9600"/>
+    <n v="400"/>
+    <n v="19200"/>
     <s v="低估边缘，后续加大额度"/>
   </r>
   <r>
@@ -637,7 +632,7 @@
     <s v="易方达消费行业股票(110022)"/>
     <x v="5"/>
     <x v="2"/>
-    <s v="持有"/>
+    <s v="已赎回"/>
     <m/>
     <n v="0"/>
     <m/>
@@ -646,7 +641,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
   <location ref="N1:Q5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -721,16 +716,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="基金类型-金额统计" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="基金类型-金额统计" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
   <location ref="I1:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="11">
         <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
         <item m="1" x="7"/>
-        <item x="2"/>
-        <item m="1" x="8"/>
         <item m="1" x="9"/>
         <item x="5"/>
         <item x="4"/>
@@ -1065,7 +1060,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1075,25 +1070,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="5.1640625" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="8.125" customWidth="1"/>
+    <col min="11" max="12" width="10.25" customWidth="1"/>
+    <col min="13" max="13" width="5.125" customWidth="1"/>
+    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
@@ -1173,10 +1168,10 @@
         <v>2</v>
       </c>
       <c r="K2" s="6">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L2" s="9">
-        <v>0.4</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>42</v>
@@ -1185,10 +1180,10 @@
         <v>4</v>
       </c>
       <c r="P2" s="6">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="Q2" s="9">
-        <v>0.93333333333333335</v>
+        <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -1220,7 +1215,7 @@
         <v>400</v>
       </c>
       <c r="L3" s="9">
-        <v>0.26666666666666666</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>43</v>
@@ -1264,7 +1259,7 @@
         <v>400</v>
       </c>
       <c r="L4" s="9">
-        <v>0.26666666666666666</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>40</v>
@@ -1276,7 +1271,7 @@
         <v>100</v>
       </c>
       <c r="Q4" s="9">
-        <v>6.6666666666666666E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -1310,7 +1305,7 @@
         <v>100</v>
       </c>
       <c r="L5" s="9">
-        <v>6.6666666666666666E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>25</v>
@@ -1319,7 +1314,7 @@
         <v>9</v>
       </c>
       <c r="P5" s="6">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="Q5" s="9">
         <v>1</v>
@@ -1371,11 +1366,11 @@
         <v>13</v>
       </c>
       <c r="E7" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>9600</v>
+        <v>19200</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>39</v>
@@ -1419,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="K8" s="6">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L8" s="9">
         <v>1</v>
@@ -1474,16 +1469,17 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <f>SUM(E2:E10)</f>
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="F11" s="1">
         <f>SUM(F2:F10)</f>
-        <v>72000</v>
+        <v>81600</v>
       </c>
       <c r="G11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43106.714193402775" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="9">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43106.716305787035" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="9">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G10" sheet="工作表1"/>
   </cacheSource>
@@ -526,8 +526,8 @@
     </cacheField>
     <cacheField name="估值状态" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
+        <s v="正常估值"/>
         <s v="低估值"/>
-        <s v="正常估值"/>
         <s v="主动"/>
         <m u="1"/>
       </sharedItems>
@@ -536,7 +536,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="周投金额" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="400"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="400"/>
     </cacheField>
     <cacheField name="年投估算" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="19200"/>
@@ -561,14 +561,14 @@
     <x v="0"/>
     <x v="0"/>
     <s v="定投/周"/>
-    <n v="400"/>
-    <n v="19200"/>
+    <n v="0"/>
+    <n v="0"/>
     <s v="低估边缘，后续加大额度"/>
   </r>
   <r>
     <s v="嘉实基本面50指数(160716)"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="持有"/>
     <m/>
     <n v="0"/>
@@ -577,7 +577,7 @@
   <r>
     <s v="景顺长城泸深300增强(000311)"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="持有"/>
     <m/>
     <n v="0"/>
@@ -586,7 +586,7 @@
   <r>
     <s v="华宝兴业标普中国A股红利机会(501029)"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="定投/周"/>
     <n v="400"/>
     <n v="19200"/>
@@ -595,7 +595,7 @@
   <r>
     <s v="景顺长城中证500行业中性低波动(003318)"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="定投/周"/>
     <n v="400"/>
     <n v="19200"/>
@@ -604,7 +604,7 @@
   <r>
     <s v="建信中证500指数增强(000478)"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="定投/周"/>
     <n v="400"/>
     <n v="19200"/>
@@ -658,8 +658,8 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="4">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
         <item m="1" x="3"/>
         <item x="2"/>
       </items>
@@ -762,13 +762,13 @@
       <x v="7"/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
       <x v="8"/>
     </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="9"/>
     </i>
     <i>
       <x v="6"/>
@@ -1060,7 +1060,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1139,26 +1139,24 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4">
-        <v>400</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
         <f t="shared" ref="F2:F10" si="0">E2*4*12</f>
-        <v>19200</v>
-      </c>
-      <c r="G2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I2" s="8" t="s">
@@ -1171,19 +1169,19 @@
         <v>800</v>
       </c>
       <c r="L2" s="9">
-        <v>0.47058823529411764</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="O2" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P2" s="6">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="Q2" s="9">
-        <v>0.94117647058823528</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -1215,15 +1213,17 @@
         <v>400</v>
       </c>
       <c r="L3" s="9">
-        <v>0.23529411764705882</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>43</v>
       </c>
       <c r="O3" s="6">
-        <v>2</v>
-      </c>
-      <c r="P3" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
@@ -1250,16 +1250,16 @@
         <v>38</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J4" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" s="6">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L4" s="9">
-        <v>0.23529411764705882</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>40</v>
@@ -1271,7 +1271,7 @@
         <v>100</v>
       </c>
       <c r="Q4" s="9">
-        <v>5.8823529411764705E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -1296,16 +1296,14 @@
       </c>
       <c r="G5" s="4"/>
       <c r="I5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="6">
-        <v>100</v>
-      </c>
+      <c r="K5" s="6"/>
       <c r="L5" s="9">
-        <v>5.8823529411764705E-2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>25</v>
@@ -1314,7 +1312,7 @@
         <v>9</v>
       </c>
       <c r="P5" s="6">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="Q5" s="9">
         <v>1</v>
@@ -1342,12 +1340,14 @@
       </c>
       <c r="G6" s="4"/>
       <c r="I6" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
       <c r="L6" s="9">
         <v>0</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="K8" s="6">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="L8" s="9">
         <v>1</v>
@@ -1469,11 +1469,11 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <f>SUM(E2:E10)</f>
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="F11" s="1">
         <f>SUM(F2:F10)</f>
-        <v>81600</v>
+        <v>62400</v>
       </c>
       <c r="G11" s="1"/>
     </row>

--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr showInkAnnotation="0" hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr showInkAnnotation="0" hidePivotFieldList="1" checkCompatibility="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/data/soft/xstarcd.github.io/wiki/img/fund/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="计划" sheetId="1" r:id="rId1"/>
+    <sheet name="指数估值" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId2"/>
+    <pivotCache cacheId="12" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="171">
   <si>
     <t>基金</t>
     <rPh sb="0" eb="1">
@@ -52,9 +58,6 @@
   <si>
     <t>华宝兴业标普中国A股红利机会(501029)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达消费行业股票(110022)</t>
   </si>
   <si>
     <t>备注</t>
@@ -228,15 +231,948 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消费行业</t>
-  </si>
-  <si>
-    <t>消费行业</t>
-    <rPh sb="0" eb="1">
+    <t>投入比例</t>
+  </si>
+  <si>
+    <t>周投合计</t>
+  </si>
+  <si>
+    <t>中小盘</t>
+  </si>
+  <si>
+    <t>中小盘</t>
+    <rPh sb="0" eb="1">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ih</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tel</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金数</t>
+  </si>
+  <si>
+    <t>小计</t>
+    <rPh sb="0" eb="1">
+      <t>ih</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动</t>
+  </si>
+  <si>
+    <t>主动</t>
+    <rPh sb="0" eb="1">
+      <t>y</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fcl</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低估值</t>
+  </si>
+  <si>
+    <t>正常估值</t>
+  </si>
+  <si>
+    <t>指数代码</t>
+    <rPh sb="0" eb="1">
+      <t>rxj</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ovt</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wadc</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数名称</t>
+    <rPh sb="0" eb="1">
+      <t>rxj</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ovt</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qk</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tq</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考指标</t>
+    <rPh sb="0" eb="1">
+      <t>cdft</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>rxsf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低估阈值</t>
+    <rPh sb="0" eb="1">
+      <t>wqa</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>uak</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wfhg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高估阈值</t>
+    <rPh sb="0" eb="1">
+      <t>ym</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>uak</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wfhg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场内基金</t>
+    <rPh sb="0" eb="1">
+      <t>fnrt</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mw</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ad</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qqqq</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场外基金</t>
+    <rPh sb="0" eb="1">
+      <t>fnrt</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>adq</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>399550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000925</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSCEI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证红利</t>
+    <rPh sb="0" eb="1">
+      <t>h</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ygh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xa</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tjh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50AH优选</t>
+    <rPh sb="4" eb="5">
+      <t>wdn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tfqp</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>央视50</t>
+    <rPh sb="0" eb="1">
+      <t>mdpy</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证红利</t>
+    <rPh sb="0" eb="1">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ygh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xa</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tjh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本面50</t>
+    <rPh sb="0" eb="1">
+      <t>ad</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证50</t>
+    <rPh sb="0" eb="1">
+      <t>h</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ygh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>399922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证180</t>
+    <rPh sb="0" eb="1">
+      <t>h</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ygh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒生指数</t>
+    <rPh sb="0" eb="1">
+      <t>ngj</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>rxj</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H股指数</t>
+    <rPh sb="1" eb="2">
+      <t>emc</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>rxj</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利收益率</t>
+    <rPh sb="0" eb="1">
+      <t>ecl</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tjh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nh</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>uwl</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利收益率法：10%进入低估，6.4%进入高估为准进行计算，H股指数11%进入低估，7.04%进入高估。</t>
+    <rPh sb="0" eb="1">
+      <t>ectj</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nhuw</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yx</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>if</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fj</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ty</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wqa</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wd</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>fj</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ty</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ym</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>wd</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>o</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>uwy</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fj</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>tf</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yf</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>tha</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>emc</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>rxj</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ovt</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>fj</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ty</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>wqa</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>wd</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>fj</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ty</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ym</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>wd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国债利率*2</t>
+    <rPh sb="0" eb="1">
+      <t>lgy</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wgmy</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tjyx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7%(市净率1.5)</t>
+    <rPh sb="3" eb="4">
+      <t>ymhj</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>uqv</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国债利率*2*1.1</t>
+    <rPh sb="0" eb="1">
+      <t>lgy</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wgmy</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tjyx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>165321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160716</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>040180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSPSADRP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红利机会</t>
+    <rPh sb="0" eb="1">
+      <t>xa</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tjh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市盈率</t>
+    <rPh sb="0" eb="1">
+      <t>ymhj</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ecl</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>399905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸深300</t>
+    <rPh sb="0" eb="1">
+      <t>ihn</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ipw</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000931</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选消费</t>
+    <rPh sb="0" eb="1">
+      <t>sk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tfqp</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>iie</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh sb="3" eb="4">
       <t>xjm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159936</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>399004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳100R</t>
+    <rPh sb="0" eb="1">
+      <t>ipw</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fkh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>399001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳成指</t>
+    <rPh sb="0" eb="1">
+      <t>ipw</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fkh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>rxj</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159943</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>163109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>399812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证养老</t>
+    <rPh sb="0" eb="1">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ygh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>udy</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ftx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000932</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证消费</t>
+    <rPh sb="0" eb="1">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ygh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>iie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xjm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159928</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证500</t>
+    <rPh sb="0" eb="1">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ygh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000978</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证医药</t>
+    <rPh sb="0" eb="1">
+      <t>khyg</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ygh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>atax</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>399006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业板指</t>
+    <rPh sb="0" eb="1">
+      <t>wbog</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>src</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>rxj</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳斯达克100</t>
+    <rPh sb="0" eb="1">
+      <t>xmw</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>adwr</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dp</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dq</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>513100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标普500</t>
+    <rPh sb="0" eb="1">
+      <t>sfi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>uo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>513500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>050025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>399919</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸深300价值</t>
+    <rPh sb="0" eb="1">
+      <t>ihn</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ipw</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wwj</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wfhg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17(市净率2)</t>
+    <rPh sb="3" eb="4">
+      <t>ymhj</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>uqv</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310398</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>399701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本面60</t>
+    <rPh sb="0" eb="1">
+      <t>adsg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159916</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>399702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本面120</t>
+    <rPh sb="0" eb="1">
+      <t>ad</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>070023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>530015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证500低波动</t>
+    <rPh sb="0" eb="1">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ygh</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wqa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ihc</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fcl</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>399975</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地产行业</t>
+    <rPh sb="0" eb="1">
+      <t>f</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>u</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>tf</t>
@@ -247,10 +1183,89 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>环保医疗</t>
-  </si>
-  <si>
-    <t>环保医疗</t>
+    <t>市净率</t>
+    <rPh sb="0" eb="1">
+      <t>ymhj</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>uqv</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>162411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>162411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>399241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券公司</t>
+    <rPh sb="0" eb="1">
+      <t>ygh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>udv</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wcng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>399967</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军工行业</t>
+    <rPh sb="0" eb="1">
+      <t>pl</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>a</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tf</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>og</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000827</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环保行业</t>
     <rPh sb="0" eb="1">
       <t>ggi</t>
     </rPh>
@@ -258,121 +1273,149 @@
       <t>wk</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>atd</t>
+      <t>tf</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>ubi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投入比例</t>
-  </si>
-  <si>
-    <t>周投合计</t>
-  </si>
-  <si>
-    <t>中小盘</t>
-  </si>
-  <si>
-    <t>中小盘</t>
+      <t>og</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证500增强</t>
     <rPh sb="0" eb="1">
       <t>kh</t>
     </rPh>
     <rPh sb="1" eb="2">
-      <t>ih</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tel</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金数</t>
-  </si>
-  <si>
-    <t>小计</t>
-    <rPh sb="0" eb="1">
-      <t>ih</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待进入低值后再开始定投</t>
-    <rPh sb="0" eb="1">
-      <t>tffy</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fj</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ty</t>
+      <t>ygh</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸深300增强</t>
+    <rPh sb="0" eb="1">
+      <t>ihn</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ipw</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝油气</t>
+    <rPh sb="0" eb="1">
+      <t>wxf</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>pgy</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>img</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>wqa</t>
+      <t>rnb</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信深证基本面60ETF联接(530015)</t>
+    <rPh sb="0" eb="1">
+      <t>vfhp</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wy</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ipw</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ygh</t>
     </rPh>
     <rPh sb="4" eb="5">
+      <t>ad</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sg</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dm</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ruv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申万菱泸深300价值</t>
+    <rPh sb="0" eb="1">
+      <t>jhy</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dnv</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>afw</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ihn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ipw</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wwj</t>
+    </rPh>
+    <rPh sb="9" eb="10">
       <t>wfhg</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>rg</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gmf</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ga</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>vck</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>pg</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>rmc</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低估边缘，后续加大额度</t>
-    <rPh sb="6" eb="7">
-      <t>xfn</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动</t>
-  </si>
-  <si>
-    <t>主动</t>
-    <rPh sb="0" eb="1">
-      <t>y</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fcl</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低估值</t>
-  </si>
-  <si>
-    <t>正常估值</t>
-  </si>
-  <si>
-    <t>已赎回</t>
-    <rPh sb="0" eb="1">
-      <t>nnxc</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>mfn</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lkd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合</t>
+  </si>
+  <si>
+    <t>混合</t>
+    <rPh sb="0" eb="1">
+      <t>ijx</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wgk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时</t>
+    <rPh sb="0" eb="1">
+      <t>lrj</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jf</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,7 +1424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -412,8 +1455,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +1508,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +1557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -487,6 +1572,61 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -502,25 +1642,26 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43106.716305787035" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="9">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Microsoft Office 用户" refreshedDate="43141.548941435183" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G10" sheet="工作表1"/>
+    <worksheetSource ref="A1:G11" sheet="计划"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="基金" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="类型" numFmtId="0">
-      <sharedItems containsBlank="1" count="10">
+      <sharedItems containsBlank="1" count="11">
         <s v="大盘"/>
         <s v="均衡"/>
         <s v="中小盘"/>
-        <s v="环保医疗"/>
+        <s v="混合"/>
         <s v="泸港深"/>
-        <s v="消费行业"/>
         <m u="1"/>
+        <s v="环保医疗" u="1"/>
+        <s v="主动型" u="1"/>
         <s v="中盘(150只)" u="1"/>
-        <s v="主动型" u="1"/>
+        <s v="消费行业" u="1"/>
         <s v="中盘" u="1"/>
       </sharedItems>
     </cacheField>
@@ -536,13 +1677,13 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="周投金额" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="400"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="400"/>
     </cacheField>
     <cacheField name="年投估算" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="19200"/>
     </cacheField>
     <cacheField name="备注" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="比例" numFmtId="0" formula="周投金额" databaseField="0"/>
   </cacheFields>
@@ -555,15 +1696,15 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="9">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
   <r>
     <s v="富国中证红利指数增强(100032)"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="定投/周"/>
+    <s v="持有"/>
+    <m/>
     <n v="0"/>
-    <n v="0"/>
-    <s v="低估边缘，后续加大额度"/>
+    <m/>
   </r>
   <r>
     <s v="嘉实基本面50指数(160716)"/>
@@ -581,7 +1722,7 @@
     <s v="持有"/>
     <m/>
     <n v="0"/>
-    <s v="待进入低值后再开始定投"/>
+    <m/>
   </r>
   <r>
     <s v="华宝兴业标普中国A股红利机会(501029)"/>
@@ -608,31 +1749,40 @@
     <s v="定投/周"/>
     <n v="400"/>
     <n v="19200"/>
-    <s v="低估边缘，后续加大额度"/>
+    <m/>
+  </r>
+  <r>
+    <s v="建信深证基本面60ETF联接(530015)"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="定投/周"/>
+    <n v="200"/>
+    <n v="9600"/>
+    <m/>
+  </r>
+  <r>
+    <s v="申万菱泸深300价值"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="定投/周"/>
+    <n v="200"/>
+    <n v="9600"/>
+    <m/>
   </r>
   <r>
     <s v="国泰金龙行业混合(020003)"/>
     <x v="3"/>
     <x v="2"/>
     <s v="定投/周"/>
-    <n v="100"/>
-    <n v="4800"/>
+    <m/>
+    <n v="0"/>
     <m/>
   </r>
   <r>
     <s v="嘉实泸港深精选股票(001878)"/>
     <x v="4"/>
     <x v="2"/>
-    <s v="持有"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="易方达消费行业股票(110022)"/>
-    <x v="5"/>
-    <x v="2"/>
-    <s v="已赎回"/>
+    <s v="定投/周"/>
     <m/>
     <n v="0"/>
     <m/>
@@ -641,7 +1791,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
   <location ref="N1:Q5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -716,22 +1866,23 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="基金类型-金额统计" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
-  <location ref="I1:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="基金类型-金额统计" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
+  <location ref="I1:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="11">
-        <item m="1" x="6"/>
+      <items count="12">
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
         <item m="1" x="8"/>
-        <item x="2"/>
-        <item m="1" x="7"/>
+        <item m="1" x="10"/>
         <item m="1" x="9"/>
-        <item x="5"/>
         <item x="4"/>
         <item x="1"/>
+        <item m="1" x="6"/>
+        <item x="0"/>
         <item x="3"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -754,21 +1905,18 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="6">
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="9"/>
+      <x v="10"/>
     </i>
     <i>
       <x v="6"/>
@@ -1060,7 +2208,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1068,27 +2216,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.625" customWidth="1"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="8.125" customWidth="1"/>
-    <col min="11" max="12" width="10.25" customWidth="1"/>
-    <col min="13" max="13" width="5.125" customWidth="1"/>
-    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" customWidth="1"/>
+    <col min="14" max="14" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="7.5" customWidth="1"/>
+    <col min="16" max="17" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
@@ -1096,46 +2244,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -1143,24 +2291,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F10" si="0">E2*4*12</f>
+        <f t="shared" ref="F2:F11" si="0">E2*4*12</f>
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="G2" s="3"/>
       <c r="I2" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J2" s="6">
         <v>2</v>
@@ -1169,19 +2315,19 @@
         <v>800</v>
       </c>
       <c r="L2" s="9">
-        <v>0.61538461538461542</v>
+        <v>0.5</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O2" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P2" s="6">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="Q2" s="9">
-        <v>0.92307692307692313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -1189,13 +2335,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
@@ -1204,74 +2350,68 @@
       </c>
       <c r="G3" s="3"/>
       <c r="I3" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K3" s="6">
         <v>400</v>
       </c>
       <c r="L3" s="9">
-        <v>0.30769230769230771</v>
+        <v>0.25</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O3" s="6">
         <v>3</v>
       </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
+      <c r="P3" s="6"/>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="G4" s="3"/>
       <c r="I4" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
       </c>
       <c r="K4" s="6">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L4" s="9">
-        <v>7.6923076923076927E-2</v>
+        <v>0.25</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O4" s="6">
-        <v>3</v>
-      </c>
-      <c r="P4" s="6">
-        <v>100</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P4" s="6"/>
       <c r="Q4" s="9">
-        <v>7.6923076923076927E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -1279,13 +2419,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4">
         <v>400</v>
@@ -1296,7 +2436,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="I5" s="8" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
@@ -1306,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P5" s="6">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="Q5" s="9">
         <v>1</v>
@@ -1320,16 +2460,16 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4">
         <v>400</v>
@@ -1340,14 +2480,12 @@
       </c>
       <c r="G6" s="4"/>
       <c r="I6" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J6" s="6">
-        <v>3</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K6" s="6"/>
       <c r="L6" s="9">
         <v>0</v>
       </c>
@@ -1357,13 +2495,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4">
         <v>400</v>
@@ -1372,114 +2510,1026 @@
         <f t="shared" si="0"/>
         <v>19200</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="I7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J7" s="6">
+        <v>10</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1600</v>
+      </c>
+      <c r="L7" s="9">
         <v>1</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2">
-        <v>100</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="A8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4">
+        <v>200</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>4800</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="I8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="6">
-        <v>9</v>
-      </c>
-      <c r="K8" s="6">
-        <v>1300</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
+        <v>9600</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
+      <c r="A9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>200</v>
+      </c>
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>9600</v>
+      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <f>SUM(E2:E10)</f>
-        <v>1300</v>
-      </c>
-      <c r="F11" s="1">
-        <f>SUM(F2:F10)</f>
-        <v>62400</v>
-      </c>
-      <c r="G11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <f>SUM(E2:E11)</f>
+        <v>1600</v>
+      </c>
+      <c r="F12" s="1">
+        <f>SUM(F2:F11)</f>
+        <v>76800</v>
+      </c>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I35"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="10"/>
+    <col min="9" max="9" width="9.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="12">
+        <v>10</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="22">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="12">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="22">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="12">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="22">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="12">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="22">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="12">
+        <v>10</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="22">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="12">
+        <v>10</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="22">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="12">
+        <v>10</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="22">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="12">
+        <v>11</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="22">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="12">
+        <v>11</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="22">
+        <v>10</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="17">
+        <v>15</v>
+      </c>
+      <c r="G13" s="17">
+        <v>25</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="22">
+        <v>11</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="17">
+        <v>11</v>
+      </c>
+      <c r="G14" s="17">
+        <v>17</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="22">
+        <v>12</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="17">
+        <v>13</v>
+      </c>
+      <c r="G15" s="17">
+        <v>17</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="22">
+        <v>13</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="17">
+        <v>13</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="22">
+        <v>14</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="17">
+        <v>24</v>
+      </c>
+      <c r="G17" s="17">
+        <v>29</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="22">
+        <v>15</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="17">
+        <v>25</v>
+      </c>
+      <c r="G18" s="17">
+        <v>30</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="22">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="17">
+        <v>25</v>
+      </c>
+      <c r="G19" s="17">
+        <v>40</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="22">
+        <v>17</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="17">
+        <v>33</v>
+      </c>
+      <c r="G20" s="17">
+        <v>40</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="22">
+        <v>18</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="17">
+        <v>33</v>
+      </c>
+      <c r="G21" s="17">
+        <v>40</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="22">
+        <v>19</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="17">
+        <v>34</v>
+      </c>
+      <c r="G22" s="17">
+        <v>45</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="22">
+        <v>20</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="17">
+        <v>17</v>
+      </c>
+      <c r="G23" s="17">
+        <v>28</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="22">
+        <v>21</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="17">
+        <v>15</v>
+      </c>
+      <c r="G24" s="17">
+        <v>29</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="22">
+        <v>22</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="17">
+        <v>18</v>
+      </c>
+      <c r="G25" s="17">
+        <v>26</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="22">
+        <v>23</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="17">
+        <v>23</v>
+      </c>
+      <c r="G26" s="17">
+        <v>35</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="22">
+        <v>24</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="17">
+        <v>24</v>
+      </c>
+      <c r="G27" s="17">
+        <v>33</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="22">
+        <v>25</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="17">
+        <v>28</v>
+      </c>
+      <c r="G28" s="17">
+        <v>40</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="22">
+        <v>26</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="17">
+        <v>20</v>
+      </c>
+      <c r="G29" s="17">
+        <v>30</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B30" s="22">
+        <v>27</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="17">
+        <v>16</v>
+      </c>
+      <c r="G30" s="17">
+        <v>25</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="22">
+        <v>28</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" s="19">
+        <v>2</v>
+      </c>
+      <c r="G31" s="19">
+        <v>3</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32" s="22">
+        <v>29</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="G32" s="19">
+        <v>3.3</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="22">
+        <v>30</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="19">
+        <v>3</v>
+      </c>
+      <c r="G33" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="22">
+        <v>31</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="19">
+        <v>3</v>
+      </c>
+      <c r="G34" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B35" s="22">
+        <v>32</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G35" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="I5:I17 H4:H35 I18:I35 C4:C35" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1372,7 +1372,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>申万菱泸深300价值</t>
+    <t>混合</t>
+  </si>
+  <si>
+    <t>混合</t>
+    <rPh sb="0" eb="1">
+      <t>ijx</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wgk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时</t>
+    <rPh sb="0" eb="1">
+      <t>lrj</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申万菱泸深300价值(310398)</t>
     <rPh sb="0" eb="1">
       <t>jhy</t>
     </rPh>
@@ -1393,29 +1416,6 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>wfhg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混合</t>
-  </si>
-  <si>
-    <t>混合</t>
-    <rPh sb="0" eb="1">
-      <t>ijx</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wgk</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时</t>
-    <rPh sb="0" eb="1">
-      <t>lrj</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jf</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1642,7 +1642,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Microsoft Office 用户" refreshedDate="43141.548941435183" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Microsoft Office 用户" refreshedDate="43141.561071875003" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G11" sheet="计划"/>
   </cacheSource>
@@ -1658,11 +1658,11 @@
         <s v="混合"/>
         <s v="泸港深"/>
         <m u="1"/>
-        <s v="环保医疗" u="1"/>
+        <s v="消费行业" u="1"/>
         <s v="主动型" u="1"/>
         <s v="中盘(150只)" u="1"/>
-        <s v="消费行业" u="1"/>
         <s v="中盘" u="1"/>
+        <s v="环保医疗" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="估值状态" numFmtId="0">
@@ -1683,7 +1683,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="19200"/>
     </cacheField>
     <cacheField name="备注" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="比例" numFmtId="0" formula="周投金额" databaseField="0"/>
   </cacheFields>
@@ -1776,7 +1776,7 @@
     <s v="定投/周"/>
     <m/>
     <n v="0"/>
-    <m/>
+    <s v="暂时"/>
   </r>
   <r>
     <s v="嘉实泸港深精选股票(001878)"/>
@@ -1785,13 +1785,101 @@
     <s v="定投/周"/>
     <m/>
     <n v="0"/>
-    <m/>
+    <s v="暂时"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="基金类型-金额统计" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
+  <location ref="I1:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="12">
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="基金数" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="周投合计" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="投入比例" fld="4" showDataAs="percentOfCol" baseField="1" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleDark7" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
   <location ref="N1:Q5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -1832,94 +1920,6 @@
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="基金数" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="周投合计" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="投入比例" fld="4" showDataAs="percentOfCol" baseField="1" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleDark7" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="基金类型-金额统计" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
-  <location ref="I1:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="12">
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -2219,7 +2219,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="I5" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -2573,7 +2573,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">

--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" checkCompatibility="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/data/soft/xstarcd.github.io/wiki/img/fund/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="1" r:id="rId1"/>
     <sheet name="指数估值" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="172">
   <si>
     <t>基金</t>
     <rPh sb="0" eb="1">
@@ -1416,6 +1411,16 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>wfhg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盘6/中小盘4</t>
+    <rPh sb="0" eb="1">
+      <t>dd</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tel</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1642,7 +1647,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Microsoft Office 用户" refreshedDate="43141.561071875003" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43205.460877083337" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G11" sheet="计划"/>
   </cacheSource>
@@ -1761,7 +1766,7 @@
     <m/>
   </r>
   <r>
-    <s v="申万菱泸深300价值"/>
+    <s v="申万菱泸深300价值(310398)"/>
     <x v="0"/>
     <x v="1"/>
     <s v="定投/周"/>
@@ -1996,7 +2001,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2031,7 +2036,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2208,7 +2213,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2219,24 +2224,25 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" customWidth="1"/>
-    <col min="10" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="5.1640625" customWidth="1"/>
-    <col min="14" max="14" width="9.5" customWidth="1"/>
-    <col min="15" max="15" width="7.5" customWidth="1"/>
-    <col min="16" max="17" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="8.125" customWidth="1"/>
+    <col min="11" max="12" width="10.25" customWidth="1"/>
+    <col min="13" max="13" width="5.125" customWidth="1"/>
+    <col min="14" max="14" width="9.75" customWidth="1"/>
+    <col min="15" max="15" width="8.125" customWidth="1"/>
+    <col min="16" max="17" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
@@ -2291,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
@@ -2299,10 +2305,12 @@
       <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>300</v>
+      </c>
       <c r="F2" s="3">
         <f t="shared" ref="F2:F11" si="0">E2*4*12</f>
-        <v>0</v>
+        <v>14400</v>
       </c>
       <c r="G2" s="3"/>
       <c r="I2" s="8" t="s">
@@ -2343,7 +2351,9 @@
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2385,7 +2395,9 @@
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2560,11 +2572,11 @@
         <v>12</v>
       </c>
       <c r="E9" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>9600</v>
+        <v>14400</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -2621,11 +2633,11 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1">
         <f>SUM(E2:E11)</f>
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="1">
         <f>SUM(F2:F11)</f>
-        <v>76800</v>
+        <v>96000</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -2641,10 +2653,10 @@
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
@@ -2652,7 +2664,7 @@
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="10"/>
+    <col min="8" max="8" width="10.875" style="10"/>
     <col min="9" max="9" width="9.5" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
   </cols>

--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -2,17 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr showInkAnnotation="0" hidePivotFieldList="1" checkCompatibility="1"/>
+  <workbookPr showInkAnnotation="0" hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20400" windowHeight="6375" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="计划" sheetId="1" r:id="rId1"/>
-    <sheet name="指数估值" sheetId="2" r:id="rId2"/>
+    <sheet name="记录" sheetId="4" r:id="rId1"/>
+    <sheet name="计划" sheetId="1" r:id="rId2"/>
+    <sheet name="指数估值" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="184">
   <si>
     <t>基金</t>
     <rPh sb="0" eb="1">
@@ -1422,6 +1423,53 @@
     <rPh sb="1" eb="2">
       <t>tel</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投基数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首投指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盘6/中小盘4</t>
+  </si>
+  <si>
+    <t>小计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针大20180508实盘计算：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前日指数指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1429,7 +1477,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1481,6 +1533,30 @@
       <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1562,7 +1638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1632,6 +1708,84 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1647,7 +1801,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43205.460877083337" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43233.731311111114" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G11" sheet="计划"/>
   </cacheSource>
@@ -1656,7 +1810,8 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="类型" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
+      <sharedItems containsBlank="1" count="12">
+        <s v="大盘6/中小盘4"/>
         <s v="大盘"/>
         <s v="均衡"/>
         <s v="中小盘"/>
@@ -1682,7 +1837,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="周投金额" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="400"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="400"/>
     </cacheField>
     <cacheField name="年投估算" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="19200"/>
@@ -1707,31 +1862,31 @@
     <x v="0"/>
     <x v="0"/>
     <s v="持有"/>
-    <m/>
-    <n v="0"/>
+    <n v="300"/>
+    <n v="14400"/>
     <m/>
   </r>
   <r>
     <s v="嘉实基本面50指数(160716)"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <s v="持有"/>
-    <m/>
+    <n v="0"/>
     <n v="0"/>
     <m/>
   </r>
   <r>
     <s v="景顺长城泸深300增强(000311)"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <s v="持有"/>
-    <m/>
+    <n v="0"/>
     <n v="0"/>
     <m/>
   </r>
   <r>
     <s v="华宝兴业标普中国A股红利机会(501029)"/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <s v="定投/周"/>
     <n v="400"/>
@@ -1740,7 +1895,7 @@
   </r>
   <r>
     <s v="景顺长城中证500行业中性低波动(003318)"/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <s v="定投/周"/>
     <n v="400"/>
@@ -1749,7 +1904,7 @@
   </r>
   <r>
     <s v="建信中证500指数增强(000478)"/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <s v="定投/周"/>
     <n v="400"/>
@@ -1758,7 +1913,7 @@
   </r>
   <r>
     <s v="建信深证基本面60ETF联接(530015)"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="定投/周"/>
     <n v="200"/>
@@ -1767,16 +1922,16 @@
   </r>
   <r>
     <s v="申万菱泸深300价值(310398)"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="定投/周"/>
-    <n v="200"/>
-    <n v="9600"/>
+    <n v="300"/>
+    <n v="14400"/>
     <m/>
   </r>
   <r>
     <s v="国泰金龙行业混合(020003)"/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="2"/>
     <s v="定投/周"/>
     <m/>
@@ -1785,7 +1940,7 @@
   </r>
   <r>
     <s v="嘉实泸港深精选股票(001878)"/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="2"/>
     <s v="定投/周"/>
     <m/>
@@ -1797,22 +1952,23 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="基金类型-金额统计" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
-  <location ref="I1:L7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="I1:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="12">
-        <item m="1" x="5"/>
+      <items count="13">
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item x="3"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
         <item m="1" x="7"/>
+        <item x="5"/>
         <item x="2"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
+        <item m="1" x="11"/>
+        <item x="1"/>
         <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
         <item x="0"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -1835,7 +1991,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="7">
     <i>
       <x v="2"/>
     </i>
@@ -1846,10 +2002,13 @@
       <x v="7"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="11"/>
     </i>
     <i>
       <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -2221,10 +2380,843 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="30" customWidth="1"/>
+    <col min="6" max="7" width="8" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.75" style="37" customWidth="1"/>
+    <col min="10" max="10" width="4.625" style="37" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="6.75" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="36" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A2" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="O2" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="54">
+        <v>33</v>
+      </c>
+      <c r="E3" s="54">
+        <v>40</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="57">
+        <v>1666</v>
+      </c>
+      <c r="I3" s="39">
+        <v>2</v>
+      </c>
+      <c r="J3" s="39">
+        <v>31</v>
+      </c>
+      <c r="K3" s="60">
+        <v>20180508</v>
+      </c>
+      <c r="L3" s="40">
+        <v>24.79</v>
+      </c>
+      <c r="M3" s="58">
+        <f>IFERROR(IF(C3="盈利收益率",POWER(L3/J3,I3),POWER(J3/L3,I3)),0)</f>
+        <v>1.5637608432006751</v>
+      </c>
+      <c r="N3" s="59">
+        <f>H3*M3</f>
+        <v>2605.2255647723246</v>
+      </c>
+      <c r="O3" s="40">
+        <v>2605</v>
+      </c>
+      <c r="P3" s="59">
+        <f>O3-N3</f>
+        <v>-0.22556477232456018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="54">
+        <v>15</v>
+      </c>
+      <c r="E4" s="54">
+        <v>25</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="57">
+        <v>1666</v>
+      </c>
+      <c r="I4" s="39">
+        <v>2</v>
+      </c>
+      <c r="J4" s="39">
+        <v>15</v>
+      </c>
+      <c r="K4" s="60">
+        <v>20180508</v>
+      </c>
+      <c r="L4" s="40">
+        <v>13.47</v>
+      </c>
+      <c r="M4" s="58">
+        <f t="shared" ref="M4:M8" si="0">IFERROR(IF(C4="盈利收益率",POWER(L4/J4,I4),POWER(J4/L4,I4)),0)</f>
+        <v>1.2400732139225499</v>
+      </c>
+      <c r="N4" s="59">
+        <f t="shared" ref="N4:N8" si="1">H4*M4</f>
+        <v>2065.9619743949679</v>
+      </c>
+      <c r="O4" s="40">
+        <v>2066</v>
+      </c>
+      <c r="P4" s="59">
+        <f>O4-N4</f>
+        <v>3.8025605032089516E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="56">
+        <v>25</v>
+      </c>
+      <c r="E5" s="56">
+        <v>30</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="57">
+        <v>1666</v>
+      </c>
+      <c r="I5" s="39">
+        <v>2</v>
+      </c>
+      <c r="J5" s="39">
+        <v>25</v>
+      </c>
+      <c r="K5" s="60">
+        <v>20180508</v>
+      </c>
+      <c r="L5" s="40">
+        <v>19.28</v>
+      </c>
+      <c r="M5" s="58">
+        <f t="shared" si="0"/>
+        <v>1.6813803136998327</v>
+      </c>
+      <c r="N5" s="59">
+        <f t="shared" si="1"/>
+        <v>2801.1796026239213</v>
+      </c>
+      <c r="O5" s="40">
+        <v>2801</v>
+      </c>
+      <c r="P5" s="59">
+        <f>O5-N5</f>
+        <v>-0.17960262392125514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="54">
+        <v>10</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="57">
+        <v>1666</v>
+      </c>
+      <c r="I6" s="39">
+        <v>2</v>
+      </c>
+      <c r="J6" s="39">
+        <v>10</v>
+      </c>
+      <c r="K6" s="60">
+        <v>20180508</v>
+      </c>
+      <c r="L6" s="40">
+        <v>11.21</v>
+      </c>
+      <c r="M6" s="58">
+        <f t="shared" si="0"/>
+        <v>1.2566409999999999</v>
+      </c>
+      <c r="N6" s="59">
+        <f t="shared" si="1"/>
+        <v>2093.5639059999999</v>
+      </c>
+      <c r="O6" s="40">
+        <v>2094</v>
+      </c>
+      <c r="P6" s="59">
+        <f t="shared" ref="P6:P8" si="2">O6-N6</f>
+        <v>0.4360940000001392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="56">
+        <v>10</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="57">
+        <v>1666</v>
+      </c>
+      <c r="I7" s="39">
+        <v>2</v>
+      </c>
+      <c r="J7" s="39">
+        <v>10</v>
+      </c>
+      <c r="K7" s="60">
+        <v>20180508</v>
+      </c>
+      <c r="L7" s="40">
+        <v>11.18</v>
+      </c>
+      <c r="M7" s="58">
+        <f t="shared" si="0"/>
+        <v>1.2499239999999998</v>
+      </c>
+      <c r="N7" s="59">
+        <f t="shared" si="1"/>
+        <v>2082.3733839999995</v>
+      </c>
+      <c r="O7" s="40">
+        <v>2080</v>
+      </c>
+      <c r="P7" s="59">
+        <f t="shared" si="2"/>
+        <v>-2.3733839999995325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="56">
+        <v>24</v>
+      </c>
+      <c r="E8" s="56">
+        <v>33</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="57">
+        <v>1666</v>
+      </c>
+      <c r="I8" s="39">
+        <v>2</v>
+      </c>
+      <c r="J8" s="39">
+        <v>24</v>
+      </c>
+      <c r="K8" s="60">
+        <v>20180508</v>
+      </c>
+      <c r="L8" s="40">
+        <v>22.14</v>
+      </c>
+      <c r="M8" s="58">
+        <f t="shared" si="0"/>
+        <v>1.1750795014725213</v>
+      </c>
+      <c r="N8" s="59">
+        <f t="shared" si="1"/>
+        <v>1957.6824494532204</v>
+      </c>
+      <c r="O8" s="40">
+        <v>1958</v>
+      </c>
+      <c r="P8" s="59">
+        <f t="shared" si="2"/>
+        <v>0.31755054677955741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="45">
+        <f>SUM(N3:N8)</f>
+        <v>13605.986881244435</v>
+      </c>
+      <c r="O9" s="45">
+        <f>SUM(O3:O8)</f>
+        <v>13604</v>
+      </c>
+      <c r="P9" s="45">
+        <f>SUM(P3:P8)</f>
+        <v>-1.9868812444335617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="36" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A12" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="M12" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="N12" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="O12" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="P12" s="50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="54">
+        <v>10</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="57">
+        <v>400</v>
+      </c>
+      <c r="I13" s="39">
+        <v>2</v>
+      </c>
+      <c r="J13" s="39">
+        <v>10</v>
+      </c>
+      <c r="K13" s="60">
+        <v>20180511</v>
+      </c>
+      <c r="L13" s="40">
+        <v>11.04</v>
+      </c>
+      <c r="M13" s="58">
+        <f t="shared" ref="M13:M18" si="3">IFERROR(IF(C13="盈利收益率",POWER(L13/J13,I13),POWER(J13/L13,I13)),0)</f>
+        <v>1.2188159999999997</v>
+      </c>
+      <c r="N13" s="59">
+        <f t="shared" ref="N13:N18" si="4">H13*M13</f>
+        <v>487.52639999999985</v>
+      </c>
+      <c r="O13" s="41">
+        <v>480</v>
+      </c>
+      <c r="P13" s="59">
+        <f t="shared" ref="P13:P19" si="5">O13-N13</f>
+        <v>-7.5263999999998532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="54">
+        <v>15</v>
+      </c>
+      <c r="E14" s="54">
+        <v>25</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="57">
+        <v>400</v>
+      </c>
+      <c r="I14" s="39">
+        <v>2</v>
+      </c>
+      <c r="J14" s="39">
+        <v>15</v>
+      </c>
+      <c r="K14" s="60">
+        <v>20180511</v>
+      </c>
+      <c r="L14" s="40">
+        <v>13.63</v>
+      </c>
+      <c r="M14" s="58">
+        <f t="shared" si="3"/>
+        <v>1.211130124358841</v>
+      </c>
+      <c r="N14" s="59">
+        <f t="shared" si="4"/>
+        <v>484.45204974353641</v>
+      </c>
+      <c r="O14" s="41">
+        <v>400</v>
+      </c>
+      <c r="P14" s="59">
+        <f t="shared" si="5"/>
+        <v>-84.452049743536406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="54">
+        <v>13</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="57">
+        <v>400</v>
+      </c>
+      <c r="I15" s="39">
+        <v>2</v>
+      </c>
+      <c r="J15" s="39">
+        <v>13</v>
+      </c>
+      <c r="K15" s="60">
+        <v>20180511</v>
+      </c>
+      <c r="L15" s="40">
+        <v>9.94</v>
+      </c>
+      <c r="M15" s="58">
+        <f t="shared" si="3"/>
+        <v>1.7104639911906048</v>
+      </c>
+      <c r="N15" s="59">
+        <f t="shared" si="4"/>
+        <v>684.18559647624193</v>
+      </c>
+      <c r="O15" s="41">
+        <v>480</v>
+      </c>
+      <c r="P15" s="59">
+        <f t="shared" si="5"/>
+        <v>-204.18559647624193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="54">
+        <v>24</v>
+      </c>
+      <c r="E16" s="54">
+        <v>29</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="57">
+        <v>400</v>
+      </c>
+      <c r="I16" s="39">
+        <v>2</v>
+      </c>
+      <c r="J16" s="39">
+        <v>24</v>
+      </c>
+      <c r="K16" s="60">
+        <v>20180511</v>
+      </c>
+      <c r="L16" s="40">
+        <v>17.75</v>
+      </c>
+      <c r="M16" s="58">
+        <f t="shared" si="3"/>
+        <v>1.8282086887522315</v>
+      </c>
+      <c r="N16" s="59">
+        <f t="shared" si="4"/>
+        <v>731.28347550089256</v>
+      </c>
+      <c r="O16" s="41">
+        <v>480</v>
+      </c>
+      <c r="P16" s="59">
+        <f t="shared" si="5"/>
+        <v>-251.28347550089256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="54">
+        <v>33</v>
+      </c>
+      <c r="E17" s="54">
+        <v>40</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="57">
+        <v>400</v>
+      </c>
+      <c r="I17" s="39">
+        <v>2</v>
+      </c>
+      <c r="J17" s="39">
+        <v>31</v>
+      </c>
+      <c r="K17" s="60">
+        <v>20180511</v>
+      </c>
+      <c r="L17" s="40">
+        <v>25.98</v>
+      </c>
+      <c r="M17" s="58">
+        <f t="shared" si="3"/>
+        <v>1.4237872325546801</v>
+      </c>
+      <c r="N17" s="59">
+        <f t="shared" si="4"/>
+        <v>569.51489302187201</v>
+      </c>
+      <c r="O17" s="41">
+        <v>400</v>
+      </c>
+      <c r="P17" s="59">
+        <f t="shared" si="5"/>
+        <v>-169.51489302187201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="54">
+        <v>33</v>
+      </c>
+      <c r="E18" s="54">
+        <v>40</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="57">
+        <v>400</v>
+      </c>
+      <c r="I18" s="39">
+        <v>2</v>
+      </c>
+      <c r="J18" s="39">
+        <v>31</v>
+      </c>
+      <c r="K18" s="60">
+        <v>20180511</v>
+      </c>
+      <c r="L18" s="40">
+        <v>24.91</v>
+      </c>
+      <c r="M18" s="58">
+        <f t="shared" si="3"/>
+        <v>1.5487307901379532</v>
+      </c>
+      <c r="N18" s="59">
+        <f t="shared" si="4"/>
+        <v>619.49231605518128</v>
+      </c>
+      <c r="O18" s="41">
+        <v>400</v>
+      </c>
+      <c r="P18" s="59">
+        <f t="shared" si="5"/>
+        <v>-219.49231605518128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="45">
+        <f>SUM(N13:N18)</f>
+        <v>3576.4547307977241</v>
+      </c>
+      <c r="O19" s="45">
+        <f>SUM(O13:O18)</f>
+        <v>2640</v>
+      </c>
+      <c r="P19" s="46">
+        <f t="shared" si="5"/>
+        <v>-936.4547307977241</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="F13:G18 A13:A18 A3:G8" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2234,9 +3226,9 @@
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.625" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="8.125" customWidth="1"/>
     <col min="11" max="12" width="10.25" customWidth="1"/>
     <col min="13" max="13" width="5.125" customWidth="1"/>
@@ -2323,7 +3315,7 @@
         <v>800</v>
       </c>
       <c r="L2" s="9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>35</v>
@@ -2332,10 +3324,10 @@
         <v>5</v>
       </c>
       <c r="P2" s="6">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="Q2" s="9">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -2363,10 +3355,10 @@
         <v>22</v>
       </c>
       <c r="J3" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" s="6">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L3" s="9">
         <v>0.25</v>
@@ -2377,9 +3369,11 @@
       <c r="O3" s="6">
         <v>3</v>
       </c>
-      <c r="P3" s="6"/>
+      <c r="P3" s="6">
+        <v>300</v>
+      </c>
       <c r="Q3" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -2413,7 +3407,7 @@
         <v>400</v>
       </c>
       <c r="L4" s="9">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>33</v>
@@ -2448,14 +3442,16 @@
       </c>
       <c r="G5" s="4"/>
       <c r="I5" s="8" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6">
+        <v>300</v>
+      </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>24</v>
@@ -2464,7 +3460,7 @@
         <v>10</v>
       </c>
       <c r="P5" s="6">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q5" s="9">
         <v>1</v>
@@ -2524,16 +3520,14 @@
       </c>
       <c r="G7" s="4"/>
       <c r="I7" s="8" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="J7" s="6">
-        <v>10</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K7" s="6"/>
       <c r="L7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -2557,6 +3551,18 @@
         <v>9600</v>
       </c>
       <c r="G8" s="4"/>
+      <c r="I8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="6">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2000</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
@@ -2648,12 +3654,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20400" windowHeight="6375" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21600" windowHeight="7545" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="4" r:id="rId1"/>
@@ -13,7 +13,8 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="14" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="194">
   <si>
     <t>基金</t>
     <rPh sb="0" eb="1">
@@ -1430,10 +1431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定投幂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1461,25 +1458,66 @@
     <t>大盘6/中小盘4</t>
   </si>
   <si>
-    <t>小计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针大20180508实盘计算：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前日指数指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>定投日期</t>
+    <rPh sb="0" eb="1">
+      <t>pg</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>rmc</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红利机会</t>
+  </si>
+  <si>
+    <t>基本面60</t>
+  </si>
+  <si>
+    <t>泸深300价值</t>
+  </si>
+  <si>
+    <t>中证500低波动</t>
+  </si>
+  <si>
+    <t>中证500增强</t>
+  </si>
+  <si>
+    <t>中证红利</t>
+  </si>
+  <si>
+    <t>求和项:定投额</t>
+  </si>
+  <si>
+    <t>计数项:实投</t>
+  </si>
+  <si>
+    <t>求和项:差额</t>
+  </si>
+  <si>
+    <t>求和项:前日指数指标</t>
+  </si>
+  <si>
+    <t>列标签</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1552,16 +1590,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1610,6 +1647,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1638,7 +1687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1710,15 +1759,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1733,19 +1773,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1758,7 +1785,6 @@
     <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1767,12 +1793,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1783,7 +1803,79 @@
     <xf numFmtId="177" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1800,8 +1892,582 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[funds.xlsx]记录!数据透视表2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>指数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>EP/PE/PB</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>走势</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>记录!$S$12:$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>红利机会</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>记录!$R$14:$R$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018/05/04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018/05/11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018/05/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018/05/24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>记录!$S$14:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>记录!$T$12:$T$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基本面60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>记录!$R$14:$R$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018/05/04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018/05/11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018/05/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018/05/24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>记录!$T$14:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.559999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>记录!$U$12:$U$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>泸深300价值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>记录!$R$14:$R$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018/05/04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018/05/11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018/05/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018/05/24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>记录!$U$14:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>记录!$V$12:$V$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>中证500低波动</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>记录!$R$14:$R$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018/05/04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018/05/11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018/05/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018/05/24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>记录!$V$14:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>记录!$W$12:$W$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>中证500增强</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>记录!$R$14:$R$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018/05/04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018/05/11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018/05/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018/05/24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>记录!$W$14:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>记录!$X$12:$X$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>中证红利</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>记录!$R$14:$R$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018/05/04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018/05/11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018/05/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018/05/24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>记录!$X$14:$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="87885312"/>
+        <c:axId val="78036992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="87885312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78036992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78036992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87885312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>264583</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43233.731311111114" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43243.894916319441" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G11" sheet="计划"/>
   </cacheSource>
@@ -1846,6 +2512,81 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="比例" numFmtId="0" formula="周投金额" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="YuanXing" refreshedDate="43243.933299421296" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="24">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:P25" sheet="记录"/>
+  </cacheSource>
+  <cacheFields count="16">
+    <cacheField name="指数代码" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="指数名称" numFmtId="49">
+      <sharedItems count="6">
+        <s v="中证红利"/>
+        <s v="泸深300价值"/>
+        <s v="基本面60"/>
+        <s v="红利机会"/>
+        <s v="中证500增强"/>
+        <s v="中证500低波动"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="参考指标" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="低估阈值" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="33"/>
+    </cacheField>
+    <cacheField name="高估阈值" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="25" maxValue="40"/>
+    </cacheField>
+    <cacheField name="场内基金" numFmtId="49">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="场外基金" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="定投基数" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="400" maxValue="400"/>
+    </cacheField>
+    <cacheField name="定投幂" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="2"/>
+    </cacheField>
+    <cacheField name="首投指标" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="31"/>
+    </cacheField>
+    <cacheField name="定投日期" numFmtId="180">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-05-04T00:00:00" maxDate="2018-05-25T00:00:00" count="4">
+        <d v="2018-05-04T00:00:00"/>
+        <d v="2018-05-11T00:00:00"/>
+        <d v="2018-05-18T00:00:00"/>
+        <d v="2018-05-24T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="前日指数指标" numFmtId="179">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.74" maxValue="25.98"/>
+    </cacheField>
+    <cacheField name="定投比率" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.211130124358841" maxValue="1.9402242508494376"/>
+    </cacheField>
+    <cacheField name="定投额" numFmtId="177">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="484" maxValue="776"/>
+    </cacheField>
+    <cacheField name="实投" numFmtId="177">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="400" maxValue="738"/>
+    </cacheField>
+    <cacheField name="差额" numFmtId="178">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-747" maxValue="3"/>
+    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1950,8 +2691,868 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="24">
+  <r>
+    <s v="399922"/>
+    <x v="0"/>
+    <s v="盈利收益率"/>
+    <n v="10"/>
+    <s v="国债利率*2"/>
+    <s v="*"/>
+    <s v="100032"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="11.28"/>
+    <n v="1.2723839999999997"/>
+    <n v="508"/>
+    <n v="480"/>
+    <n v="-28"/>
+  </r>
+  <r>
+    <s v="399919"/>
+    <x v="1"/>
+    <s v="市盈率"/>
+    <n v="13"/>
+    <s v="17(市净率2)"/>
+    <m/>
+    <s v="310398"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="9.74"/>
+    <n v="1.7814301194506867"/>
+    <n v="712"/>
+    <n v="480"/>
+    <n v="-232"/>
+  </r>
+  <r>
+    <s v="399701"/>
+    <x v="2"/>
+    <s v="市盈率"/>
+    <n v="24"/>
+    <n v="29"/>
+    <s v="159916"/>
+    <s v="530015"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="24"/>
+    <x v="0"/>
+    <n v="17.23"/>
+    <n v="1.9402242508494376"/>
+    <n v="776"/>
+    <n v="480"/>
+    <n v="-296"/>
+  </r>
+  <r>
+    <s v="CSPSADRP"/>
+    <x v="3"/>
+    <s v="市盈率"/>
+    <n v="15"/>
+    <n v="25"/>
+    <s v="501029"/>
+    <s v="501029"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="13.3"/>
+    <n v="1.2719769348182488"/>
+    <n v="508"/>
+    <n v="400"/>
+    <n v="-108"/>
+  </r>
+  <r>
+    <s v="399905"/>
+    <x v="4"/>
+    <s v="市盈率"/>
+    <n v="33"/>
+    <n v="40"/>
+    <s v="161017"/>
+    <s v="000478"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="31"/>
+    <x v="0"/>
+    <n v="25.38"/>
+    <n v="1.4919015053146467"/>
+    <n v="596"/>
+    <n v="400"/>
+    <n v="-196"/>
+  </r>
+  <r>
+    <s v="003318"/>
+    <x v="5"/>
+    <s v="市盈率"/>
+    <n v="33"/>
+    <n v="40"/>
+    <s v="*"/>
+    <s v="003318"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="31"/>
+    <x v="0"/>
+    <n v="24.25"/>
+    <n v="1.6341800403868634"/>
+    <n v="653"/>
+    <n v="400"/>
+    <n v="-253"/>
+  </r>
+  <r>
+    <s v="399922"/>
+    <x v="0"/>
+    <s v="盈利收益率"/>
+    <n v="10"/>
+    <s v="国债利率*2"/>
+    <s v="*"/>
+    <s v="100032"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="10"/>
+    <x v="1"/>
+    <n v="11.04"/>
+    <n v="1.2188159999999997"/>
+    <n v="487"/>
+    <n v="480"/>
+    <n v="-7"/>
+  </r>
+  <r>
+    <s v="399919"/>
+    <x v="1"/>
+    <s v="市盈率"/>
+    <n v="13"/>
+    <s v="17(市净率2)"/>
+    <m/>
+    <s v="310398"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="13"/>
+    <x v="1"/>
+    <n v="9.94"/>
+    <n v="1.7104639911906048"/>
+    <n v="684"/>
+    <n v="480"/>
+    <n v="-204"/>
+  </r>
+  <r>
+    <s v="399701"/>
+    <x v="2"/>
+    <s v="市盈率"/>
+    <n v="24"/>
+    <n v="29"/>
+    <s v="159916"/>
+    <s v="530015"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="24"/>
+    <x v="1"/>
+    <n v="17.75"/>
+    <n v="1.8282086887522315"/>
+    <n v="731"/>
+    <n v="480"/>
+    <n v="-251"/>
+  </r>
+  <r>
+    <s v="CSPSADRP"/>
+    <x v="3"/>
+    <s v="市盈率"/>
+    <n v="15"/>
+    <n v="25"/>
+    <s v="501029"/>
+    <s v="501029"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="15"/>
+    <x v="1"/>
+    <n v="13.63"/>
+    <n v="1.211130124358841"/>
+    <n v="484"/>
+    <n v="400"/>
+    <n v="-84"/>
+  </r>
+  <r>
+    <s v="399905"/>
+    <x v="4"/>
+    <s v="市盈率"/>
+    <n v="33"/>
+    <n v="40"/>
+    <s v="161017"/>
+    <s v="000478"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="31"/>
+    <x v="1"/>
+    <n v="25.98"/>
+    <n v="1.4237872325546801"/>
+    <n v="569"/>
+    <n v="400"/>
+    <n v="-169"/>
+  </r>
+  <r>
+    <s v="003318"/>
+    <x v="5"/>
+    <s v="市盈率"/>
+    <n v="33"/>
+    <n v="40"/>
+    <s v="*"/>
+    <s v="003318"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="31"/>
+    <x v="1"/>
+    <n v="24.91"/>
+    <n v="1.5487307901379532"/>
+    <n v="619"/>
+    <n v="400"/>
+    <n v="-219"/>
+  </r>
+  <r>
+    <s v="399922"/>
+    <x v="0"/>
+    <s v="盈利收益率"/>
+    <n v="10"/>
+    <s v="国债利率*2"/>
+    <s v="*"/>
+    <s v="100032"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="10"/>
+    <x v="2"/>
+    <n v="11.15"/>
+    <n v="1.243225"/>
+    <n v="497"/>
+    <n v="500"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="399919"/>
+    <x v="1"/>
+    <s v="市盈率"/>
+    <n v="13"/>
+    <s v="17(市净率2)"/>
+    <m/>
+    <s v="310398"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="13"/>
+    <x v="2"/>
+    <n v="9.8699999999999992"/>
+    <n v="1.7348119268833231"/>
+    <n v="693"/>
+    <n v="693"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="399701"/>
+    <x v="2"/>
+    <s v="市盈率"/>
+    <n v="24"/>
+    <n v="29"/>
+    <s v="159916"/>
+    <s v="530015"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="24"/>
+    <x v="2"/>
+    <n v="17.66"/>
+    <n v="1.8468902344396294"/>
+    <n v="738"/>
+    <n v="738"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="CSPSADRP"/>
+    <x v="3"/>
+    <s v="市盈率"/>
+    <n v="15"/>
+    <n v="25"/>
+    <s v="501029"/>
+    <s v="501029"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="15"/>
+    <x v="2"/>
+    <n v="13.58"/>
+    <n v="1.2200650267546707"/>
+    <n v="488"/>
+    <n v="488"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="399905"/>
+    <x v="4"/>
+    <s v="市盈率"/>
+    <n v="33"/>
+    <n v="40"/>
+    <s v="161017"/>
+    <s v="000478"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="31"/>
+    <x v="2"/>
+    <n v="25.74"/>
+    <n v="1.4504618234221964"/>
+    <n v="580"/>
+    <n v="580"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="003318"/>
+    <x v="5"/>
+    <s v="市盈率"/>
+    <n v="33"/>
+    <n v="40"/>
+    <s v="*"/>
+    <s v="003318"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="31"/>
+    <x v="2"/>
+    <n v="24.81"/>
+    <n v="1.5612406810908412"/>
+    <n v="624"/>
+    <n v="624"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="399922"/>
+    <x v="0"/>
+    <s v="盈利收益率"/>
+    <n v="10"/>
+    <s v="国债利率*2"/>
+    <s v="*"/>
+    <s v="100032"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="10"/>
+    <x v="3"/>
+    <n v="11.17"/>
+    <n v="1.247689"/>
+    <n v="499"/>
+    <m/>
+    <n v="-499"/>
+  </r>
+  <r>
+    <s v="399919"/>
+    <x v="1"/>
+    <s v="市盈率"/>
+    <n v="13"/>
+    <s v="17(市净率2)"/>
+    <m/>
+    <s v="310398"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="13"/>
+    <x v="3"/>
+    <n v="9.82"/>
+    <n v="1.7525230109382322"/>
+    <n v="701"/>
+    <m/>
+    <n v="-701"/>
+  </r>
+  <r>
+    <s v="399701"/>
+    <x v="2"/>
+    <s v="市盈率"/>
+    <n v="24"/>
+    <n v="29"/>
+    <s v="159916"/>
+    <s v="530015"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="24"/>
+    <x v="3"/>
+    <n v="17.559999999999999"/>
+    <n v="1.8679853259374957"/>
+    <n v="747"/>
+    <m/>
+    <n v="-747"/>
+  </r>
+  <r>
+    <s v="CSPSADRP"/>
+    <x v="3"/>
+    <s v="市盈率"/>
+    <n v="15"/>
+    <n v="25"/>
+    <s v="501029"/>
+    <s v="501029"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="15"/>
+    <x v="3"/>
+    <n v="13.61"/>
+    <n v="1.2146922698603539"/>
+    <n v="485"/>
+    <m/>
+    <n v="-485"/>
+  </r>
+  <r>
+    <s v="399905"/>
+    <x v="4"/>
+    <s v="市盈率"/>
+    <n v="33"/>
+    <n v="40"/>
+    <s v="161017"/>
+    <s v="000478"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="31"/>
+    <x v="3"/>
+    <n v="25.92"/>
+    <n v="1.430386469288218"/>
+    <n v="572"/>
+    <m/>
+    <n v="-572"/>
+  </r>
+  <r>
+    <s v="003318"/>
+    <x v="5"/>
+    <s v="市盈率"/>
+    <n v="33"/>
+    <n v="40"/>
+    <s v="*"/>
+    <s v="003318"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="31"/>
+    <x v="3"/>
+    <n v="25.04"/>
+    <n v="1.5326914636262494"/>
+    <n v="613"/>
+    <m/>
+    <n v="-613"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="基金类型-金额统计" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="R12:X17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="180" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="179" showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField numFmtId="177" showAll="0"/>
+    <pivotField numFmtId="177" showAll="0"/>
+    <pivotField numFmtId="178" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和项:前日指数指标" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="13">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R1:U8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="180" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="179" showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField dataField="1" numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" numFmtId="178" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="求和项:定投额" fld="13" baseField="0" baseItem="0"/>
+    <dataField name="计数项:实投" fld="14" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="求和项:差额" fld="15" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
+  <location ref="N1:Q5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" sortType="descending">
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="基金数" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="周投合计" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="投入比例" fld="4" showDataAs="percentOfCol" baseField="1" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleDark7" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="基金类型-金额统计" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
   <location ref="I1:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -2009,81 +3610,6 @@
     </i>
     <i>
       <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="基金数" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="周投合计" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="投入比例" fld="4" showDataAs="percentOfCol" baseField="1" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleDark7" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
-  <location ref="N1:Q5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" sortType="descending">
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -2380,10 +3906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2392,822 +3918,1759 @@
     <col min="2" max="2" width="12.5" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="30" customWidth="1"/>
     <col min="6" max="7" width="8" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.75" style="37" customWidth="1"/>
-    <col min="10" max="10" width="4.625" style="37" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="6.75" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="30"/>
+    <col min="9" max="10" width="4.625" style="34" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="52" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" style="32" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.625" style="49" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="30"/>
+    <col min="18" max="18" width="23.25" style="30" customWidth="1"/>
+    <col min="19" max="19" width="9.75" style="30" customWidth="1"/>
+    <col min="20" max="20" width="9.5" style="30" customWidth="1"/>
+    <col min="21" max="21" width="12.75" style="30" customWidth="1"/>
+    <col min="22" max="22" width="15" style="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.75" style="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" style="30" customWidth="1"/>
+    <col min="25" max="25" width="8.5" style="30" customWidth="1"/>
+    <col min="26" max="16384" width="11" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:25" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="57" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="36" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="L1" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="S1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T1" t="s">
+        <v>190</v>
+      </c>
+      <c r="U1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="43">
+        <v>10</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="44">
+        <v>400</v>
+      </c>
+      <c r="I2" s="36">
+        <v>2</v>
+      </c>
+      <c r="J2" s="36">
+        <v>10</v>
+      </c>
+      <c r="K2" s="71">
+        <v>43224</v>
+      </c>
+      <c r="L2" s="72">
+        <v>11.28</v>
+      </c>
+      <c r="M2" s="45">
+        <f>IFERROR(IF(C2="盈利收益率",POWER(L2/J2,I2),POWER(J2/L2,I2)),0)</f>
+        <v>1.2723839999999997</v>
+      </c>
+      <c r="N2" s="46">
+        <f t="shared" ref="N2:N7" si="0">INT(H2*M2)</f>
+        <v>508</v>
+      </c>
+      <c r="O2" s="73">
+        <v>510</v>
+      </c>
+      <c r="P2" s="51">
+        <f>O2-N2</f>
+        <v>2</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="S2" s="6">
+        <v>1965</v>
+      </c>
+      <c r="T2" s="6">
+        <v>3</v>
+      </c>
+      <c r="U2" s="6">
+        <v>-677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="43">
+        <v>13</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="44">
+        <v>400</v>
+      </c>
+      <c r="I3" s="36">
+        <v>2</v>
+      </c>
+      <c r="J3" s="43">
+        <v>13</v>
+      </c>
+      <c r="K3" s="71">
+        <v>43224</v>
+      </c>
+      <c r="L3" s="72">
+        <v>9.74</v>
+      </c>
+      <c r="M3" s="45">
+        <f t="shared" ref="M3:M4" si="1">IFERROR(IF(C3="盈利收益率",POWER(L3/J3,I3),POWER(J3/L3,I3)),0)</f>
+        <v>1.7814301194506867</v>
+      </c>
+      <c r="N3" s="46">
+        <f t="shared" si="0"/>
+        <v>712</v>
+      </c>
+      <c r="O3" s="73">
+        <v>510</v>
+      </c>
+      <c r="P3" s="51">
+        <f t="shared" ref="P3:P4" si="2">O3-N3</f>
+        <v>-202</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="S3" s="6">
+        <v>2992</v>
+      </c>
+      <c r="T3" s="6">
+        <v>3</v>
+      </c>
+      <c r="U3" s="6">
+        <v>-1294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="43">
+        <v>24</v>
+      </c>
+      <c r="E4" s="43">
+        <v>29</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="44">
+        <v>400</v>
+      </c>
+      <c r="I4" s="36">
+        <v>2</v>
+      </c>
+      <c r="J4" s="43">
+        <v>24</v>
+      </c>
+      <c r="K4" s="71">
+        <v>43224</v>
+      </c>
+      <c r="L4" s="72">
+        <v>17.23</v>
+      </c>
+      <c r="M4" s="45">
+        <f t="shared" si="1"/>
+        <v>1.9402242508494376</v>
+      </c>
+      <c r="N4" s="46">
+        <f t="shared" si="0"/>
+        <v>776</v>
+      </c>
+      <c r="O4" s="73">
+        <v>510</v>
+      </c>
+      <c r="P4" s="51">
+        <f t="shared" si="2"/>
+        <v>-266</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="S4" s="6">
+        <v>2790</v>
+      </c>
+      <c r="T4" s="6">
+        <v>3</v>
+      </c>
+      <c r="U4" s="6">
+        <v>-1137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="43">
+        <v>15</v>
+      </c>
+      <c r="E5" s="43">
+        <v>25</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="44">
+        <v>400</v>
+      </c>
+      <c r="I5" s="36">
+        <v>2</v>
+      </c>
+      <c r="J5" s="43">
+        <v>15</v>
+      </c>
+      <c r="K5" s="71">
+        <v>43224</v>
+      </c>
+      <c r="L5" s="72">
+        <v>13.3</v>
+      </c>
+      <c r="M5" s="45">
+        <f>IFERROR(IF(C5="盈利收益率",POWER(L5/J5,I5),POWER(J5/L5,I5)),0)</f>
+        <v>1.2719769348182488</v>
+      </c>
+      <c r="N5" s="46">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="O5" s="73">
+        <v>400</v>
+      </c>
+      <c r="P5" s="51">
+        <f>O5-N5</f>
+        <v>-108</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" s="6">
+        <v>2509</v>
+      </c>
+      <c r="T5" s="6">
+        <v>3</v>
+      </c>
+      <c r="U5" s="6">
+        <v>-1085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="43">
+        <v>33</v>
+      </c>
+      <c r="E6" s="43">
         <v>40</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="L2" s="48" t="s">
+      <c r="F6" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="44">
+        <v>400</v>
+      </c>
+      <c r="I6" s="36">
+        <v>2</v>
+      </c>
+      <c r="J6" s="47">
+        <v>31</v>
+      </c>
+      <c r="K6" s="71">
+        <v>43224</v>
+      </c>
+      <c r="L6" s="72">
+        <v>25.38</v>
+      </c>
+      <c r="M6" s="45">
+        <f t="shared" ref="M6:M7" si="3">IFERROR(IF(C6="盈利收益率",POWER(L6/J6,I6),POWER(J6/L6,I6)),0)</f>
+        <v>1.4919015053146467</v>
+      </c>
+      <c r="N6" s="46">
+        <f t="shared" si="0"/>
+        <v>596</v>
+      </c>
+      <c r="O6" s="73">
+        <v>400</v>
+      </c>
+      <c r="P6" s="51">
+        <f t="shared" ref="P6:P7" si="4">O6-N6</f>
+        <v>-196</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="S6" s="6">
+        <v>2317</v>
+      </c>
+      <c r="T6" s="6">
+        <v>3</v>
+      </c>
+      <c r="U6" s="6">
+        <v>-937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="43">
+        <v>33</v>
+      </c>
+      <c r="E7" s="43">
+        <v>40</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="44">
+        <v>400</v>
+      </c>
+      <c r="I7" s="36">
+        <v>2</v>
+      </c>
+      <c r="J7" s="47">
+        <v>31</v>
+      </c>
+      <c r="K7" s="71">
+        <v>43224</v>
+      </c>
+      <c r="L7" s="72">
+        <v>24.25</v>
+      </c>
+      <c r="M7" s="45">
+        <f t="shared" si="3"/>
+        <v>1.6341800403868634</v>
+      </c>
+      <c r="N7" s="46">
+        <f t="shared" si="0"/>
+        <v>653</v>
+      </c>
+      <c r="O7" s="73">
+        <v>400</v>
+      </c>
+      <c r="P7" s="51">
+        <f t="shared" si="4"/>
+        <v>-253</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="S7" s="6">
+        <v>1991</v>
+      </c>
+      <c r="T7" s="6">
+        <v>3</v>
+      </c>
+      <c r="U7" s="6">
+        <v>-531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="61">
+        <v>10</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="62">
+        <v>400</v>
+      </c>
+      <c r="I8" s="63">
+        <v>2</v>
+      </c>
+      <c r="J8" s="63">
+        <v>10</v>
+      </c>
+      <c r="K8" s="68">
+        <v>43231</v>
+      </c>
+      <c r="L8" s="69">
+        <v>11.04</v>
+      </c>
+      <c r="M8" s="65">
+        <f>IFERROR(IF(C8="盈利收益率",POWER(L8/J8,I8),POWER(J8/L8,I8)),0)</f>
+        <v>1.2188159999999997</v>
+      </c>
+      <c r="N8" s="66">
+        <f>INT(H8*M8)</f>
+        <v>487</v>
+      </c>
+      <c r="O8" s="70">
+        <v>480</v>
+      </c>
+      <c r="P8" s="67">
+        <f>O8-N8</f>
+        <v>-7</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="6">
+        <v>14564</v>
+      </c>
+      <c r="T8" s="6">
+        <v>18</v>
+      </c>
+      <c r="U8" s="6">
+        <v>-5661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A9" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="61">
+        <v>13</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="62">
+        <v>400</v>
+      </c>
+      <c r="I9" s="63">
+        <v>2</v>
+      </c>
+      <c r="J9" s="61">
+        <v>13</v>
+      </c>
+      <c r="K9" s="68">
+        <v>43231</v>
+      </c>
+      <c r="L9" s="69">
+        <v>9.94</v>
+      </c>
+      <c r="M9" s="65">
+        <f t="shared" ref="M9:M13" si="5">IFERROR(IF(C9="盈利收益率",POWER(L9/J9,I9),POWER(J9/L9,I9)),0)</f>
+        <v>1.7104639911906048</v>
+      </c>
+      <c r="N9" s="66">
+        <f t="shared" ref="N9:N19" si="6">INT(H9*M9)</f>
+        <v>684</v>
+      </c>
+      <c r="O9" s="70">
+        <v>480</v>
+      </c>
+      <c r="P9" s="67">
+        <f t="shared" ref="P9:P13" si="7">O9-N9</f>
+        <v>-204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="61">
+        <v>24</v>
+      </c>
+      <c r="E10" s="61">
+        <v>29</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="62">
+        <v>400</v>
+      </c>
+      <c r="I10" s="63">
+        <v>2</v>
+      </c>
+      <c r="J10" s="61">
+        <v>24</v>
+      </c>
+      <c r="K10" s="68">
+        <v>43231</v>
+      </c>
+      <c r="L10" s="69">
+        <v>17.75</v>
+      </c>
+      <c r="M10" s="65">
+        <f t="shared" si="5"/>
+        <v>1.8282086887522315</v>
+      </c>
+      <c r="N10" s="66">
+        <f t="shared" si="6"/>
+        <v>731</v>
+      </c>
+      <c r="O10" s="70">
+        <v>480</v>
+      </c>
+      <c r="P10" s="67">
+        <f t="shared" si="7"/>
+        <v>-251</v>
+      </c>
+      <c r="Q10" s="55"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="61">
+        <v>15</v>
+      </c>
+      <c r="E11" s="61">
+        <v>25</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="62">
+        <v>400</v>
+      </c>
+      <c r="I11" s="63">
+        <v>2</v>
+      </c>
+      <c r="J11" s="61">
+        <v>15</v>
+      </c>
+      <c r="K11" s="68">
+        <v>43231</v>
+      </c>
+      <c r="L11" s="69">
+        <v>13.63</v>
+      </c>
+      <c r="M11" s="65">
+        <f>IFERROR(IF(C11="盈利收益率",POWER(L11/J11,I11),POWER(J11/L11,I11)),0)</f>
+        <v>1.211130124358841</v>
+      </c>
+      <c r="N11" s="66">
+        <f t="shared" si="6"/>
+        <v>484</v>
+      </c>
+      <c r="O11" s="70">
+        <v>400</v>
+      </c>
+      <c r="P11" s="67">
+        <f>O11-N11</f>
+        <v>-84</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+    </row>
+    <row r="12" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="61">
+        <v>33</v>
+      </c>
+      <c r="E12" s="61">
+        <v>40</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="62">
+        <v>400</v>
+      </c>
+      <c r="I12" s="63">
+        <v>2</v>
+      </c>
+      <c r="J12" s="64">
+        <v>31</v>
+      </c>
+      <c r="K12" s="68">
+        <v>43231</v>
+      </c>
+      <c r="L12" s="69">
+        <v>25.98</v>
+      </c>
+      <c r="M12" s="65">
+        <f t="shared" si="5"/>
+        <v>1.4237872325546801</v>
+      </c>
+      <c r="N12" s="66">
+        <f t="shared" si="6"/>
+        <v>569</v>
+      </c>
+      <c r="O12" s="70">
+        <v>400</v>
+      </c>
+      <c r="P12" s="67">
+        <f t="shared" si="7"/>
+        <v>-169</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+    </row>
+    <row r="13" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="61">
+        <v>33</v>
+      </c>
+      <c r="E13" s="61">
+        <v>40</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="62">
+        <v>400</v>
+      </c>
+      <c r="I13" s="63">
+        <v>2</v>
+      </c>
+      <c r="J13" s="64">
+        <v>31</v>
+      </c>
+      <c r="K13" s="68">
+        <v>43231</v>
+      </c>
+      <c r="L13" s="69">
+        <v>24.91</v>
+      </c>
+      <c r="M13" s="65">
+        <f t="shared" si="5"/>
+        <v>1.5487307901379532</v>
+      </c>
+      <c r="N13" s="66">
+        <f t="shared" si="6"/>
+        <v>619</v>
+      </c>
+      <c r="O13" s="70">
+        <v>400</v>
+      </c>
+      <c r="P13" s="67">
+        <f t="shared" si="7"/>
+        <v>-219</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="S13" t="s">
         <v>183</v>
       </c>
-      <c r="M2" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="N2" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="O2" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="P2" s="50" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="52" t="s">
+      <c r="T13" t="s">
+        <v>184</v>
+      </c>
+      <c r="U13" t="s">
+        <v>185</v>
+      </c>
+      <c r="V13" t="s">
+        <v>186</v>
+      </c>
+      <c r="W13" t="s">
+        <v>187</v>
+      </c>
+      <c r="X13" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y13"/>
+    </row>
+    <row r="14" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="43">
+        <v>10</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="44">
+        <v>400</v>
+      </c>
+      <c r="I14" s="36">
+        <v>2</v>
+      </c>
+      <c r="J14" s="36">
+        <v>10</v>
+      </c>
+      <c r="K14" s="71">
+        <v>43238</v>
+      </c>
+      <c r="L14" s="72">
+        <v>11.15</v>
+      </c>
+      <c r="M14" s="45">
+        <f>IFERROR(IF(C14="盈利收益率",POWER(L14/J14,I14),POWER(J14/L14,I14)),0)</f>
+        <v>1.243225</v>
+      </c>
+      <c r="N14" s="46">
+        <f t="shared" si="6"/>
+        <v>497</v>
+      </c>
+      <c r="O14" s="73">
+        <v>500</v>
+      </c>
+      <c r="P14" s="51">
+        <f>O14-N14</f>
+        <v>3</v>
+      </c>
+      <c r="R14" s="56">
+        <v>43224</v>
+      </c>
+      <c r="S14" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="T14" s="6">
+        <v>17.23</v>
+      </c>
+      <c r="U14" s="6">
+        <v>9.74</v>
+      </c>
+      <c r="V14" s="6">
+        <v>24.25</v>
+      </c>
+      <c r="W14" s="6">
+        <v>25.38</v>
+      </c>
+      <c r="X14" s="6">
+        <v>11.28</v>
+      </c>
+      <c r="Y14"/>
+    </row>
+    <row r="15" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="43">
+        <v>13</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="44">
+        <v>400</v>
+      </c>
+      <c r="I15" s="36">
+        <v>2</v>
+      </c>
+      <c r="J15" s="43">
+        <v>13</v>
+      </c>
+      <c r="K15" s="71">
+        <v>43238</v>
+      </c>
+      <c r="L15" s="72">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="M15" s="45">
+        <f t="shared" ref="M15:M16" si="8">IFERROR(IF(C15="盈利收益率",POWER(L15/J15,I15),POWER(J15/L15,I15)),0)</f>
+        <v>1.7348119268833231</v>
+      </c>
+      <c r="N15" s="46">
+        <f t="shared" si="6"/>
+        <v>693</v>
+      </c>
+      <c r="O15" s="73">
+        <v>693</v>
+      </c>
+      <c r="P15" s="51">
+        <f t="shared" ref="P15:P16" si="9">O15-N15</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="56">
+        <v>43231</v>
+      </c>
+      <c r="S15" s="6">
+        <v>13.63</v>
+      </c>
+      <c r="T15" s="6">
+        <v>17.75</v>
+      </c>
+      <c r="U15" s="6">
+        <v>9.94</v>
+      </c>
+      <c r="V15" s="6">
+        <v>24.91</v>
+      </c>
+      <c r="W15" s="6">
+        <v>25.98</v>
+      </c>
+      <c r="X15" s="6">
+        <v>11.04</v>
+      </c>
+      <c r="Y15"/>
+    </row>
+    <row r="16" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="43">
+        <v>24</v>
+      </c>
+      <c r="E16" s="43">
+        <v>29</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="44">
+        <v>400</v>
+      </c>
+      <c r="I16" s="36">
+        <v>2</v>
+      </c>
+      <c r="J16" s="43">
+        <v>24</v>
+      </c>
+      <c r="K16" s="71">
+        <v>43238</v>
+      </c>
+      <c r="L16" s="72">
+        <v>17.66</v>
+      </c>
+      <c r="M16" s="45">
+        <f t="shared" si="8"/>
+        <v>1.8468902344396294</v>
+      </c>
+      <c r="N16" s="46">
+        <f t="shared" si="6"/>
+        <v>738</v>
+      </c>
+      <c r="O16" s="73">
+        <v>738</v>
+      </c>
+      <c r="P16" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="56">
+        <v>43238</v>
+      </c>
+      <c r="S16" s="6">
+        <v>13.58</v>
+      </c>
+      <c r="T16" s="6">
+        <v>17.66</v>
+      </c>
+      <c r="U16" s="6">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="V16" s="6">
+        <v>24.81</v>
+      </c>
+      <c r="W16" s="6">
+        <v>25.74</v>
+      </c>
+      <c r="X16" s="6">
+        <v>11.15</v>
+      </c>
+      <c r="Y16"/>
+    </row>
+    <row r="17" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="43">
+        <v>15</v>
+      </c>
+      <c r="E17" s="43">
+        <v>25</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="44">
+        <v>400</v>
+      </c>
+      <c r="I17" s="36">
+        <v>2</v>
+      </c>
+      <c r="J17" s="43">
+        <v>15</v>
+      </c>
+      <c r="K17" s="71">
+        <v>43238</v>
+      </c>
+      <c r="L17" s="72">
+        <v>13.58</v>
+      </c>
+      <c r="M17" s="45">
+        <f>IFERROR(IF(C17="盈利收益率",POWER(L17/J17,I17),POWER(J17/L17,I17)),0)</f>
+        <v>1.2200650267546707</v>
+      </c>
+      <c r="N17" s="46">
+        <f t="shared" si="6"/>
+        <v>488</v>
+      </c>
+      <c r="O17" s="73">
+        <v>488</v>
+      </c>
+      <c r="P17" s="51">
+        <f>O17-N17</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="56">
+        <v>43244</v>
+      </c>
+      <c r="S17" s="6">
+        <v>13.61</v>
+      </c>
+      <c r="T17" s="6">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="U17" s="6">
+        <v>9.82</v>
+      </c>
+      <c r="V17" s="6">
+        <v>25.04</v>
+      </c>
+      <c r="W17" s="6">
+        <v>25.92</v>
+      </c>
+      <c r="X17" s="6">
+        <v>11.17</v>
+      </c>
+      <c r="Y17"/>
+    </row>
+    <row r="18" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="43">
+        <v>33</v>
+      </c>
+      <c r="E18" s="43">
+        <v>40</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="44">
+        <v>400</v>
+      </c>
+      <c r="I18" s="36">
+        <v>2</v>
+      </c>
+      <c r="J18" s="47">
+        <v>31</v>
+      </c>
+      <c r="K18" s="71">
+        <v>43238</v>
+      </c>
+      <c r="L18" s="72">
+        <v>25.74</v>
+      </c>
+      <c r="M18" s="45">
+        <f t="shared" ref="M18:M19" si="10">IFERROR(IF(C18="盈利收益率",POWER(L18/J18,I18),POWER(J18/L18,I18)),0)</f>
+        <v>1.4504618234221964</v>
+      </c>
+      <c r="N18" s="46">
+        <f t="shared" si="6"/>
+        <v>580</v>
+      </c>
+      <c r="O18" s="73">
+        <v>580</v>
+      </c>
+      <c r="P18" s="51">
+        <f t="shared" ref="P18:P19" si="11">O18-N18</f>
+        <v>0</v>
+      </c>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+    </row>
+    <row r="19" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B19" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C19" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D19" s="43">
         <v>33</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E19" s="43">
         <v>40</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F19" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G19" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="57">
-        <v>1666</v>
-      </c>
-      <c r="I3" s="39">
+      <c r="H19" s="44">
+        <v>400</v>
+      </c>
+      <c r="I19" s="36">
         <v>2</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J19" s="47">
         <v>31</v>
       </c>
-      <c r="K3" s="60">
-        <v>20180508</v>
-      </c>
-      <c r="L3" s="40">
-        <v>24.79</v>
-      </c>
-      <c r="M3" s="58">
-        <f>IFERROR(IF(C3="盈利收益率",POWER(L3/J3,I3),POWER(J3/L3,I3)),0)</f>
-        <v>1.5637608432006751</v>
-      </c>
-      <c r="N3" s="59">
-        <f>H3*M3</f>
-        <v>2605.2255647723246</v>
-      </c>
-      <c r="O3" s="40">
-        <v>2605</v>
-      </c>
-      <c r="P3" s="59">
-        <f>O3-N3</f>
-        <v>-0.22556477232456018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="52" t="s">
+      <c r="K19" s="71">
+        <v>43238</v>
+      </c>
+      <c r="L19" s="72">
+        <v>24.81</v>
+      </c>
+      <c r="M19" s="45">
+        <f t="shared" si="10"/>
+        <v>1.5612406810908412</v>
+      </c>
+      <c r="N19" s="46">
+        <f t="shared" si="6"/>
+        <v>624</v>
+      </c>
+      <c r="O19" s="73">
+        <v>624</v>
+      </c>
+      <c r="P19" s="51">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+    </row>
+    <row r="20" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="61">
+        <v>10</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="62">
+        <v>400</v>
+      </c>
+      <c r="I20" s="63">
+        <v>2</v>
+      </c>
+      <c r="J20" s="63">
+        <v>10</v>
+      </c>
+      <c r="K20" s="68">
+        <v>43244</v>
+      </c>
+      <c r="L20" s="69">
+        <v>11.17</v>
+      </c>
+      <c r="M20" s="65">
+        <f>IFERROR(IF(C20="盈利收益率",POWER(L20/J20,I20),POWER(J20/L20,I20)),0)</f>
+        <v>1.247689</v>
+      </c>
+      <c r="N20" s="66">
+        <f t="shared" ref="N20:N25" si="12">INT(H20*M20)</f>
+        <v>499</v>
+      </c>
+      <c r="O20" s="70"/>
+      <c r="P20" s="67">
+        <f>O20-N20</f>
+        <v>-499</v>
+      </c>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+    </row>
+    <row r="21" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="61">
+        <v>13</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="62">
+        <v>400</v>
+      </c>
+      <c r="I21" s="63">
+        <v>2</v>
+      </c>
+      <c r="J21" s="61">
+        <v>13</v>
+      </c>
+      <c r="K21" s="68">
+        <v>43244</v>
+      </c>
+      <c r="L21" s="69">
+        <v>9.82</v>
+      </c>
+      <c r="M21" s="65">
+        <f t="shared" ref="M21:M22" si="13">IFERROR(IF(C21="盈利收益率",POWER(L21/J21,I21),POWER(J21/L21,I21)),0)</f>
+        <v>1.7525230109382322</v>
+      </c>
+      <c r="N21" s="66">
+        <f t="shared" si="12"/>
+        <v>701</v>
+      </c>
+      <c r="O21" s="70"/>
+      <c r="P21" s="67">
+        <f t="shared" ref="P21:P22" si="14">O21-N21</f>
+        <v>-701</v>
+      </c>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+    </row>
+    <row r="22" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="61">
+        <v>24</v>
+      </c>
+      <c r="E22" s="61">
+        <v>29</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="62">
+        <v>400</v>
+      </c>
+      <c r="I22" s="63">
+        <v>2</v>
+      </c>
+      <c r="J22" s="61">
+        <v>24</v>
+      </c>
+      <c r="K22" s="68">
+        <v>43244</v>
+      </c>
+      <c r="L22" s="69">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="M22" s="65">
+        <f t="shared" si="13"/>
+        <v>1.8679853259374957</v>
+      </c>
+      <c r="N22" s="66">
+        <f t="shared" si="12"/>
+        <v>747</v>
+      </c>
+      <c r="O22" s="70"/>
+      <c r="P22" s="67">
+        <f t="shared" si="14"/>
+        <v>-747</v>
+      </c>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+    </row>
+    <row r="23" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B23" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C23" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D23" s="61">
         <v>15</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E23" s="61">
         <v>25</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F23" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G23" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="57">
-        <v>1666</v>
-      </c>
-      <c r="I4" s="39">
+      <c r="H23" s="62">
+        <v>400</v>
+      </c>
+      <c r="I23" s="63">
         <v>2</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J23" s="61">
         <v>15</v>
       </c>
-      <c r="K4" s="60">
-        <v>20180508</v>
-      </c>
-      <c r="L4" s="40">
-        <v>13.47</v>
-      </c>
-      <c r="M4" s="58">
-        <f t="shared" ref="M4:M8" si="0">IFERROR(IF(C4="盈利收益率",POWER(L4/J4,I4),POWER(J4/L4,I4)),0)</f>
-        <v>1.2400732139225499</v>
-      </c>
-      <c r="N4" s="59">
-        <f t="shared" ref="N4:N8" si="1">H4*M4</f>
-        <v>2065.9619743949679</v>
-      </c>
-      <c r="O4" s="40">
-        <v>2066</v>
-      </c>
-      <c r="P4" s="59">
-        <f>O4-N4</f>
-        <v>3.8025605032089516E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="56" t="s">
+      <c r="K23" s="68">
+        <v>43244</v>
+      </c>
+      <c r="L23" s="69">
+        <v>13.61</v>
+      </c>
+      <c r="M23" s="65">
+        <f>IFERROR(IF(C23="盈利收益率",POWER(L23/J23,I23),POWER(J23/L23,I23)),0)</f>
+        <v>1.2146922698603539</v>
+      </c>
+      <c r="N23" s="66">
+        <f t="shared" si="12"/>
+        <v>485</v>
+      </c>
+      <c r="O23" s="70"/>
+      <c r="P23" s="67">
+        <f>O23-N23</f>
+        <v>-485</v>
+      </c>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+    </row>
+    <row r="24" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="56">
-        <v>25</v>
-      </c>
-      <c r="E5" s="56">
-        <v>30</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="57">
-        <v>1666</v>
-      </c>
-      <c r="I5" s="39">
+      <c r="D24" s="61">
+        <v>33</v>
+      </c>
+      <c r="E24" s="61">
+        <v>40</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="62">
+        <v>400</v>
+      </c>
+      <c r="I24" s="63">
         <v>2</v>
       </c>
-      <c r="J5" s="39">
-        <v>25</v>
-      </c>
-      <c r="K5" s="60">
-        <v>20180508</v>
-      </c>
-      <c r="L5" s="40">
-        <v>19.28</v>
-      </c>
-      <c r="M5" s="58">
-        <f t="shared" si="0"/>
-        <v>1.6813803136998327</v>
-      </c>
-      <c r="N5" s="59">
-        <f t="shared" si="1"/>
-        <v>2801.1796026239213</v>
-      </c>
-      <c r="O5" s="40">
-        <v>2801</v>
-      </c>
-      <c r="P5" s="59">
-        <f>O5-N5</f>
-        <v>-0.17960262392125514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="54">
-        <v>10</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="52" t="s">
+      <c r="J24" s="64">
+        <v>31</v>
+      </c>
+      <c r="K24" s="68">
+        <v>43244</v>
+      </c>
+      <c r="L24" s="69">
+        <v>25.92</v>
+      </c>
+      <c r="M24" s="65">
+        <f t="shared" ref="M24:M25" si="15">IFERROR(IF(C24="盈利收益率",POWER(L24/J24,I24),POWER(J24/L24,I24)),0)</f>
+        <v>1.430386469288218</v>
+      </c>
+      <c r="N24" s="66">
+        <f t="shared" si="12"/>
+        <v>572</v>
+      </c>
+      <c r="O24" s="70"/>
+      <c r="P24" s="67">
+        <f t="shared" ref="P24:P25" si="16">O24-N24</f>
+        <v>-572</v>
+      </c>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+    </row>
+    <row r="25" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="61">
+        <v>33</v>
+      </c>
+      <c r="E25" s="61">
+        <v>40</v>
+      </c>
+      <c r="F25" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="57">
-        <v>1666</v>
-      </c>
-      <c r="I6" s="39">
+      <c r="G25" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="62">
+        <v>400</v>
+      </c>
+      <c r="I25" s="63">
         <v>2</v>
       </c>
-      <c r="J6" s="39">
-        <v>10</v>
-      </c>
-      <c r="K6" s="60">
-        <v>20180508</v>
-      </c>
-      <c r="L6" s="40">
-        <v>11.21</v>
-      </c>
-      <c r="M6" s="58">
-        <f t="shared" si="0"/>
-        <v>1.2566409999999999</v>
-      </c>
-      <c r="N6" s="59">
-        <f t="shared" si="1"/>
-        <v>2093.5639059999999</v>
-      </c>
-      <c r="O6" s="40">
-        <v>2094</v>
-      </c>
-      <c r="P6" s="59">
-        <f t="shared" ref="P6:P8" si="2">O6-N6</f>
-        <v>0.4360940000001392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="56">
-        <v>10</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="57">
-        <v>1666</v>
-      </c>
-      <c r="I7" s="39">
-        <v>2</v>
-      </c>
-      <c r="J7" s="39">
-        <v>10</v>
-      </c>
-      <c r="K7" s="60">
-        <v>20180508</v>
-      </c>
-      <c r="L7" s="40">
-        <v>11.18</v>
-      </c>
-      <c r="M7" s="58">
-        <f t="shared" si="0"/>
-        <v>1.2499239999999998</v>
-      </c>
-      <c r="N7" s="59">
-        <f t="shared" si="1"/>
-        <v>2082.3733839999995</v>
-      </c>
-      <c r="O7" s="40">
-        <v>2080</v>
-      </c>
-      <c r="P7" s="59">
-        <f t="shared" si="2"/>
-        <v>-2.3733839999995325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="56">
-        <v>24</v>
-      </c>
-      <c r="E8" s="56">
-        <v>33</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="57">
-        <v>1666</v>
-      </c>
-      <c r="I8" s="39">
-        <v>2</v>
-      </c>
-      <c r="J8" s="39">
-        <v>24</v>
-      </c>
-      <c r="K8" s="60">
-        <v>20180508</v>
-      </c>
-      <c r="L8" s="40">
-        <v>22.14</v>
-      </c>
-      <c r="M8" s="58">
-        <f t="shared" si="0"/>
-        <v>1.1750795014725213</v>
-      </c>
-      <c r="N8" s="59">
-        <f t="shared" si="1"/>
-        <v>1957.6824494532204</v>
-      </c>
-      <c r="O8" s="40">
-        <v>1958</v>
-      </c>
-      <c r="P8" s="59">
-        <f t="shared" si="2"/>
-        <v>0.31755054677955741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="45">
-        <f>SUM(N3:N8)</f>
-        <v>13605.986881244435</v>
-      </c>
-      <c r="O9" s="45">
-        <f>SUM(O3:O8)</f>
-        <v>13604</v>
-      </c>
-      <c r="P9" s="45">
-        <f>SUM(P3:P8)</f>
-        <v>-1.9868812444335617</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="36" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="J12" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="K12" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="L12" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="M12" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="N12" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="O12" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="P12" s="50" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="54">
-        <v>10</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="57">
-        <v>400</v>
-      </c>
-      <c r="I13" s="39">
-        <v>2</v>
-      </c>
-      <c r="J13" s="39">
-        <v>10</v>
-      </c>
-      <c r="K13" s="60">
-        <v>20180511</v>
-      </c>
-      <c r="L13" s="40">
-        <v>11.04</v>
-      </c>
-      <c r="M13" s="58">
-        <f t="shared" ref="M13:M18" si="3">IFERROR(IF(C13="盈利收益率",POWER(L13/J13,I13),POWER(J13/L13,I13)),0)</f>
-        <v>1.2188159999999997</v>
-      </c>
-      <c r="N13" s="59">
-        <f t="shared" ref="N13:N18" si="4">H13*M13</f>
-        <v>487.52639999999985</v>
-      </c>
-      <c r="O13" s="41">
-        <v>480</v>
-      </c>
-      <c r="P13" s="59">
-        <f t="shared" ref="P13:P19" si="5">O13-N13</f>
-        <v>-7.5263999999998532</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="54">
-        <v>15</v>
-      </c>
-      <c r="E14" s="54">
-        <v>25</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="57">
-        <v>400</v>
-      </c>
-      <c r="I14" s="39">
-        <v>2</v>
-      </c>
-      <c r="J14" s="39">
-        <v>15</v>
-      </c>
-      <c r="K14" s="60">
-        <v>20180511</v>
-      </c>
-      <c r="L14" s="40">
-        <v>13.63</v>
-      </c>
-      <c r="M14" s="58">
-        <f t="shared" si="3"/>
-        <v>1.211130124358841</v>
-      </c>
-      <c r="N14" s="59">
-        <f t="shared" si="4"/>
-        <v>484.45204974353641</v>
-      </c>
-      <c r="O14" s="41">
-        <v>400</v>
-      </c>
-      <c r="P14" s="59">
-        <f t="shared" si="5"/>
-        <v>-84.452049743536406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="54">
-        <v>13</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="H15" s="57">
-        <v>400</v>
-      </c>
-      <c r="I15" s="39">
-        <v>2</v>
-      </c>
-      <c r="J15" s="39">
-        <v>13</v>
-      </c>
-      <c r="K15" s="60">
-        <v>20180511</v>
-      </c>
-      <c r="L15" s="40">
-        <v>9.94</v>
-      </c>
-      <c r="M15" s="58">
-        <f t="shared" si="3"/>
-        <v>1.7104639911906048</v>
-      </c>
-      <c r="N15" s="59">
-        <f t="shared" si="4"/>
-        <v>684.18559647624193</v>
-      </c>
-      <c r="O15" s="41">
-        <v>480</v>
-      </c>
-      <c r="P15" s="59">
-        <f t="shared" si="5"/>
-        <v>-204.18559647624193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="54">
-        <v>24</v>
-      </c>
-      <c r="E16" s="54">
-        <v>29</v>
-      </c>
-      <c r="F16" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" s="57">
-        <v>400</v>
-      </c>
-      <c r="I16" s="39">
-        <v>2</v>
-      </c>
-      <c r="J16" s="39">
-        <v>24</v>
-      </c>
-      <c r="K16" s="60">
-        <v>20180511</v>
-      </c>
-      <c r="L16" s="40">
-        <v>17.75</v>
-      </c>
-      <c r="M16" s="58">
-        <f t="shared" si="3"/>
-        <v>1.8282086887522315</v>
-      </c>
-      <c r="N16" s="59">
-        <f t="shared" si="4"/>
-        <v>731.28347550089256</v>
-      </c>
-      <c r="O16" s="41">
-        <v>480</v>
-      </c>
-      <c r="P16" s="59">
-        <f t="shared" si="5"/>
-        <v>-251.28347550089256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="54">
-        <v>33</v>
-      </c>
-      <c r="E17" s="54">
-        <v>40</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="57">
-        <v>400</v>
-      </c>
-      <c r="I17" s="39">
-        <v>2</v>
-      </c>
-      <c r="J17" s="39">
+      <c r="J25" s="64">
         <v>31</v>
       </c>
-      <c r="K17" s="60">
-        <v>20180511</v>
-      </c>
-      <c r="L17" s="40">
-        <v>25.98</v>
-      </c>
-      <c r="M17" s="58">
-        <f t="shared" si="3"/>
-        <v>1.4237872325546801</v>
-      </c>
-      <c r="N17" s="59">
-        <f t="shared" si="4"/>
-        <v>569.51489302187201</v>
-      </c>
-      <c r="O17" s="41">
-        <v>400</v>
-      </c>
-      <c r="P17" s="59">
-        <f t="shared" si="5"/>
-        <v>-169.51489302187201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="54">
-        <v>33</v>
-      </c>
-      <c r="E18" s="54">
-        <v>40</v>
-      </c>
-      <c r="F18" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="H18" s="57">
-        <v>400</v>
-      </c>
-      <c r="I18" s="39">
-        <v>2</v>
-      </c>
-      <c r="J18" s="39">
-        <v>31</v>
-      </c>
-      <c r="K18" s="60">
-        <v>20180511</v>
-      </c>
-      <c r="L18" s="40">
-        <v>24.91</v>
-      </c>
-      <c r="M18" s="58">
-        <f t="shared" si="3"/>
-        <v>1.5487307901379532</v>
-      </c>
-      <c r="N18" s="59">
-        <f t="shared" si="4"/>
-        <v>619.49231605518128</v>
-      </c>
-      <c r="O18" s="41">
-        <v>400</v>
-      </c>
-      <c r="P18" s="59">
-        <f t="shared" si="5"/>
-        <v>-219.49231605518128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="45">
-        <f>SUM(N13:N18)</f>
-        <v>3576.4547307977241</v>
-      </c>
-      <c r="O19" s="45">
-        <f>SUM(O13:O18)</f>
-        <v>2640</v>
-      </c>
-      <c r="P19" s="46">
-        <f t="shared" si="5"/>
-        <v>-936.4547307977241</v>
-      </c>
+      <c r="K25" s="68">
+        <v>43244</v>
+      </c>
+      <c r="L25" s="69">
+        <v>25.04</v>
+      </c>
+      <c r="M25" s="65">
+        <f t="shared" si="15"/>
+        <v>1.5326914636262494</v>
+      </c>
+      <c r="N25" s="66">
+        <f t="shared" si="12"/>
+        <v>613</v>
+      </c>
+      <c r="O25" s="70"/>
+      <c r="P25" s="67">
+        <f t="shared" si="16"/>
+        <v>-613</v>
+      </c>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+    </row>
+    <row r="26" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="49"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+    </row>
+    <row r="27" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="49"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+    </row>
+    <row r="28" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="49"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+    </row>
+    <row r="29" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+    </row>
+    <row r="30" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+    </row>
+    <row r="31" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+    </row>
+    <row r="32" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+    </row>
+    <row r="33" spans="18:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+    </row>
+    <row r="34" spans="18:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+    </row>
+    <row r="35" spans="18:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R35"/>
+      <c r="S35"/>
+    </row>
+    <row r="36" spans="18:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R36"/>
+      <c r="S36"/>
+    </row>
+    <row r="37" spans="18:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R37"/>
+      <c r="S37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="F13:G18 A13:A18 A3:G8" numberStoredAsText="1"/>
+    <ignoredError sqref="F13:G13 A12:A13 F12 G9:G10 G12 G8 G11 F9:F10 A9:A10 A8:F8 A11:F11 B9:E10" numberStoredAsText="1"/>
   </ignoredErrors>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3215,7 +5678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -3226,15 +5689,15 @@
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.625" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="8.125" customWidth="1"/>
-    <col min="11" max="12" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="8.375" customWidth="1"/>
+    <col min="11" max="12" width="10.625" customWidth="1"/>
     <col min="13" max="13" width="5.125" customWidth="1"/>
-    <col min="14" max="14" width="9.75" customWidth="1"/>
-    <col min="15" max="15" width="8.125" customWidth="1"/>
-    <col min="16" max="17" width="10.25" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="8.375" customWidth="1"/>
+    <col min="16" max="17" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
@@ -3442,7 +5905,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="I5" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
@@ -3658,8 +6121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3670,7 +6133,7 @@
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="10"/>
+    <col min="8" max="8" width="11" style="10"/>
     <col min="9" max="9" width="9.5" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
   </cols>

--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21600" windowHeight="7545" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21600" windowHeight="7545" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="记录" sheetId="4" r:id="rId1"/>
-    <sheet name="计划" sheetId="1" r:id="rId2"/>
-    <sheet name="指数估值" sheetId="2" r:id="rId3"/>
+    <sheet name="统计" sheetId="5" r:id="rId1"/>
+    <sheet name="记录" sheetId="4" r:id="rId2"/>
+    <sheet name="计划" sheetId="1" r:id="rId3"/>
+    <sheet name="指数估值" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
-    <pivotCache cacheId="14" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="9" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="208">
   <si>
     <t>基金</t>
     <rPh sb="0" eb="1">
@@ -1506,6 +1507,53 @@
   </si>
   <si>
     <t>列标签</t>
+  </si>
+  <si>
+    <t>000925</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>160716</t>
+  </si>
+  <si>
+    <t>399812</t>
+  </si>
+  <si>
+    <t>000968</t>
+  </si>
+  <si>
+    <t>基本面50</t>
+  </si>
+  <si>
+    <t>中证养老</t>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(空白)</t>
+  </si>
+  <si>
+    <t>求和项:实投</t>
   </si>
 </sst>
 </file>
@@ -1687,7 +1735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1817,9 +1865,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1878,11 +1923,45 @@
     <xf numFmtId="177" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1906,8 +1985,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[funds.xlsx]记录!数据透视表2</c:name>
-    <c:fmtId val="0"/>
+    <c:name>[funds.xlsx]统计!数据透视表2</c:name>
+    <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -1944,7 +2023,6 @@
         <c:idx val="0"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1958,38 +2036,18 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
@@ -2009,6 +2067,226 @@
       <c:pivotFmt>
         <c:idx val="12"/>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2020,7 +2298,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>记录!$S$12:$S$13</c:f>
+              <c:f>统计!$B$32:$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2029,9 +2307,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>记录!$R$14:$R$17</c:f>
+              <c:f>统计!$A$34:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2051,9 +2332,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>记录!$S$14:$S$17</c:f>
+              <c:f>统计!$B$34:$B$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>13.3</c:v>
@@ -2077,7 +2358,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>记录!$T$12:$T$13</c:f>
+              <c:f>统计!$C$32:$C$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2086,9 +2367,30 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>记录!$R$14:$R$17</c:f>
+              <c:f>统计!$A$34:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2108,9 +2410,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>记录!$T$14:$T$17</c:f>
+              <c:f>统计!$C$34:$C$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>17.23</c:v>
@@ -2134,7 +2436,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>记录!$U$12:$U$13</c:f>
+              <c:f>统计!$D$32:$D$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2143,9 +2445,30 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>记录!$R$14:$R$17</c:f>
+              <c:f>统计!$A$34:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2165,9 +2488,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>记录!$U$14:$U$17</c:f>
+              <c:f>统计!$D$34:$D$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>9.74</c:v>
@@ -2191,7 +2514,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>记录!$V$12:$V$13</c:f>
+              <c:f>统计!$E$32:$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2200,9 +2523,30 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>记录!$R$14:$R$17</c:f>
+              <c:f>统计!$A$34:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2222,9 +2566,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>记录!$V$14:$V$17</c:f>
+              <c:f>统计!$E$34:$E$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>24.25</c:v>
@@ -2248,7 +2592,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>记录!$W$12:$W$13</c:f>
+              <c:f>统计!$F$32:$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2257,9 +2601,30 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>记录!$R$14:$R$17</c:f>
+              <c:f>统计!$A$34:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2279,9 +2644,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>记录!$W$14:$W$17</c:f>
+              <c:f>统计!$F$34:$F$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>25.38</c:v>
@@ -2305,7 +2670,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>记录!$X$12:$X$13</c:f>
+              <c:f>统计!$G$32:$G$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2314,9 +2679,30 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>记录!$R$14:$R$17</c:f>
+              <c:f>统计!$A$34:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2336,9 +2722,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>记录!$X$14:$X$17</c:f>
+              <c:f>统计!$G$34:$G$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>11.28</c:v>
@@ -2357,10 +2743,166 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>统计!$H$32:$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基本面50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>统计!$A$34:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018/05/04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018/05/11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018/05/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018/05/24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>统计!$H$34:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>统计!$I$32:$I$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>中证养老</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>统计!$A$34:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018/05/04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018/05/11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018/05/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018/05/24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>统计!$I$34:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2368,11 +2910,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87885312"/>
-        <c:axId val="78036992"/>
+        <c:axId val="97996800"/>
+        <c:axId val="97998336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87885312"/>
+        <c:axId val="97996800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2382,7 +2924,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78036992"/>
+        <c:crossAx val="97998336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2390,7 +2932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78036992"/>
+        <c:axId val="97998336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5"/>
@@ -2401,7 +2943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87885312"/>
+        <c:crossAx val="97996800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2435,21 +2977,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>264583</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>137583</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2467,7 +3011,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43243.894916319441" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43244.511157175926" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G11" sheet="计划"/>
   </cacheSource>
@@ -2522,70 +3066,89 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="YuanXing" refreshedDate="43243.933299421296" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="24">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="YuanXing" refreshedDate="43244.561106597219" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="40">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:P25" sheet="记录"/>
+    <worksheetSource ref="A1:U2006" sheet="记录"/>
   </cacheSource>
-  <cacheFields count="16">
+  <cacheFields count="21">
     <cacheField name="指数代码" numFmtId="49">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="指数名称" numFmtId="49">
-      <sharedItems count="6">
+      <sharedItems containsBlank="1" count="9">
         <s v="中证红利"/>
+        <s v="基本面50"/>
         <s v="泸深300价值"/>
         <s v="基本面60"/>
         <s v="红利机会"/>
         <s v="中证500增强"/>
         <s v="中证500低波动"/>
+        <s v="中证养老"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="参考指标" numFmtId="49">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="低估阈值" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="33"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="33"/>
     </cacheField>
     <cacheField name="高估阈值" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="25" maxValue="40"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="25" maxValue="40"/>
     </cacheField>
     <cacheField name="场内基金" numFmtId="49">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="场外基金" numFmtId="49">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="定投基数" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="400" maxValue="400"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="400" maxValue="400"/>
     </cacheField>
     <cacheField name="定投幂" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="2"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="2"/>
     </cacheField>
     <cacheField name="首投指标" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="31"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="31"/>
     </cacheField>
     <cacheField name="定投日期" numFmtId="180">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-05-04T00:00:00" maxDate="2018-05-25T00:00:00" count="4">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2018-05-04T00:00:00" maxDate="2018-05-25T00:00:00" count="5">
         <d v="2018-05-04T00:00:00"/>
         <d v="2018-05-11T00:00:00"/>
         <d v="2018-05-18T00:00:00"/>
         <d v="2018-05-24T00:00:00"/>
+        <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="前日指数指标" numFmtId="179">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.74" maxValue="25.98"/>
+    <cacheField name="EP" numFmtId="179">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="9.8699999999999992" maxValue="11.28"/>
+    </cacheField>
+    <cacheField name="PE" numFmtId="179">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="8.86" maxValue="25.98"/>
+    </cacheField>
+    <cacheField name="PB" numFmtId="179">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.06" maxValue="3.11"/>
+    </cacheField>
+    <cacheField name="股息" numFmtId="179">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.84" maxValue="3.71"/>
+    </cacheField>
+    <cacheField name="ROE" numFmtId="179">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="7.7" maxValue="13.66"/>
+    </cacheField>
+    <cacheField name="前日指数指标" numFmtId="176">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="9.74" maxValue="25.98"/>
     </cacheField>
     <cacheField name="定投比率" numFmtId="176">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.211130124358841" maxValue="1.9402242508494376"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.97416899999999973" maxValue="1.9402242508494376"/>
     </cacheField>
     <cacheField name="定投额" numFmtId="177">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="484" maxValue="776"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="776"/>
     </cacheField>
     <cacheField name="实投" numFmtId="177">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="400" maxValue="738"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="400" maxValue="747"/>
     </cacheField>
     <cacheField name="差额" numFmtId="178">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-747" maxValue="3"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-266" maxValue="3"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2692,7 +3255,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="24">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="40">
   <r>
     <s v="399922"/>
     <x v="0"/>
@@ -2706,14 +3269,42 @@
     <n v="10"/>
     <x v="0"/>
     <n v="11.28"/>
+    <n v="8.86"/>
+    <n v="1.06"/>
+    <n v="3.71"/>
+    <n v="11.92"/>
+    <n v="11.28"/>
     <n v="1.2723839999999997"/>
     <n v="508"/>
-    <n v="480"/>
-    <n v="-28"/>
+    <n v="510"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="000925"/>
+    <x v="1"/>
+    <s v="盈利收益率"/>
+    <n v="10"/>
+    <s v="国债利率*2"/>
+    <s v="*"/>
+    <s v="160716"/>
+    <m/>
+    <n v="2"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="10.1"/>
+    <n v="9.91"/>
+    <n v="1.18"/>
+    <n v="3.03"/>
+    <n v="11.92"/>
+    <n v="10.1"/>
+    <n v="1.0201"/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <s v="399919"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="市盈率"/>
     <n v="13"/>
     <s v="17(市净率2)"/>
@@ -2723,15 +3314,20 @@
     <n v="2"/>
     <n v="13"/>
     <x v="0"/>
+    <m/>
+    <n v="9.74"/>
+    <n v="1.1499999999999999"/>
+    <n v="3.14"/>
+    <n v="11.78"/>
     <n v="9.74"/>
     <n v="1.7814301194506867"/>
     <n v="712"/>
-    <n v="480"/>
-    <n v="-232"/>
+    <n v="510"/>
+    <n v="-202"/>
   </r>
   <r>
     <s v="399701"/>
-    <x v="2"/>
+    <x v="3"/>
     <s v="市盈率"/>
     <n v="24"/>
     <n v="29"/>
@@ -2741,15 +3337,20 @@
     <n v="2"/>
     <n v="24"/>
     <x v="0"/>
+    <m/>
+    <n v="17.23"/>
+    <n v="2.16"/>
+    <n v="1.9"/>
+    <n v="12.53"/>
     <n v="17.23"/>
     <n v="1.9402242508494376"/>
     <n v="776"/>
-    <n v="480"/>
-    <n v="-296"/>
+    <n v="510"/>
+    <n v="-266"/>
   </r>
   <r>
     <s v="CSPSADRP"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="市盈率"/>
     <n v="15"/>
     <n v="25"/>
@@ -2759,6 +3360,11 @@
     <n v="2"/>
     <n v="15"/>
     <x v="0"/>
+    <m/>
+    <n v="13.3"/>
+    <n v="1.79"/>
+    <n v="3.43"/>
+    <n v="13.46"/>
     <n v="13.3"/>
     <n v="1.2719769348182488"/>
     <n v="508"/>
@@ -2767,7 +3373,7 @@
   </r>
   <r>
     <s v="399905"/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="市盈率"/>
     <n v="33"/>
     <n v="40"/>
@@ -2777,6 +3383,11 @@
     <n v="2"/>
     <n v="31"/>
     <x v="0"/>
+    <m/>
+    <n v="25.38"/>
+    <n v="2.27"/>
+    <m/>
+    <n v="8.94"/>
     <n v="25.38"/>
     <n v="1.4919015053146467"/>
     <n v="596"/>
@@ -2785,7 +3396,7 @@
   </r>
   <r>
     <s v="003318"/>
-    <x v="5"/>
+    <x v="6"/>
     <s v="市盈率"/>
     <n v="33"/>
     <n v="40"/>
@@ -2795,11 +3406,39 @@
     <n v="2"/>
     <n v="31"/>
     <x v="0"/>
+    <m/>
+    <n v="24.25"/>
+    <n v="1.87"/>
+    <m/>
+    <n v="7.71"/>
     <n v="24.25"/>
     <n v="1.6341800403868634"/>
     <n v="653"/>
     <n v="400"/>
     <n v="-253"/>
+  </r>
+  <r>
+    <s v="399812"/>
+    <x v="7"/>
+    <s v="市盈率"/>
+    <n v="24"/>
+    <n v="33"/>
+    <s v="*"/>
+    <s v="000968"/>
+    <m/>
+    <n v="2"/>
+    <n v="24"/>
+    <x v="0"/>
+    <m/>
+    <n v="21.79"/>
+    <n v="2.98"/>
+    <m/>
+    <n v="13.65"/>
+    <n v="21.79"/>
+    <n v="1.2131319000825813"/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <s v="399922"/>
@@ -2814,14 +3453,42 @@
     <n v="10"/>
     <x v="1"/>
     <n v="11.04"/>
+    <n v="9.06"/>
+    <n v="1.08"/>
+    <n v="3.63"/>
+    <n v="11.94"/>
+    <n v="11.04"/>
     <n v="1.2188159999999997"/>
     <n v="487"/>
     <n v="480"/>
     <n v="-7"/>
   </r>
   <r>
+    <s v="000925"/>
+    <x v="1"/>
+    <s v="盈利收益率"/>
+    <n v="10"/>
+    <s v="国债利率*2"/>
+    <s v="*"/>
+    <s v="160716"/>
+    <m/>
+    <n v="2"/>
+    <n v="10"/>
+    <x v="1"/>
+    <n v="9.8699999999999992"/>
+    <n v="10.130000000000001"/>
+    <n v="1.21"/>
+    <n v="2.96"/>
+    <n v="11.92"/>
+    <n v="9.8699999999999992"/>
+    <n v="0.97416899999999973"/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
     <s v="399919"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="市盈率"/>
     <n v="13"/>
     <s v="17(市净率2)"/>
@@ -2831,6 +3498,11 @@
     <n v="2"/>
     <n v="13"/>
     <x v="1"/>
+    <m/>
+    <n v="9.94"/>
+    <n v="1.17"/>
+    <n v="3.07"/>
+    <n v="11.78"/>
     <n v="9.94"/>
     <n v="1.7104639911906048"/>
     <n v="684"/>
@@ -2839,7 +3511,7 @@
   </r>
   <r>
     <s v="399701"/>
-    <x v="2"/>
+    <x v="3"/>
     <s v="市盈率"/>
     <n v="24"/>
     <n v="29"/>
@@ -2849,6 +3521,11 @@
     <n v="2"/>
     <n v="24"/>
     <x v="1"/>
+    <m/>
+    <n v="17.75"/>
+    <n v="2.23"/>
+    <n v="1.84"/>
+    <n v="12.54"/>
     <n v="17.75"/>
     <n v="1.8282086887522315"/>
     <n v="731"/>
@@ -2857,7 +3534,7 @@
   </r>
   <r>
     <s v="CSPSADRP"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="市盈率"/>
     <n v="15"/>
     <n v="25"/>
@@ -2867,6 +3544,11 @@
     <n v="2"/>
     <n v="15"/>
     <x v="1"/>
+    <m/>
+    <n v="13.63"/>
+    <n v="1.83"/>
+    <n v="3.35"/>
+    <n v="13.43"/>
     <n v="13.63"/>
     <n v="1.211130124358841"/>
     <n v="484"/>
@@ -2875,7 +3557,7 @@
   </r>
   <r>
     <s v="399905"/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="市盈率"/>
     <n v="33"/>
     <n v="40"/>
@@ -2885,6 +3567,11 @@
     <n v="2"/>
     <n v="31"/>
     <x v="1"/>
+    <m/>
+    <n v="25.98"/>
+    <n v="2.3199999999999998"/>
+    <m/>
+    <n v="8.93"/>
     <n v="25.98"/>
     <n v="1.4237872325546801"/>
     <n v="569"/>
@@ -2893,7 +3580,7 @@
   </r>
   <r>
     <s v="003318"/>
-    <x v="5"/>
+    <x v="6"/>
     <s v="市盈率"/>
     <n v="33"/>
     <n v="40"/>
@@ -2903,11 +3590,39 @@
     <n v="2"/>
     <n v="31"/>
     <x v="1"/>
+    <m/>
+    <n v="24.91"/>
+    <n v="1.92"/>
+    <m/>
+    <n v="7.71"/>
     <n v="24.91"/>
     <n v="1.5487307901379532"/>
     <n v="619"/>
     <n v="400"/>
     <n v="-219"/>
+  </r>
+  <r>
+    <s v="399812"/>
+    <x v="7"/>
+    <s v="市盈率"/>
+    <n v="24"/>
+    <n v="33"/>
+    <s v="*"/>
+    <s v="000968"/>
+    <m/>
+    <n v="2"/>
+    <n v="24"/>
+    <x v="1"/>
+    <m/>
+    <n v="22.72"/>
+    <n v="3.1"/>
+    <m/>
+    <n v="13.66"/>
+    <n v="22.72"/>
+    <n v="1.115850029756001"/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <s v="399922"/>
@@ -2922,14 +3637,42 @@
     <n v="10"/>
     <x v="2"/>
     <n v="11.15"/>
+    <n v="8.9700000000000006"/>
+    <n v="1.07"/>
+    <n v="3.66"/>
+    <n v="11.96"/>
+    <n v="11.15"/>
     <n v="1.243225"/>
     <n v="497"/>
     <n v="500"/>
     <n v="3"/>
   </r>
   <r>
+    <s v="000925"/>
+    <x v="1"/>
+    <s v="盈利收益率"/>
+    <n v="10"/>
+    <s v="国债利率*2"/>
+    <s v="*"/>
+    <s v="160716"/>
+    <m/>
+    <n v="2"/>
+    <n v="10"/>
+    <x v="2"/>
+    <n v="9.9600000000000009"/>
+    <n v="10.039999999999999"/>
+    <n v="1.2"/>
+    <n v="2.99"/>
+    <n v="11.92"/>
+    <n v="9.9600000000000009"/>
+    <n v="0.99201600000000023"/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
     <s v="399919"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="市盈率"/>
     <n v="13"/>
     <s v="17(市净率2)"/>
@@ -2939,6 +3682,11 @@
     <n v="2"/>
     <n v="13"/>
     <x v="2"/>
+    <m/>
+    <n v="9.8699999999999992"/>
+    <n v="1.1599999999999999"/>
+    <n v="3.1"/>
+    <n v="11.77"/>
     <n v="9.8699999999999992"/>
     <n v="1.7348119268833231"/>
     <n v="693"/>
@@ -2947,7 +3695,7 @@
   </r>
   <r>
     <s v="399701"/>
-    <x v="2"/>
+    <x v="3"/>
     <s v="市盈率"/>
     <n v="24"/>
     <n v="29"/>
@@ -2957,6 +3705,11 @@
     <n v="2"/>
     <n v="24"/>
     <x v="2"/>
+    <m/>
+    <n v="17.66"/>
+    <n v="2.21"/>
+    <n v="1.85"/>
+    <n v="12.53"/>
     <n v="17.66"/>
     <n v="1.8468902344396294"/>
     <n v="738"/>
@@ -2965,7 +3718,7 @@
   </r>
   <r>
     <s v="CSPSADRP"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="市盈率"/>
     <n v="15"/>
     <n v="25"/>
@@ -2975,6 +3728,11 @@
     <n v="2"/>
     <n v="15"/>
     <x v="2"/>
+    <m/>
+    <n v="13.58"/>
+    <n v="1.82"/>
+    <n v="3.36"/>
+    <n v="13.4"/>
     <n v="13.58"/>
     <n v="1.2200650267546707"/>
     <n v="488"/>
@@ -2983,7 +3741,7 @@
   </r>
   <r>
     <s v="399905"/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="市盈率"/>
     <n v="33"/>
     <n v="40"/>
@@ -2993,6 +3751,11 @@
     <n v="2"/>
     <n v="31"/>
     <x v="2"/>
+    <m/>
+    <n v="25.74"/>
+    <n v="2.2999999999999998"/>
+    <m/>
+    <n v="8.93"/>
     <n v="25.74"/>
     <n v="1.4504618234221964"/>
     <n v="580"/>
@@ -3001,7 +3764,7 @@
   </r>
   <r>
     <s v="003318"/>
-    <x v="5"/>
+    <x v="6"/>
     <s v="市盈率"/>
     <n v="33"/>
     <n v="40"/>
@@ -3011,10 +3774,38 @@
     <n v="2"/>
     <n v="31"/>
     <x v="2"/>
+    <m/>
+    <n v="24.81"/>
+    <n v="1.91"/>
+    <m/>
+    <n v="7.7"/>
     <n v="24.81"/>
     <n v="1.5612406810908412"/>
     <n v="624"/>
     <n v="624"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="399812"/>
+    <x v="7"/>
+    <s v="市盈率"/>
+    <n v="24"/>
+    <n v="33"/>
+    <s v="*"/>
+    <s v="000968"/>
+    <m/>
+    <n v="2"/>
+    <n v="24"/>
+    <x v="2"/>
+    <m/>
+    <n v="22.53"/>
+    <n v="3.08"/>
+    <m/>
+    <n v="13.66"/>
+    <n v="22.53"/>
+    <n v="1.1347497610819837"/>
+    <n v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -3030,32 +3821,42 @@
     <n v="10"/>
     <x v="3"/>
     <n v="11.17"/>
+    <n v="8.9499999999999993"/>
+    <n v="1.07"/>
+    <n v="3.68"/>
+    <n v="11.9"/>
+    <n v="11.17"/>
     <n v="1.247689"/>
     <n v="499"/>
-    <m/>
-    <n v="-499"/>
+    <n v="499"/>
+    <n v="0"/>
   </r>
   <r>
-    <s v="399919"/>
+    <s v="000925"/>
     <x v="1"/>
-    <s v="市盈率"/>
-    <n v="13"/>
-    <s v="17(市净率2)"/>
-    <m/>
-    <s v="310398"/>
-    <n v="400"/>
+    <s v="盈利收益率"/>
+    <n v="10"/>
+    <s v="国债利率*2"/>
+    <s v="*"/>
+    <s v="160716"/>
+    <m/>
     <n v="2"/>
-    <n v="13"/>
+    <n v="10"/>
     <x v="3"/>
-    <n v="9.82"/>
-    <n v="1.7525230109382322"/>
-    <n v="701"/>
-    <m/>
-    <n v="-701"/>
+    <n v="9.99"/>
+    <n v="10.01"/>
+    <n v="1.19"/>
+    <n v="3"/>
+    <n v="11.92"/>
+    <n v="9.99"/>
+    <n v="0.99800100000000003"/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <s v="399701"/>
-    <x v="2"/>
+    <x v="3"/>
     <s v="市盈率"/>
     <n v="24"/>
     <n v="29"/>
@@ -3065,15 +3866,43 @@
     <n v="2"/>
     <n v="24"/>
     <x v="3"/>
+    <m/>
+    <n v="17.559999999999999"/>
+    <n v="2.2000000000000002"/>
+    <n v="1.86"/>
+    <n v="12.53"/>
     <n v="17.559999999999999"/>
     <n v="1.8679853259374957"/>
     <n v="747"/>
-    <m/>
-    <n v="-747"/>
+    <n v="747"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="399919"/>
+    <x v="2"/>
+    <s v="市盈率"/>
+    <n v="13"/>
+    <s v="17(市净率2)"/>
+    <m/>
+    <s v="310398"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="13"/>
+    <x v="3"/>
+    <m/>
+    <n v="9.82"/>
+    <n v="1.1599999999999999"/>
+    <n v="3.11"/>
+    <n v="11.77"/>
+    <n v="9.82"/>
+    <n v="1.7525230109382322"/>
+    <n v="701"/>
+    <n v="701"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="CSPSADRP"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="市盈率"/>
     <n v="15"/>
     <n v="25"/>
@@ -3083,15 +3912,20 @@
     <n v="2"/>
     <n v="15"/>
     <x v="3"/>
+    <m/>
+    <n v="13.61"/>
+    <n v="1.82"/>
+    <n v="3.35"/>
+    <n v="13.37"/>
     <n v="13.61"/>
     <n v="1.2146922698603539"/>
     <n v="485"/>
-    <m/>
-    <n v="-485"/>
+    <n v="485"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="399905"/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="市盈率"/>
     <n v="33"/>
     <n v="40"/>
@@ -3101,15 +3935,20 @@
     <n v="2"/>
     <n v="31"/>
     <x v="3"/>
+    <m/>
+    <n v="25.92"/>
+    <n v="2.31"/>
+    <m/>
+    <n v="8.93"/>
     <n v="25.92"/>
     <n v="1.430386469288218"/>
     <n v="572"/>
-    <m/>
-    <n v="-572"/>
+    <n v="572"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="003318"/>
-    <x v="5"/>
+    <x v="6"/>
     <s v="市盈率"/>
     <n v="33"/>
     <n v="40"/>
@@ -3119,28 +3958,333 @@
     <n v="2"/>
     <n v="31"/>
     <x v="3"/>
+    <m/>
+    <n v="25.04"/>
+    <n v="1.93"/>
+    <m/>
+    <n v="7.7"/>
     <n v="25.04"/>
     <n v="1.5326914636262494"/>
     <n v="613"/>
-    <m/>
-    <n v="-613"/>
+    <n v="613"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="399812"/>
+    <x v="7"/>
+    <s v="市盈率"/>
+    <n v="24"/>
+    <n v="33"/>
+    <s v="*"/>
+    <s v="000968"/>
+    <m/>
+    <n v="2"/>
+    <n v="24"/>
+    <x v="3"/>
+    <m/>
+    <n v="22.79"/>
+    <n v="3.11"/>
+    <m/>
+    <n v="13.66"/>
+    <n v="22.79"/>
+    <n v="1.1090058398014111"/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="R12:X17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M1:P7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="21">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="180" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="179" showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField dataField="1" numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" numFmtId="178" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="求和项:定投额" fld="18" baseField="0" baseItem="0"/>
+    <dataField name="求和项:实投" fld="19" baseField="10" baseItem="0"/>
+    <dataField name="求和项:差额" fld="20" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A32:I37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="21">
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="7">
+      <items count="10">
+        <item x="4"/>
         <item x="3"/>
         <item x="2"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="8"/>
         <item x="1"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="0"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3153,13 +4297,19 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" numFmtId="180" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="4">
+      <items count="5">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item h="1" x="4"/>
       </items>
     </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" numFmtId="179" showAll="0"/>
     <pivotField numFmtId="176" showAll="0"/>
     <pivotField numFmtId="177" showAll="0"/>
@@ -3186,7 +4336,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="8">
     <i>
       <x/>
     </i>
@@ -3205,21 +4355,18 @@
     <i>
       <x v="5"/>
     </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="求和项:前日指数指标" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="求和项:前日指数指标" fld="16" baseField="0" baseItem="0" numFmtId="179"/>
   </dataFields>
-  <chartFormats count="13">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
+  <chartFormats count="9">
+    <chartFormat chart="2" format="19" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3231,7 +4378,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
+    <chartFormat chart="2" format="20" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3243,7 +4390,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
+    <chartFormat chart="2" format="21" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3255,7 +4402,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
+    <chartFormat chart="2" format="22" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3267,7 +4414,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
+    <chartFormat chart="2" format="23" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3279,7 +4426,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
+    <chartFormat chart="2" format="24" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3291,98 +4438,41 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="7">
+    <chartFormat chart="2" format="25" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="3"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="8">
+    <chartFormat chart="2" format="26" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="3"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="9">
+    <chartFormat chart="2" format="27" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -3391,19 +4481,22 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R1:U8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:D10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="21">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
+      <items count="10">
+        <item x="4"/>
         <item x="3"/>
         <item x="2"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="8"/>
         <item x="1"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="0"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3416,6 +4509,11 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="180" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="179" showAll="0"/>
     <pivotField numFmtId="176" showAll="0"/>
     <pivotField dataField="1" numFmtId="177" showAll="0"/>
@@ -3425,7 +4523,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -3443,6 +4541,12 @@
     </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -3463,10 +4567,15 @@
     </i>
   </colItems>
   <dataFields count="3">
-    <dataField name="求和项:定投额" fld="13" baseField="0" baseItem="0"/>
-    <dataField name="计数项:实投" fld="14" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="求和项:差额" fld="15" baseField="0" baseItem="0"/>
+    <dataField name="求和项:定投额" fld="18" baseField="0" baseItem="0"/>
+    <dataField name="计数项:实投" fld="19" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="求和项:差额" fld="20" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="3">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3476,7 +4585,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
   <location ref="N1:Q5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -3551,7 +4660,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="基金类型-金额统计" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="类型">
   <location ref="I1:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -3906,10 +5015,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" customWidth="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="P1" s="74" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="76">
+        <v>1965</v>
+      </c>
+      <c r="C2" s="76">
+        <v>4</v>
+      </c>
+      <c r="D2" s="76">
+        <v>-192</v>
+      </c>
+      <c r="M2" s="78">
+        <v>43224</v>
+      </c>
+      <c r="N2" s="76">
+        <v>3753</v>
+      </c>
+      <c r="O2" s="76">
+        <v>2730</v>
+      </c>
+      <c r="P2" s="76">
+        <v>-1023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="76">
+        <v>2992</v>
+      </c>
+      <c r="C3" s="76">
+        <v>4</v>
+      </c>
+      <c r="D3" s="76">
+        <v>-517</v>
+      </c>
+      <c r="M3" s="78">
+        <v>43231</v>
+      </c>
+      <c r="N3" s="76">
+        <v>3574</v>
+      </c>
+      <c r="O3" s="76">
+        <v>2640</v>
+      </c>
+      <c r="P3" s="76">
+        <v>-934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="76">
+        <v>2790</v>
+      </c>
+      <c r="C4" s="76">
+        <v>4</v>
+      </c>
+      <c r="D4" s="76">
+        <v>-406</v>
+      </c>
+      <c r="M4" s="78">
+        <v>43238</v>
+      </c>
+      <c r="N4" s="76">
+        <v>3620</v>
+      </c>
+      <c r="O4" s="76">
+        <v>3623</v>
+      </c>
+      <c r="P4" s="76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="76">
+        <v>2509</v>
+      </c>
+      <c r="C5" s="76">
+        <v>4</v>
+      </c>
+      <c r="D5" s="76">
+        <v>-472</v>
+      </c>
+      <c r="M5" s="78">
+        <v>43244</v>
+      </c>
+      <c r="N5" s="76">
+        <v>3617</v>
+      </c>
+      <c r="O5" s="76">
+        <v>3617</v>
+      </c>
+      <c r="P5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="76">
+        <v>2317</v>
+      </c>
+      <c r="C6" s="76">
+        <v>4</v>
+      </c>
+      <c r="D6" s="76">
+        <v>-365</v>
+      </c>
+      <c r="M6" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="76">
+        <v>1991</v>
+      </c>
+      <c r="C7" s="76">
+        <v>4</v>
+      </c>
+      <c r="D7" s="76">
+        <v>-2</v>
+      </c>
+      <c r="M7" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="76">
+        <v>14564</v>
+      </c>
+      <c r="O7" s="76">
+        <v>12610</v>
+      </c>
+      <c r="P7" s="76">
+        <v>-1954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="76">
+        <v>0</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="76">
+        <v>0</v>
+      </c>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="76">
+        <v>14564</v>
+      </c>
+      <c r="C10" s="76">
+        <v>24</v>
+      </c>
+      <c r="D10" s="76">
+        <v>-1954</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="55">
+        <v>43224</v>
+      </c>
+      <c r="B34" s="79">
+        <v>13.3</v>
+      </c>
+      <c r="C34" s="79">
+        <v>17.23</v>
+      </c>
+      <c r="D34" s="79">
+        <v>9.74</v>
+      </c>
+      <c r="E34" s="79">
+        <v>24.25</v>
+      </c>
+      <c r="F34" s="79">
+        <v>25.38</v>
+      </c>
+      <c r="G34" s="79">
+        <v>11.28</v>
+      </c>
+      <c r="H34" s="79">
+        <v>10.1</v>
+      </c>
+      <c r="I34" s="79">
+        <v>21.79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="55">
+        <v>43231</v>
+      </c>
+      <c r="B35" s="79">
+        <v>13.63</v>
+      </c>
+      <c r="C35" s="79">
+        <v>17.75</v>
+      </c>
+      <c r="D35" s="79">
+        <v>9.94</v>
+      </c>
+      <c r="E35" s="79">
+        <v>24.91</v>
+      </c>
+      <c r="F35" s="79">
+        <v>25.98</v>
+      </c>
+      <c r="G35" s="79">
+        <v>11.04</v>
+      </c>
+      <c r="H35" s="79">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="I35" s="79">
+        <v>22.72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="55">
+        <v>43238</v>
+      </c>
+      <c r="B36" s="79">
+        <v>13.58</v>
+      </c>
+      <c r="C36" s="79">
+        <v>17.66</v>
+      </c>
+      <c r="D36" s="79">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="E36" s="79">
+        <v>24.81</v>
+      </c>
+      <c r="F36" s="79">
+        <v>25.74</v>
+      </c>
+      <c r="G36" s="79">
+        <v>11.15</v>
+      </c>
+      <c r="H36" s="79">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="I36" s="79">
+        <v>22.53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="55">
+        <v>43244</v>
+      </c>
+      <c r="B37" s="79">
+        <v>13.61</v>
+      </c>
+      <c r="C37" s="79">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="D37" s="79">
+        <v>9.82</v>
+      </c>
+      <c r="E37" s="79">
+        <v>25.04</v>
+      </c>
+      <c r="F37" s="79">
+        <v>25.92</v>
+      </c>
+      <c r="G37" s="79">
+        <v>11.17</v>
+      </c>
+      <c r="H37" s="79">
+        <v>9.99</v>
+      </c>
+      <c r="I37" s="79">
+        <v>22.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3920,26 +5430,26 @@
     <col min="4" max="4" width="5.375" style="30" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="30" customWidth="1"/>
     <col min="6" max="7" width="8" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="30" customWidth="1"/>
     <col min="9" max="10" width="4.625" style="34" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="54" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="52" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" style="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.625" style="49" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" style="30"/>
-    <col min="18" max="18" width="23.25" style="30" customWidth="1"/>
-    <col min="19" max="19" width="9.75" style="30" customWidth="1"/>
-    <col min="20" max="20" width="9.5" style="30" customWidth="1"/>
-    <col min="21" max="21" width="12.75" style="30" customWidth="1"/>
-    <col min="22" max="22" width="15" style="30" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.75" style="30" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5" style="30" customWidth="1"/>
-    <col min="25" max="25" width="8.5" style="30" customWidth="1"/>
-    <col min="26" max="16384" width="11" style="30"/>
+    <col min="11" max="11" width="10.25" style="53" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.75" style="52" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.875" style="52" customWidth="1"/>
+    <col min="15" max="15" width="5.875" style="52" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.75" style="52" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8" style="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.625" style="32" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.625" style="49" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="30"/>
+    <col min="23" max="23" width="12.75" style="30" customWidth="1"/>
+    <col min="24" max="24" width="15" style="30" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.75" style="30" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" style="30" customWidth="1"/>
+    <col min="27" max="27" width="8.5" style="30" customWidth="1"/>
+    <col min="28" max="16384" width="11" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
         <v>37</v>
       </c>
@@ -3970,38 +5480,41 @@
       <c r="J1" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="N1" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="P1" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q1" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="R1" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="S1" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="T1" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="U1" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="R1" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="S1" t="s">
-        <v>189</v>
-      </c>
-      <c r="T1" t="s">
-        <v>190</v>
-      </c>
-      <c r="U1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="48" t="s">
         <v>58</v>
       </c>
@@ -4032,124 +5545,128 @@
       <c r="J2" s="36">
         <v>10</v>
       </c>
-      <c r="K2" s="71">
+      <c r="K2" s="70">
         <v>43224</v>
       </c>
-      <c r="L2" s="72">
+      <c r="L2" s="71">
         <v>11.28</v>
       </c>
-      <c r="M2" s="45">
-        <f>IFERROR(IF(C2="盈利收益率",POWER(L2/J2,I2),POWER(J2/L2,I2)),0)</f>
+      <c r="M2" s="71">
+        <v>8.86</v>
+      </c>
+      <c r="N2" s="71">
+        <v>1.06</v>
+      </c>
+      <c r="O2" s="71">
+        <v>3.71</v>
+      </c>
+      <c r="P2" s="71">
+        <v>11.92</v>
+      </c>
+      <c r="Q2" s="45">
+        <f>IF(C2="盈利收益率",L2,IF(C2="市盈率",M2,IF(C2="市净率",N2,-1)))</f>
+        <v>11.28</v>
+      </c>
+      <c r="R2" s="45">
+        <f t="shared" ref="R2:R33" si="0">IFERROR(IF(C2="盈利收益率",POWER(Q2/J2,I2),POWER(J2/Q2,I2)),0)</f>
         <v>1.2723839999999997</v>
       </c>
-      <c r="N2" s="46">
-        <f t="shared" ref="N2:N7" si="0">INT(H2*M2)</f>
+      <c r="S2" s="46">
+        <f t="shared" ref="S2:S33" si="1">IF(R2&gt;1,INT(H2*R2),0)</f>
         <v>508</v>
       </c>
-      <c r="O2" s="73">
+      <c r="T2" s="72">
         <v>510</v>
       </c>
-      <c r="P2" s="51">
-        <f>O2-N2</f>
+      <c r="U2" s="51">
+        <f>T2-S2</f>
         <v>2</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="S2" s="6">
-        <v>1965</v>
-      </c>
-      <c r="T2" s="6">
-        <v>3</v>
-      </c>
-      <c r="U2" s="6">
-        <v>-677</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="41" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D3" s="43">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="41"/>
+        <v>64</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>195</v>
+      </c>
       <c r="G3" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" s="44">
-        <v>400</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="H3" s="44"/>
       <c r="I3" s="36">
         <v>2</v>
       </c>
       <c r="J3" s="43">
-        <v>13</v>
-      </c>
-      <c r="K3" s="71">
+        <v>10</v>
+      </c>
+      <c r="K3" s="70">
         <v>43224</v>
       </c>
-      <c r="L3" s="72">
-        <v>9.74</v>
-      </c>
-      <c r="M3" s="45">
-        <f t="shared" ref="M3:M4" si="1">IFERROR(IF(C3="盈利收益率",POWER(L3/J3,I3),POWER(J3/L3,I3)),0)</f>
-        <v>1.7814301194506867</v>
-      </c>
-      <c r="N3" s="46">
-        <f t="shared" si="0"/>
-        <v>712</v>
-      </c>
-      <c r="O3" s="73">
-        <v>510</v>
-      </c>
-      <c r="P3" s="51">
-        <f t="shared" ref="P3:P4" si="2">O3-N3</f>
-        <v>-202</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="S3" s="6">
-        <v>2992</v>
-      </c>
-      <c r="T3" s="6">
-        <v>3</v>
-      </c>
-      <c r="U3" s="6">
-        <v>-1294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L3" s="71">
+        <v>10.1</v>
+      </c>
+      <c r="M3" s="71">
+        <v>9.91</v>
+      </c>
+      <c r="N3" s="71">
+        <v>1.18</v>
+      </c>
+      <c r="O3" s="71">
+        <v>3.03</v>
+      </c>
+      <c r="P3" s="71">
+        <v>11.92</v>
+      </c>
+      <c r="Q3" s="45">
+        <f t="shared" ref="Q3:Q33" si="2">IF(C3="盈利收益率",L3,IF(C3="市盈率",M3,IF(C3="市净率",N3,-1)))</f>
+        <v>10.1</v>
+      </c>
+      <c r="R3" s="45">
+        <f>IFERROR(IF(C3="盈利收益率",POWER(Q3/J3,I3),POWER(J3/Q3,I3)),0)</f>
+        <v>1.0201</v>
+      </c>
+      <c r="S3" s="46">
+        <f>IF(R3&gt;1,INT(H3*R3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="72"/>
+      <c r="U3" s="51">
+        <f>T3-S3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>83</v>
       </c>
       <c r="D4" s="43">
-        <v>24</v>
-      </c>
-      <c r="E4" s="43">
-        <v>29</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>135</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="41"/>
       <c r="G4" s="41" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H4" s="44">
         <v>400</v>
@@ -4158,63 +5675,65 @@
         <v>2</v>
       </c>
       <c r="J4" s="43">
-        <v>24</v>
-      </c>
-      <c r="K4" s="71">
+        <v>13</v>
+      </c>
+      <c r="K4" s="70">
         <v>43224</v>
       </c>
-      <c r="L4" s="72">
-        <v>17.23</v>
-      </c>
-      <c r="M4" s="45">
+      <c r="L4" s="71"/>
+      <c r="M4" s="71">
+        <v>9.74</v>
+      </c>
+      <c r="N4" s="71">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O4" s="71">
+        <v>3.14</v>
+      </c>
+      <c r="P4" s="71">
+        <v>11.78</v>
+      </c>
+      <c r="Q4" s="45">
+        <f t="shared" si="2"/>
+        <v>9.74</v>
+      </c>
+      <c r="R4" s="45">
+        <f t="shared" si="0"/>
+        <v>1.7814301194506867</v>
+      </c>
+      <c r="S4" s="46">
         <f t="shared" si="1"/>
-        <v>1.9402242508494376</v>
-      </c>
-      <c r="N4" s="46">
-        <f t="shared" si="0"/>
-        <v>776</v>
-      </c>
-      <c r="O4" s="73">
+        <v>712</v>
+      </c>
+      <c r="T4" s="72">
         <v>510</v>
       </c>
-      <c r="P4" s="51">
-        <f t="shared" si="2"/>
-        <v>-266</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="S4" s="6">
-        <v>2790</v>
-      </c>
-      <c r="T4" s="6">
-        <v>3</v>
-      </c>
-      <c r="U4" s="6">
-        <v>-1137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="U4" s="51">
+        <f t="shared" ref="U4:U5" si="3">T4-S4</f>
+        <v>-202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="41" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>83</v>
       </c>
       <c r="D5" s="43">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E5" s="43">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="H5" s="44">
         <v>400</v>
@@ -4223,63 +5742,65 @@
         <v>2</v>
       </c>
       <c r="J5" s="43">
-        <v>15</v>
-      </c>
-      <c r="K5" s="71">
+        <v>24</v>
+      </c>
+      <c r="K5" s="70">
         <v>43224</v>
       </c>
-      <c r="L5" s="72">
-        <v>13.3</v>
-      </c>
-      <c r="M5" s="45">
-        <f>IFERROR(IF(C5="盈利收益率",POWER(L5/J5,I5),POWER(J5/L5,I5)),0)</f>
-        <v>1.2719769348182488</v>
-      </c>
-      <c r="N5" s="46">
+      <c r="L5" s="71"/>
+      <c r="M5" s="71">
+        <v>17.23</v>
+      </c>
+      <c r="N5" s="71">
+        <v>2.16</v>
+      </c>
+      <c r="O5" s="71">
+        <v>1.9</v>
+      </c>
+      <c r="P5" s="71">
+        <v>12.53</v>
+      </c>
+      <c r="Q5" s="45">
+        <f t="shared" si="2"/>
+        <v>17.23</v>
+      </c>
+      <c r="R5" s="45">
         <f t="shared" si="0"/>
-        <v>508</v>
-      </c>
-      <c r="O5" s="73">
-        <v>400</v>
-      </c>
-      <c r="P5" s="51">
-        <f>O5-N5</f>
-        <v>-108</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="S5" s="6">
-        <v>2509</v>
-      </c>
-      <c r="T5" s="6">
-        <v>3</v>
-      </c>
-      <c r="U5" s="6">
-        <v>-1085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>1.9402242508494376</v>
+      </c>
+      <c r="S5" s="46">
+        <f t="shared" si="1"/>
+        <v>776</v>
+      </c>
+      <c r="T5" s="72">
+        <v>510</v>
+      </c>
+      <c r="U5" s="51">
+        <f t="shared" si="3"/>
+        <v>-266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="43">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E6" s="43">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H6" s="44">
         <v>400</v>
@@ -4287,49 +5808,51 @@
       <c r="I6" s="36">
         <v>2</v>
       </c>
-      <c r="J6" s="47">
-        <v>31</v>
-      </c>
-      <c r="K6" s="71">
+      <c r="J6" s="43">
+        <v>15</v>
+      </c>
+      <c r="K6" s="70">
         <v>43224</v>
       </c>
-      <c r="L6" s="72">
-        <v>25.38</v>
-      </c>
-      <c r="M6" s="45">
-        <f t="shared" ref="M6:M7" si="3">IFERROR(IF(C6="盈利收益率",POWER(L6/J6,I6),POWER(J6/L6,I6)),0)</f>
-        <v>1.4919015053146467</v>
-      </c>
-      <c r="N6" s="46">
+      <c r="L6" s="71"/>
+      <c r="M6" s="71">
+        <v>13.3</v>
+      </c>
+      <c r="N6" s="71">
+        <v>1.79</v>
+      </c>
+      <c r="O6" s="71">
+        <v>3.43</v>
+      </c>
+      <c r="P6" s="71">
+        <v>13.46</v>
+      </c>
+      <c r="Q6" s="45">
+        <f t="shared" si="2"/>
+        <v>13.3</v>
+      </c>
+      <c r="R6" s="45">
         <f t="shared" si="0"/>
-        <v>596</v>
-      </c>
-      <c r="O6" s="73">
+        <v>1.2719769348182488</v>
+      </c>
+      <c r="S6" s="46">
+        <f t="shared" si="1"/>
+        <v>508</v>
+      </c>
+      <c r="T6" s="72">
         <v>400</v>
       </c>
-      <c r="P6" s="51">
-        <f t="shared" ref="P6:P7" si="4">O6-N6</f>
-        <v>-196</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="S6" s="6">
-        <v>2317</v>
-      </c>
-      <c r="T6" s="6">
-        <v>3</v>
-      </c>
-      <c r="U6" s="6">
-        <v>-937</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="U6" s="51">
+        <f>T6-S6</f>
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>83</v>
@@ -4341,10 +5864,10 @@
         <v>40</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="H7" s="44">
         <v>400</v>
@@ -4355,728 +5878,716 @@
       <c r="J7" s="47">
         <v>31</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="70">
         <v>43224</v>
       </c>
-      <c r="L7" s="72">
+      <c r="L7" s="71"/>
+      <c r="M7" s="71">
+        <v>25.38</v>
+      </c>
+      <c r="N7" s="71">
+        <v>2.27</v>
+      </c>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71">
+        <v>8.94</v>
+      </c>
+      <c r="Q7" s="45">
+        <f t="shared" si="2"/>
+        <v>25.38</v>
+      </c>
+      <c r="R7" s="45">
+        <f t="shared" si="0"/>
+        <v>1.4919015053146467</v>
+      </c>
+      <c r="S7" s="46">
+        <f t="shared" si="1"/>
+        <v>596</v>
+      </c>
+      <c r="T7" s="72">
+        <v>400</v>
+      </c>
+      <c r="U7" s="51">
+        <f t="shared" ref="U7:U8" si="4">T7-S7</f>
+        <v>-196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="43">
+        <v>33</v>
+      </c>
+      <c r="E8" s="43">
+        <v>40</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="44">
+        <v>400</v>
+      </c>
+      <c r="I8" s="36">
+        <v>2</v>
+      </c>
+      <c r="J8" s="47">
+        <v>31</v>
+      </c>
+      <c r="K8" s="70">
+        <v>43224</v>
+      </c>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71">
         <v>24.25</v>
       </c>
-      <c r="M7" s="45">
-        <f t="shared" si="3"/>
+      <c r="N8" s="71">
+        <v>1.87</v>
+      </c>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71">
+        <v>7.71</v>
+      </c>
+      <c r="Q8" s="45">
+        <f t="shared" si="2"/>
+        <v>24.25</v>
+      </c>
+      <c r="R8" s="45">
+        <f t="shared" si="0"/>
         <v>1.6341800403868634</v>
       </c>
-      <c r="N7" s="46">
-        <f t="shared" si="0"/>
+      <c r="S8" s="46">
+        <f t="shared" si="1"/>
         <v>653</v>
       </c>
-      <c r="O7" s="73">
+      <c r="T8" s="72">
         <v>400</v>
       </c>
-      <c r="P7" s="51">
+      <c r="U8" s="51">
         <f t="shared" si="4"/>
         <v>-253</v>
       </c>
-      <c r="R7" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="S7" s="6">
-        <v>1991</v>
-      </c>
-      <c r="T7" s="6">
-        <v>3</v>
-      </c>
-      <c r="U7" s="6">
-        <v>-531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="58" t="s">
+    </row>
+    <row r="9" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="43">
+        <v>24</v>
+      </c>
+      <c r="E9" s="43">
+        <v>33</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="I9" s="36">
+        <v>2</v>
+      </c>
+      <c r="J9" s="43">
+        <v>24</v>
+      </c>
+      <c r="K9" s="70">
+        <v>43224</v>
+      </c>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71">
+        <v>21.79</v>
+      </c>
+      <c r="N9" s="71">
+        <v>2.98</v>
+      </c>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71">
+        <v>13.65</v>
+      </c>
+      <c r="Q9" s="45">
+        <f t="shared" si="2"/>
+        <v>21.79</v>
+      </c>
+      <c r="R9" s="45">
+        <f t="shared" si="0"/>
+        <v>1.2131319000825813</v>
+      </c>
+      <c r="S9" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="72"/>
+      <c r="U9" s="51">
+        <f t="shared" ref="U9" si="5">T9-S9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A10" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B10" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C10" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D10" s="60">
         <v>10</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E10" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F10" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G10" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="62">
+      <c r="H10" s="61">
         <v>400</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I10" s="62">
         <v>2</v>
       </c>
-      <c r="J8" s="63">
+      <c r="J10" s="62">
         <v>10</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K10" s="67">
         <v>43231</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L10" s="68">
         <v>11.04</v>
       </c>
-      <c r="M8" s="65">
-        <f>IFERROR(IF(C8="盈利收益率",POWER(L8/J8,I8),POWER(J8/L8,I8)),0)</f>
+      <c r="M10" s="68">
+        <v>9.06</v>
+      </c>
+      <c r="N10" s="68">
+        <v>1.08</v>
+      </c>
+      <c r="O10" s="68">
+        <v>3.63</v>
+      </c>
+      <c r="P10" s="68">
+        <v>11.94</v>
+      </c>
+      <c r="Q10" s="64">
+        <f t="shared" si="2"/>
+        <v>11.04</v>
+      </c>
+      <c r="R10" s="64">
+        <f t="shared" si="0"/>
         <v>1.2188159999999997</v>
       </c>
-      <c r="N8" s="66">
-        <f>INT(H8*M8)</f>
+      <c r="S10" s="65">
+        <f t="shared" si="1"/>
         <v>487</v>
       </c>
-      <c r="O8" s="70">
+      <c r="T10" s="69">
         <v>480</v>
       </c>
-      <c r="P8" s="67">
-        <f>O8-N8</f>
+      <c r="U10" s="66">
+        <f>T10-S10</f>
         <v>-7</v>
       </c>
-      <c r="R8" s="8" t="s">
+    </row>
+    <row r="11" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="60">
+        <v>10</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62">
+        <v>2</v>
+      </c>
+      <c r="J11" s="60">
+        <v>10</v>
+      </c>
+      <c r="K11" s="67">
+        <v>43231</v>
+      </c>
+      <c r="L11" s="68">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="M11" s="68">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="N11" s="68">
+        <v>1.21</v>
+      </c>
+      <c r="O11" s="68">
+        <v>2.96</v>
+      </c>
+      <c r="P11" s="68">
+        <v>11.92</v>
+      </c>
+      <c r="Q11" s="64">
+        <f t="shared" si="2"/>
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="R11" s="64">
+        <f>IFERROR(IF(C11="盈利收益率",POWER(Q11/J11,I11),POWER(J11/Q11,I11)),0)</f>
+        <v>0.97416899999999973</v>
+      </c>
+      <c r="S11" s="65">
+        <f>IF(R11&gt;1,INT(H11*R11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="69"/>
+      <c r="U11" s="66">
+        <f>T11-S11</f>
+        <v>0</v>
+      </c>
+      <c r="AA11"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A12" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="60">
+        <v>13</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="61">
+        <v>400</v>
+      </c>
+      <c r="I12" s="62">
+        <v>2</v>
+      </c>
+      <c r="J12" s="60">
+        <v>13</v>
+      </c>
+      <c r="K12" s="67">
+        <v>43231</v>
+      </c>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68">
+        <v>9.94</v>
+      </c>
+      <c r="N12" s="68">
+        <v>1.17</v>
+      </c>
+      <c r="O12" s="68">
+        <v>3.07</v>
+      </c>
+      <c r="P12" s="68">
+        <v>11.78</v>
+      </c>
+      <c r="Q12" s="64">
+        <f t="shared" si="2"/>
+        <v>9.94</v>
+      </c>
+      <c r="R12" s="64">
+        <f t="shared" si="0"/>
+        <v>1.7104639911906048</v>
+      </c>
+      <c r="S12" s="65">
+        <f t="shared" si="1"/>
+        <v>684</v>
+      </c>
+      <c r="T12" s="69">
+        <v>480</v>
+      </c>
+      <c r="U12" s="66">
+        <f t="shared" ref="U12:U17" si="6">T12-S12</f>
+        <v>-204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="60">
         <v>24</v>
       </c>
-      <c r="S8" s="6">
-        <v>14564</v>
-      </c>
-      <c r="T8" s="6">
-        <v>18</v>
-      </c>
-      <c r="U8" s="6">
-        <v>-5661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="60" t="s">
+      <c r="E13" s="60">
+        <v>29</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="61">
+        <v>400</v>
+      </c>
+      <c r="I13" s="62">
+        <v>2</v>
+      </c>
+      <c r="J13" s="60">
+        <v>24</v>
+      </c>
+      <c r="K13" s="67">
+        <v>43231</v>
+      </c>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68">
+        <v>17.75</v>
+      </c>
+      <c r="N13" s="68">
+        <v>2.23</v>
+      </c>
+      <c r="O13" s="68">
+        <v>1.84</v>
+      </c>
+      <c r="P13" s="68">
+        <v>12.54</v>
+      </c>
+      <c r="Q13" s="64">
+        <f t="shared" si="2"/>
+        <v>17.75</v>
+      </c>
+      <c r="R13" s="64">
+        <f t="shared" si="0"/>
+        <v>1.8282086887522315</v>
+      </c>
+      <c r="S13" s="65">
+        <f t="shared" si="1"/>
+        <v>731</v>
+      </c>
+      <c r="T13" s="69">
+        <v>480</v>
+      </c>
+      <c r="U13" s="66">
+        <f t="shared" si="6"/>
+        <v>-251</v>
+      </c>
+      <c r="V13" s="54"/>
+    </row>
+    <row r="14" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="61">
-        <v>13</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9" s="62">
+      <c r="D14" s="60">
+        <v>15</v>
+      </c>
+      <c r="E14" s="60">
+        <v>25</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="61">
         <v>400</v>
       </c>
-      <c r="I9" s="63">
+      <c r="I14" s="62">
         <v>2</v>
       </c>
-      <c r="J9" s="61">
-        <v>13</v>
-      </c>
-      <c r="K9" s="68">
+      <c r="J14" s="60">
+        <v>15</v>
+      </c>
+      <c r="K14" s="67">
         <v>43231</v>
       </c>
-      <c r="L9" s="69">
-        <v>9.94</v>
-      </c>
-      <c r="M9" s="65">
-        <f t="shared" ref="M9:M13" si="5">IFERROR(IF(C9="盈利收益率",POWER(L9/J9,I9),POWER(J9/L9,I9)),0)</f>
-        <v>1.7104639911906048</v>
-      </c>
-      <c r="N9" s="66">
-        <f t="shared" ref="N9:N19" si="6">INT(H9*M9)</f>
-        <v>684</v>
-      </c>
-      <c r="O9" s="70">
-        <v>480</v>
-      </c>
-      <c r="P9" s="67">
-        <f t="shared" ref="P9:P13" si="7">O9-N9</f>
-        <v>-204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="60" t="s">
+      <c r="L14" s="68"/>
+      <c r="M14" s="68">
+        <v>13.63</v>
+      </c>
+      <c r="N14" s="68">
+        <v>1.83</v>
+      </c>
+      <c r="O14" s="68">
+        <v>3.35</v>
+      </c>
+      <c r="P14" s="68">
+        <v>13.43</v>
+      </c>
+      <c r="Q14" s="64">
+        <f t="shared" si="2"/>
+        <v>13.63</v>
+      </c>
+      <c r="R14" s="64">
+        <f t="shared" si="0"/>
+        <v>1.211130124358841</v>
+      </c>
+      <c r="S14" s="65">
+        <f t="shared" si="1"/>
+        <v>484</v>
+      </c>
+      <c r="T14" s="69">
+        <v>400</v>
+      </c>
+      <c r="U14" s="66">
+        <f>T14-S14</f>
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D15" s="60">
+        <v>33</v>
+      </c>
+      <c r="E15" s="60">
+        <v>40</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="61">
+        <v>400</v>
+      </c>
+      <c r="I15" s="62">
+        <v>2</v>
+      </c>
+      <c r="J15" s="63">
+        <v>31</v>
+      </c>
+      <c r="K15" s="67">
+        <v>43231</v>
+      </c>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68">
+        <v>25.98</v>
+      </c>
+      <c r="N15" s="68">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68">
+        <v>8.93</v>
+      </c>
+      <c r="Q15" s="64">
+        <f t="shared" si="2"/>
+        <v>25.98</v>
+      </c>
+      <c r="R15" s="64">
+        <f t="shared" si="0"/>
+        <v>1.4237872325546801</v>
+      </c>
+      <c r="S15" s="65">
+        <f t="shared" si="1"/>
+        <v>569</v>
+      </c>
+      <c r="T15" s="69">
+        <v>400</v>
+      </c>
+      <c r="U15" s="66">
+        <f t="shared" si="6"/>
+        <v>-169</v>
+      </c>
+      <c r="AA15"/>
+    </row>
+    <row r="16" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="60">
+        <v>33</v>
+      </c>
+      <c r="E16" s="60">
+        <v>40</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="61">
+        <v>400</v>
+      </c>
+      <c r="I16" s="62">
+        <v>2</v>
+      </c>
+      <c r="J16" s="63">
+        <v>31</v>
+      </c>
+      <c r="K16" s="67">
+        <v>43231</v>
+      </c>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68">
+        <v>24.91</v>
+      </c>
+      <c r="N16" s="68">
+        <v>1.92</v>
+      </c>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68">
+        <v>7.71</v>
+      </c>
+      <c r="Q16" s="64">
+        <f t="shared" si="2"/>
+        <v>24.91</v>
+      </c>
+      <c r="R16" s="64">
+        <f t="shared" si="0"/>
+        <v>1.5487307901379532</v>
+      </c>
+      <c r="S16" s="65">
+        <f t="shared" si="1"/>
+        <v>619</v>
+      </c>
+      <c r="T16" s="69">
+        <v>400</v>
+      </c>
+      <c r="U16" s="66">
+        <f t="shared" si="6"/>
+        <v>-219</v>
+      </c>
+      <c r="AA16"/>
+    </row>
+    <row r="17" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="60">
         <v>24</v>
       </c>
-      <c r="E10" s="61">
-        <v>29</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="62">
-        <v>400</v>
-      </c>
-      <c r="I10" s="63">
+      <c r="E17" s="60">
+        <v>33</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62">
         <v>2</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J17" s="60">
         <v>24</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K17" s="67">
         <v>43231</v>
       </c>
-      <c r="L10" s="69">
-        <v>17.75</v>
-      </c>
-      <c r="M10" s="65">
-        <f t="shared" si="5"/>
-        <v>1.8282086887522315</v>
-      </c>
-      <c r="N10" s="66">
+      <c r="L17" s="68"/>
+      <c r="M17" s="68">
+        <v>22.72</v>
+      </c>
+      <c r="N17" s="68">
+        <v>3.1</v>
+      </c>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68">
+        <v>13.66</v>
+      </c>
+      <c r="Q17" s="64">
+        <f t="shared" si="2"/>
+        <v>22.72</v>
+      </c>
+      <c r="R17" s="64">
+        <f t="shared" si="0"/>
+        <v>1.115850029756001</v>
+      </c>
+      <c r="S17" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="69"/>
+      <c r="U17" s="66">
         <f t="shared" si="6"/>
-        <v>731</v>
-      </c>
-      <c r="O10" s="70">
-        <v>480</v>
-      </c>
-      <c r="P10" s="67">
-        <f t="shared" si="7"/>
-        <v>-251</v>
-      </c>
-      <c r="Q10" s="55"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-    </row>
-    <row r="11" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="61">
-        <v>15</v>
-      </c>
-      <c r="E11" s="61">
-        <v>25</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="62">
-        <v>400</v>
-      </c>
-      <c r="I11" s="63">
-        <v>2</v>
-      </c>
-      <c r="J11" s="61">
-        <v>15</v>
-      </c>
-      <c r="K11" s="68">
-        <v>43231</v>
-      </c>
-      <c r="L11" s="69">
-        <v>13.63</v>
-      </c>
-      <c r="M11" s="65">
-        <f>IFERROR(IF(C11="盈利收益率",POWER(L11/J11,I11),POWER(J11/L11,I11)),0)</f>
-        <v>1.211130124358841</v>
-      </c>
-      <c r="N11" s="66">
-        <f t="shared" si="6"/>
-        <v>484</v>
-      </c>
-      <c r="O11" s="70">
-        <v>400</v>
-      </c>
-      <c r="P11" s="67">
-        <f>O11-N11</f>
-        <v>-84</v>
-      </c>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-    </row>
-    <row r="12" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="61">
-        <v>33</v>
-      </c>
-      <c r="E12" s="61">
-        <v>40</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="62">
-        <v>400</v>
-      </c>
-      <c r="I12" s="63">
-        <v>2</v>
-      </c>
-      <c r="J12" s="64">
-        <v>31</v>
-      </c>
-      <c r="K12" s="68">
-        <v>43231</v>
-      </c>
-      <c r="L12" s="69">
-        <v>25.98</v>
-      </c>
-      <c r="M12" s="65">
-        <f t="shared" si="5"/>
-        <v>1.4237872325546801</v>
-      </c>
-      <c r="N12" s="66">
-        <f t="shared" si="6"/>
-        <v>569</v>
-      </c>
-      <c r="O12" s="70">
-        <v>400</v>
-      </c>
-      <c r="P12" s="67">
-        <f t="shared" si="7"/>
-        <v>-169</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-    </row>
-    <row r="13" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="61">
-        <v>33</v>
-      </c>
-      <c r="E13" s="61">
-        <v>40</v>
-      </c>
-      <c r="F13" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17"/>
+    </row>
+    <row r="18" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="43">
+        <v>10</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="62">
-        <v>400</v>
-      </c>
-      <c r="I13" s="63">
-        <v>2</v>
-      </c>
-      <c r="J13" s="64">
-        <v>31</v>
-      </c>
-      <c r="K13" s="68">
-        <v>43231</v>
-      </c>
-      <c r="L13" s="69">
-        <v>24.91</v>
-      </c>
-      <c r="M13" s="65">
-        <f t="shared" si="5"/>
-        <v>1.5487307901379532</v>
-      </c>
-      <c r="N13" s="66">
-        <f t="shared" si="6"/>
-        <v>619</v>
-      </c>
-      <c r="O13" s="70">
-        <v>400</v>
-      </c>
-      <c r="P13" s="67">
-        <f t="shared" si="7"/>
-        <v>-219</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="S13" t="s">
-        <v>183</v>
-      </c>
-      <c r="T13" t="s">
-        <v>184</v>
-      </c>
-      <c r="U13" t="s">
-        <v>185</v>
-      </c>
-      <c r="V13" t="s">
-        <v>186</v>
-      </c>
-      <c r="W13" t="s">
-        <v>187</v>
-      </c>
-      <c r="X13" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y13"/>
-    </row>
-    <row r="14" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="43">
-        <v>10</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="41" t="s">
+      <c r="G18" s="41" t="s">
         <v>71</v>
-      </c>
-      <c r="H14" s="44">
-        <v>400</v>
-      </c>
-      <c r="I14" s="36">
-        <v>2</v>
-      </c>
-      <c r="J14" s="36">
-        <v>10</v>
-      </c>
-      <c r="K14" s="71">
-        <v>43238</v>
-      </c>
-      <c r="L14" s="72">
-        <v>11.15</v>
-      </c>
-      <c r="M14" s="45">
-        <f>IFERROR(IF(C14="盈利收益率",POWER(L14/J14,I14),POWER(J14/L14,I14)),0)</f>
-        <v>1.243225</v>
-      </c>
-      <c r="N14" s="46">
-        <f t="shared" si="6"/>
-        <v>497</v>
-      </c>
-      <c r="O14" s="73">
-        <v>500</v>
-      </c>
-      <c r="P14" s="51">
-        <f>O14-N14</f>
-        <v>3</v>
-      </c>
-      <c r="R14" s="56">
-        <v>43224</v>
-      </c>
-      <c r="S14" s="6">
-        <v>13.3</v>
-      </c>
-      <c r="T14" s="6">
-        <v>17.23</v>
-      </c>
-      <c r="U14" s="6">
-        <v>9.74</v>
-      </c>
-      <c r="V14" s="6">
-        <v>24.25</v>
-      </c>
-      <c r="W14" s="6">
-        <v>25.38</v>
-      </c>
-      <c r="X14" s="6">
-        <v>11.28</v>
-      </c>
-      <c r="Y14"/>
-    </row>
-    <row r="15" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="43">
-        <v>13</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="H15" s="44">
-        <v>400</v>
-      </c>
-      <c r="I15" s="36">
-        <v>2</v>
-      </c>
-      <c r="J15" s="43">
-        <v>13</v>
-      </c>
-      <c r="K15" s="71">
-        <v>43238</v>
-      </c>
-      <c r="L15" s="72">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="M15" s="45">
-        <f t="shared" ref="M15:M16" si="8">IFERROR(IF(C15="盈利收益率",POWER(L15/J15,I15),POWER(J15/L15,I15)),0)</f>
-        <v>1.7348119268833231</v>
-      </c>
-      <c r="N15" s="46">
-        <f t="shared" si="6"/>
-        <v>693</v>
-      </c>
-      <c r="O15" s="73">
-        <v>693</v>
-      </c>
-      <c r="P15" s="51">
-        <f t="shared" ref="P15:P16" si="9">O15-N15</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="56">
-        <v>43231</v>
-      </c>
-      <c r="S15" s="6">
-        <v>13.63</v>
-      </c>
-      <c r="T15" s="6">
-        <v>17.75</v>
-      </c>
-      <c r="U15" s="6">
-        <v>9.94</v>
-      </c>
-      <c r="V15" s="6">
-        <v>24.91</v>
-      </c>
-      <c r="W15" s="6">
-        <v>25.98</v>
-      </c>
-      <c r="X15" s="6">
-        <v>11.04</v>
-      </c>
-      <c r="Y15"/>
-    </row>
-    <row r="16" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="43">
-        <v>24</v>
-      </c>
-      <c r="E16" s="43">
-        <v>29</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" s="44">
-        <v>400</v>
-      </c>
-      <c r="I16" s="36">
-        <v>2</v>
-      </c>
-      <c r="J16" s="43">
-        <v>24</v>
-      </c>
-      <c r="K16" s="71">
-        <v>43238</v>
-      </c>
-      <c r="L16" s="72">
-        <v>17.66</v>
-      </c>
-      <c r="M16" s="45">
-        <f t="shared" si="8"/>
-        <v>1.8468902344396294</v>
-      </c>
-      <c r="N16" s="46">
-        <f t="shared" si="6"/>
-        <v>738</v>
-      </c>
-      <c r="O16" s="73">
-        <v>738</v>
-      </c>
-      <c r="P16" s="51">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="56">
-        <v>43238</v>
-      </c>
-      <c r="S16" s="6">
-        <v>13.58</v>
-      </c>
-      <c r="T16" s="6">
-        <v>17.66</v>
-      </c>
-      <c r="U16" s="6">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="V16" s="6">
-        <v>24.81</v>
-      </c>
-      <c r="W16" s="6">
-        <v>25.74</v>
-      </c>
-      <c r="X16" s="6">
-        <v>11.15</v>
-      </c>
-      <c r="Y16"/>
-    </row>
-    <row r="17" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="43">
-        <v>15</v>
-      </c>
-      <c r="E17" s="43">
-        <v>25</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="44">
-        <v>400</v>
-      </c>
-      <c r="I17" s="36">
-        <v>2</v>
-      </c>
-      <c r="J17" s="43">
-        <v>15</v>
-      </c>
-      <c r="K17" s="71">
-        <v>43238</v>
-      </c>
-      <c r="L17" s="72">
-        <v>13.58</v>
-      </c>
-      <c r="M17" s="45">
-        <f>IFERROR(IF(C17="盈利收益率",POWER(L17/J17,I17),POWER(J17/L17,I17)),0)</f>
-        <v>1.2200650267546707</v>
-      </c>
-      <c r="N17" s="46">
-        <f t="shared" si="6"/>
-        <v>488</v>
-      </c>
-      <c r="O17" s="73">
-        <v>488</v>
-      </c>
-      <c r="P17" s="51">
-        <f>O17-N17</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="56">
-        <v>43244</v>
-      </c>
-      <c r="S17" s="6">
-        <v>13.61</v>
-      </c>
-      <c r="T17" s="6">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="U17" s="6">
-        <v>9.82</v>
-      </c>
-      <c r="V17" s="6">
-        <v>25.04</v>
-      </c>
-      <c r="W17" s="6">
-        <v>25.92</v>
-      </c>
-      <c r="X17" s="6">
-        <v>11.17</v>
-      </c>
-      <c r="Y17"/>
-    </row>
-    <row r="18" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="43">
-        <v>33</v>
-      </c>
-      <c r="E18" s="43">
-        <v>40</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>87</v>
       </c>
       <c r="H18" s="44">
         <v>400</v>
@@ -5084,602 +6595,1148 @@
       <c r="I18" s="36">
         <v>2</v>
       </c>
-      <c r="J18" s="47">
-        <v>31</v>
-      </c>
-      <c r="K18" s="71">
+      <c r="J18" s="36">
+        <v>10</v>
+      </c>
+      <c r="K18" s="70">
         <v>43238</v>
       </c>
-      <c r="L18" s="72">
-        <v>25.74</v>
-      </c>
-      <c r="M18" s="45">
-        <f t="shared" ref="M18:M19" si="10">IFERROR(IF(C18="盈利收益率",POWER(L18/J18,I18),POWER(J18/L18,I18)),0)</f>
-        <v>1.4504618234221964</v>
-      </c>
-      <c r="N18" s="46">
-        <f t="shared" si="6"/>
-        <v>580</v>
-      </c>
-      <c r="O18" s="73">
-        <v>580</v>
-      </c>
-      <c r="P18" s="51">
-        <f t="shared" ref="P18:P19" si="11">O18-N18</f>
-        <v>0</v>
-      </c>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-    </row>
-    <row r="19" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L18" s="71">
+        <v>11.15</v>
+      </c>
+      <c r="M18" s="71">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="N18" s="71">
+        <v>1.07</v>
+      </c>
+      <c r="O18" s="71">
+        <v>3.66</v>
+      </c>
+      <c r="P18" s="71">
+        <v>11.96</v>
+      </c>
+      <c r="Q18" s="45">
+        <f t="shared" si="2"/>
+        <v>11.15</v>
+      </c>
+      <c r="R18" s="45">
+        <f t="shared" si="0"/>
+        <v>1.243225</v>
+      </c>
+      <c r="S18" s="46">
+        <f t="shared" si="1"/>
+        <v>497</v>
+      </c>
+      <c r="T18" s="72">
+        <v>500</v>
+      </c>
+      <c r="U18" s="51">
+        <f>T18-S18</f>
+        <v>3</v>
+      </c>
+      <c r="AA18"/>
+    </row>
+    <row r="19" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="41" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D19" s="43">
-        <v>33</v>
-      </c>
-      <c r="E19" s="43">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="H19" s="44">
-        <v>400</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="H19" s="44"/>
       <c r="I19" s="36">
         <v>2</v>
       </c>
-      <c r="J19" s="47">
+      <c r="J19" s="43">
+        <v>10</v>
+      </c>
+      <c r="K19" s="70">
+        <v>43238</v>
+      </c>
+      <c r="L19" s="71">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="M19" s="71">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="N19" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="O19" s="71">
+        <v>2.99</v>
+      </c>
+      <c r="P19" s="71">
+        <v>11.92</v>
+      </c>
+      <c r="Q19" s="45">
+        <f t="shared" si="2"/>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="R19" s="45">
+        <f>IFERROR(IF(C19="盈利收益率",POWER(Q19/J19,I19),POWER(J19/Q19,I19)),0)</f>
+        <v>0.99201600000000023</v>
+      </c>
+      <c r="S19" s="46">
+        <f>IF(R19&gt;1,INT(H19*R19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="72"/>
+      <c r="U19" s="51">
+        <f>T19-S19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="43">
+        <v>13</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="44">
+        <v>400</v>
+      </c>
+      <c r="I20" s="36">
+        <v>2</v>
+      </c>
+      <c r="J20" s="43">
+        <v>13</v>
+      </c>
+      <c r="K20" s="70">
+        <v>43238</v>
+      </c>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="N20" s="71">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="O20" s="71">
+        <v>3.1</v>
+      </c>
+      <c r="P20" s="71">
+        <v>11.77</v>
+      </c>
+      <c r="Q20" s="45">
+        <f t="shared" si="2"/>
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="R20" s="45">
+        <f t="shared" si="0"/>
+        <v>1.7348119268833231</v>
+      </c>
+      <c r="S20" s="46">
+        <f t="shared" si="1"/>
+        <v>693</v>
+      </c>
+      <c r="T20" s="72">
+        <v>693</v>
+      </c>
+      <c r="U20" s="51">
+        <f t="shared" ref="U20:U21" si="7">T20-S20</f>
+        <v>0</v>
+      </c>
+      <c r="AA20"/>
+    </row>
+    <row r="21" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="43">
+        <v>24</v>
+      </c>
+      <c r="E21" s="43">
+        <v>29</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="44">
+        <v>400</v>
+      </c>
+      <c r="I21" s="36">
+        <v>2</v>
+      </c>
+      <c r="J21" s="43">
+        <v>24</v>
+      </c>
+      <c r="K21" s="70">
+        <v>43238</v>
+      </c>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71">
+        <v>17.66</v>
+      </c>
+      <c r="N21" s="71">
+        <v>2.21</v>
+      </c>
+      <c r="O21" s="71">
+        <v>1.85</v>
+      </c>
+      <c r="P21" s="71">
+        <v>12.53</v>
+      </c>
+      <c r="Q21" s="45">
+        <f t="shared" si="2"/>
+        <v>17.66</v>
+      </c>
+      <c r="R21" s="45">
+        <f t="shared" si="0"/>
+        <v>1.8468902344396294</v>
+      </c>
+      <c r="S21" s="46">
+        <f t="shared" si="1"/>
+        <v>738</v>
+      </c>
+      <c r="T21" s="72">
+        <v>738</v>
+      </c>
+      <c r="U21" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA21"/>
+    </row>
+    <row r="22" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="43">
+        <v>15</v>
+      </c>
+      <c r="E22" s="43">
+        <v>25</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="44">
+        <v>400</v>
+      </c>
+      <c r="I22" s="36">
+        <v>2</v>
+      </c>
+      <c r="J22" s="43">
+        <v>15</v>
+      </c>
+      <c r="K22" s="70">
+        <v>43238</v>
+      </c>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71">
+        <v>13.58</v>
+      </c>
+      <c r="N22" s="71">
+        <v>1.82</v>
+      </c>
+      <c r="O22" s="71">
+        <v>3.36</v>
+      </c>
+      <c r="P22" s="71">
+        <v>13.4</v>
+      </c>
+      <c r="Q22" s="45">
+        <f t="shared" si="2"/>
+        <v>13.58</v>
+      </c>
+      <c r="R22" s="45">
+        <f t="shared" si="0"/>
+        <v>1.2200650267546707</v>
+      </c>
+      <c r="S22" s="46">
+        <f t="shared" si="1"/>
+        <v>488</v>
+      </c>
+      <c r="T22" s="72">
+        <v>488</v>
+      </c>
+      <c r="U22" s="51">
+        <f>T22-S22</f>
+        <v>0</v>
+      </c>
+      <c r="AA22"/>
+    </row>
+    <row r="23" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="43">
+        <v>33</v>
+      </c>
+      <c r="E23" s="43">
+        <v>40</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="44">
+        <v>400</v>
+      </c>
+      <c r="I23" s="36">
+        <v>2</v>
+      </c>
+      <c r="J23" s="47">
         <v>31</v>
       </c>
-      <c r="K19" s="71">
+      <c r="K23" s="70">
         <v>43238</v>
       </c>
-      <c r="L19" s="72">
-        <v>24.81</v>
-      </c>
-      <c r="M19" s="45">
-        <f t="shared" si="10"/>
-        <v>1.5612406810908412</v>
-      </c>
-      <c r="N19" s="46">
-        <f t="shared" si="6"/>
-        <v>624</v>
-      </c>
-      <c r="O19" s="73">
-        <v>624</v>
-      </c>
-      <c r="P19" s="51">
-        <f t="shared" si="11"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71">
+        <v>25.74</v>
+      </c>
+      <c r="N23" s="71">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71">
+        <v>8.93</v>
+      </c>
+      <c r="Q23" s="45">
+        <f t="shared" si="2"/>
+        <v>25.74</v>
+      </c>
+      <c r="R23" s="45">
+        <f t="shared" si="0"/>
+        <v>1.4504618234221964</v>
+      </c>
+      <c r="S23" s="46">
+        <f t="shared" si="1"/>
+        <v>580</v>
+      </c>
+      <c r="T23" s="72">
+        <v>580</v>
+      </c>
+      <c r="U23" s="51">
+        <f t="shared" ref="U23:U25" si="8">T23-S23</f>
         <v>0</v>
       </c>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-    </row>
-    <row r="20" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="61">
-        <v>10</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="62">
-        <v>400</v>
-      </c>
-      <c r="I20" s="63">
-        <v>2</v>
-      </c>
-      <c r="J20" s="63">
-        <v>10</v>
-      </c>
-      <c r="K20" s="68">
-        <v>43244</v>
-      </c>
-      <c r="L20" s="69">
-        <v>11.17</v>
-      </c>
-      <c r="M20" s="65">
-        <f>IFERROR(IF(C20="盈利收益率",POWER(L20/J20,I20),POWER(J20/L20,I20)),0)</f>
-        <v>1.247689</v>
-      </c>
-      <c r="N20" s="66">
-        <f t="shared" ref="N20:N25" si="12">INT(H20*M20)</f>
-        <v>499</v>
-      </c>
-      <c r="O20" s="70"/>
-      <c r="P20" s="67">
-        <f>O20-N20</f>
-        <v>-499</v>
-      </c>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-    </row>
-    <row r="21" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="61">
-        <v>13</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="H21" s="62">
-        <v>400</v>
-      </c>
-      <c r="I21" s="63">
-        <v>2</v>
-      </c>
-      <c r="J21" s="61">
-        <v>13</v>
-      </c>
-      <c r="K21" s="68">
-        <v>43244</v>
-      </c>
-      <c r="L21" s="69">
-        <v>9.82</v>
-      </c>
-      <c r="M21" s="65">
-        <f t="shared" ref="M21:M22" si="13">IFERROR(IF(C21="盈利收益率",POWER(L21/J21,I21),POWER(J21/L21,I21)),0)</f>
-        <v>1.7525230109382322</v>
-      </c>
-      <c r="N21" s="66">
-        <f t="shared" si="12"/>
-        <v>701</v>
-      </c>
-      <c r="O21" s="70"/>
-      <c r="P21" s="67">
-        <f t="shared" ref="P21:P22" si="14">O21-N21</f>
-        <v>-701</v>
-      </c>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-    </row>
-    <row r="22" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="61">
-        <v>24</v>
-      </c>
-      <c r="E22" s="61">
-        <v>29</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="62">
-        <v>400</v>
-      </c>
-      <c r="I22" s="63">
-        <v>2</v>
-      </c>
-      <c r="J22" s="61">
-        <v>24</v>
-      </c>
-      <c r="K22" s="68">
-        <v>43244</v>
-      </c>
-      <c r="L22" s="69">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="M22" s="65">
-        <f t="shared" si="13"/>
-        <v>1.8679853259374957</v>
-      </c>
-      <c r="N22" s="66">
-        <f t="shared" si="12"/>
-        <v>747</v>
-      </c>
-      <c r="O22" s="70"/>
-      <c r="P22" s="67">
-        <f t="shared" si="14"/>
-        <v>-747</v>
-      </c>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-    </row>
-    <row r="23" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="61">
-        <v>15</v>
-      </c>
-      <c r="E23" s="61">
-        <v>25</v>
-      </c>
-      <c r="F23" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="62">
-        <v>400</v>
-      </c>
-      <c r="I23" s="63">
-        <v>2</v>
-      </c>
-      <c r="J23" s="61">
-        <v>15</v>
-      </c>
-      <c r="K23" s="68">
-        <v>43244</v>
-      </c>
-      <c r="L23" s="69">
-        <v>13.61</v>
-      </c>
-      <c r="M23" s="65">
-        <f>IFERROR(IF(C23="盈利收益率",POWER(L23/J23,I23),POWER(J23/L23,I23)),0)</f>
-        <v>1.2146922698603539</v>
-      </c>
-      <c r="N23" s="66">
-        <f t="shared" si="12"/>
-        <v>485</v>
-      </c>
-      <c r="O23" s="70"/>
-      <c r="P23" s="67">
-        <f>O23-N23</f>
-        <v>-485</v>
-      </c>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
       <c r="W23"/>
       <c r="X23"/>
-    </row>
-    <row r="24" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="60" t="s">
+      <c r="Y23"/>
+      <c r="Z23"/>
+    </row>
+    <row r="24" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="43">
         <v>33</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="43">
         <v>40</v>
       </c>
-      <c r="F24" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="62">
+      <c r="F24" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="44">
         <v>400</v>
       </c>
-      <c r="I24" s="63">
+      <c r="I24" s="36">
         <v>2</v>
       </c>
-      <c r="J24" s="64">
+      <c r="J24" s="47">
         <v>31</v>
       </c>
-      <c r="K24" s="68">
-        <v>43244</v>
-      </c>
-      <c r="L24" s="69">
-        <v>25.92</v>
-      </c>
-      <c r="M24" s="65">
-        <f t="shared" ref="M24:M25" si="15">IFERROR(IF(C24="盈利收益率",POWER(L24/J24,I24),POWER(J24/L24,I24)),0)</f>
-        <v>1.430386469288218</v>
-      </c>
-      <c r="N24" s="66">
-        <f t="shared" si="12"/>
-        <v>572</v>
-      </c>
-      <c r="O24" s="70"/>
-      <c r="P24" s="67">
-        <f t="shared" ref="P24:P25" si="16">O24-N24</f>
-        <v>-572</v>
-      </c>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
+      <c r="K24" s="70">
+        <v>43238</v>
+      </c>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71">
+        <v>24.81</v>
+      </c>
+      <c r="N24" s="71">
+        <v>1.91</v>
+      </c>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71">
+        <v>7.7</v>
+      </c>
+      <c r="Q24" s="45">
+        <f t="shared" si="2"/>
+        <v>24.81</v>
+      </c>
+      <c r="R24" s="45">
+        <f t="shared" si="0"/>
+        <v>1.5612406810908412</v>
+      </c>
+      <c r="S24" s="46">
+        <f t="shared" si="1"/>
+        <v>624</v>
+      </c>
+      <c r="T24" s="72">
+        <v>624</v>
+      </c>
+      <c r="U24" s="51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="W24"/>
       <c r="X24"/>
-    </row>
-    <row r="25" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="60" t="s">
+      <c r="Y24"/>
+      <c r="Z24"/>
+    </row>
+    <row r="25" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="43">
+        <v>24</v>
+      </c>
+      <c r="E25" s="43">
         <v>33</v>
       </c>
-      <c r="E25" s="61">
-        <v>40</v>
-      </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="H25" s="44"/>
+      <c r="I25" s="36">
+        <v>2</v>
+      </c>
+      <c r="J25" s="43">
+        <v>24</v>
+      </c>
+      <c r="K25" s="70">
+        <v>43238</v>
+      </c>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71">
+        <v>22.53</v>
+      </c>
+      <c r="N25" s="71">
+        <v>3.08</v>
+      </c>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71">
+        <v>13.66</v>
+      </c>
+      <c r="Q25" s="45">
+        <f t="shared" si="2"/>
+        <v>22.53</v>
+      </c>
+      <c r="R25" s="45">
+        <f t="shared" si="0"/>
+        <v>1.1347497610819837</v>
+      </c>
+      <c r="S25" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="72"/>
+      <c r="U25" s="51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="60">
+        <v>10</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="62">
+      <c r="G26" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="61">
         <v>400</v>
       </c>
-      <c r="I25" s="63">
+      <c r="I26" s="62">
         <v>2</v>
       </c>
-      <c r="J25" s="64">
-        <v>31</v>
-      </c>
-      <c r="K25" s="68">
+      <c r="J26" s="62">
+        <v>10</v>
+      </c>
+      <c r="K26" s="67">
         <v>43244</v>
       </c>
-      <c r="L25" s="69">
-        <v>25.04</v>
-      </c>
-      <c r="M25" s="65">
-        <f t="shared" si="15"/>
-        <v>1.5326914636262494</v>
-      </c>
-      <c r="N25" s="66">
-        <f t="shared" si="12"/>
-        <v>613</v>
-      </c>
-      <c r="O25" s="70"/>
-      <c r="P25" s="67">
-        <f t="shared" si="16"/>
-        <v>-613</v>
-      </c>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-    </row>
-    <row r="26" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="49"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
+      <c r="L26" s="68">
+        <v>11.17</v>
+      </c>
+      <c r="M26" s="68">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="N26" s="68">
+        <v>1.07</v>
+      </c>
+      <c r="O26" s="68">
+        <v>3.68</v>
+      </c>
+      <c r="P26" s="68">
+        <v>11.9</v>
+      </c>
+      <c r="Q26" s="64">
+        <f t="shared" si="2"/>
+        <v>11.17</v>
+      </c>
+      <c r="R26" s="64">
+        <f t="shared" si="0"/>
+        <v>1.247689</v>
+      </c>
+      <c r="S26" s="65">
+        <f t="shared" si="1"/>
+        <v>499</v>
+      </c>
+      <c r="T26" s="69">
+        <v>499</v>
+      </c>
+      <c r="U26" s="66">
+        <f>T26-S26</f>
+        <v>0</v>
+      </c>
       <c r="W26"/>
       <c r="X26"/>
-    </row>
-    <row r="27" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="49"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+    </row>
+    <row r="27" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="60">
+        <v>10</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62">
+        <v>2</v>
+      </c>
+      <c r="J27" s="60">
+        <v>10</v>
+      </c>
+      <c r="K27" s="67">
+        <v>43244</v>
+      </c>
+      <c r="L27" s="68">
+        <v>9.99</v>
+      </c>
+      <c r="M27" s="68">
+        <v>10.01</v>
+      </c>
+      <c r="N27" s="68">
+        <v>1.19</v>
+      </c>
+      <c r="O27" s="68">
+        <v>3</v>
+      </c>
+      <c r="P27" s="68">
+        <v>11.92</v>
+      </c>
+      <c r="Q27" s="64">
+        <f t="shared" si="2"/>
+        <v>9.99</v>
+      </c>
+      <c r="R27" s="64">
+        <f>IFERROR(IF(C27="盈利收益率",POWER(Q27/J27,I27),POWER(J27/Q27,I27)),0)</f>
+        <v>0.99800100000000003</v>
+      </c>
+      <c r="S27" s="65">
+        <f>IF(R27&gt;1,INT(H27*R27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="69"/>
+      <c r="U27" s="66">
+        <f>T27-S27</f>
+        <v>0</v>
+      </c>
       <c r="X27"/>
-    </row>
-    <row r="28" spans="1:25" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="49"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+    </row>
+    <row r="28" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="60">
+        <v>24</v>
+      </c>
+      <c r="E28" s="60">
+        <v>29</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="61">
+        <v>400</v>
+      </c>
+      <c r="I28" s="62">
+        <v>2</v>
+      </c>
+      <c r="J28" s="60">
+        <v>24</v>
+      </c>
+      <c r="K28" s="67">
+        <v>43244</v>
+      </c>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="N28" s="68">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O28" s="68">
+        <v>1.86</v>
+      </c>
+      <c r="P28" s="68">
+        <v>12.53</v>
+      </c>
+      <c r="Q28" s="64">
+        <f t="shared" si="2"/>
+        <v>17.559999999999999</v>
+      </c>
+      <c r="R28" s="64">
+        <f>IFERROR(IF(C28="盈利收益率",POWER(Q28/J28,I28),POWER(J28/Q28,I28)),0)</f>
+        <v>1.8679853259374957</v>
+      </c>
+      <c r="S28" s="65">
+        <f>IF(R28&gt;1,INT(H28*R28),0)</f>
+        <v>747</v>
+      </c>
+      <c r="T28" s="69">
+        <v>747</v>
+      </c>
+      <c r="U28" s="66">
+        <f>T28-S28</f>
+        <v>0</v>
+      </c>
       <c r="W28"/>
       <c r="X28"/>
-    </row>
-    <row r="29" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+    </row>
+    <row r="29" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="60">
+        <v>13</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="61">
+        <v>400</v>
+      </c>
+      <c r="I29" s="62">
+        <v>2</v>
+      </c>
+      <c r="J29" s="60">
+        <v>13</v>
+      </c>
+      <c r="K29" s="67">
+        <v>43244</v>
+      </c>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68">
+        <v>9.82</v>
+      </c>
+      <c r="N29" s="68">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="O29" s="68">
+        <v>3.11</v>
+      </c>
+      <c r="P29" s="68">
+        <v>11.77</v>
+      </c>
+      <c r="Q29" s="64">
+        <f t="shared" si="2"/>
+        <v>9.82</v>
+      </c>
+      <c r="R29" s="64">
+        <f t="shared" si="0"/>
+        <v>1.7525230109382322</v>
+      </c>
+      <c r="S29" s="65">
+        <f t="shared" si="1"/>
+        <v>701</v>
+      </c>
+      <c r="T29" s="69">
+        <v>701</v>
+      </c>
+      <c r="U29" s="66">
+        <f t="shared" ref="U29" si="9">T29-S29</f>
+        <v>0</v>
+      </c>
       <c r="W29"/>
       <c r="X29"/>
-    </row>
-    <row r="30" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+    </row>
+    <row r="30" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="60">
+        <v>15</v>
+      </c>
+      <c r="E30" s="60">
+        <v>25</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="61">
+        <v>400</v>
+      </c>
+      <c r="I30" s="62">
+        <v>2</v>
+      </c>
+      <c r="J30" s="60">
+        <v>15</v>
+      </c>
+      <c r="K30" s="67">
+        <v>43244</v>
+      </c>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68">
+        <v>13.61</v>
+      </c>
+      <c r="N30" s="68">
+        <v>1.82</v>
+      </c>
+      <c r="O30" s="68">
+        <v>3.35</v>
+      </c>
+      <c r="P30" s="68">
+        <v>13.37</v>
+      </c>
+      <c r="Q30" s="64">
+        <f t="shared" si="2"/>
+        <v>13.61</v>
+      </c>
+      <c r="R30" s="64">
+        <f t="shared" si="0"/>
+        <v>1.2146922698603539</v>
+      </c>
+      <c r="S30" s="65">
+        <f t="shared" si="1"/>
+        <v>485</v>
+      </c>
+      <c r="T30" s="69">
+        <v>485</v>
+      </c>
+      <c r="U30" s="66">
+        <f>T30-S30</f>
+        <v>0</v>
+      </c>
       <c r="W30"/>
       <c r="X30"/>
-    </row>
-    <row r="31" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+    </row>
+    <row r="31" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="60">
+        <v>33</v>
+      </c>
+      <c r="E31" s="60">
+        <v>40</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="61">
+        <v>400</v>
+      </c>
+      <c r="I31" s="62">
+        <v>2</v>
+      </c>
+      <c r="J31" s="63">
+        <v>31</v>
+      </c>
+      <c r="K31" s="67">
+        <v>43244</v>
+      </c>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68">
+        <v>25.92</v>
+      </c>
+      <c r="N31" s="68">
+        <v>2.31</v>
+      </c>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68">
+        <v>8.93</v>
+      </c>
+      <c r="Q31" s="64">
+        <f t="shared" si="2"/>
+        <v>25.92</v>
+      </c>
+      <c r="R31" s="64">
+        <f t="shared" si="0"/>
+        <v>1.430386469288218</v>
+      </c>
+      <c r="S31" s="65">
+        <f t="shared" si="1"/>
+        <v>572</v>
+      </c>
+      <c r="T31" s="69">
+        <v>572</v>
+      </c>
+      <c r="U31" s="66">
+        <f t="shared" ref="U31:U33" si="10">T31-S31</f>
+        <v>0</v>
+      </c>
       <c r="W31"/>
       <c r="X31"/>
-    </row>
-    <row r="32" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+    </row>
+    <row r="32" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="60">
+        <v>33</v>
+      </c>
+      <c r="E32" s="60">
+        <v>40</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="61">
+        <v>400</v>
+      </c>
+      <c r="I32" s="62">
+        <v>2</v>
+      </c>
+      <c r="J32" s="63">
+        <v>31</v>
+      </c>
+      <c r="K32" s="67">
+        <v>43244</v>
+      </c>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68">
+        <v>25.04</v>
+      </c>
+      <c r="N32" s="68">
+        <v>1.93</v>
+      </c>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68">
+        <v>7.7</v>
+      </c>
+      <c r="Q32" s="64">
+        <f t="shared" si="2"/>
+        <v>25.04</v>
+      </c>
+      <c r="R32" s="64">
+        <f t="shared" si="0"/>
+        <v>1.5326914636262494</v>
+      </c>
+      <c r="S32" s="65">
+        <f t="shared" si="1"/>
+        <v>613</v>
+      </c>
+      <c r="T32" s="69">
+        <v>613</v>
+      </c>
+      <c r="U32" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="W32"/>
       <c r="X32"/>
-    </row>
-    <row r="33" spans="18:24" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+    </row>
+    <row r="33" spans="1:26" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="60">
+        <v>24</v>
+      </c>
+      <c r="E33" s="60">
+        <v>33</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62">
+        <v>2</v>
+      </c>
+      <c r="J33" s="60">
+        <v>24</v>
+      </c>
+      <c r="K33" s="67">
+        <v>43244</v>
+      </c>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68">
+        <v>22.79</v>
+      </c>
+      <c r="N33" s="68">
+        <v>3.11</v>
+      </c>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68">
+        <v>13.66</v>
+      </c>
+      <c r="Q33" s="64">
+        <f t="shared" si="2"/>
+        <v>22.79</v>
+      </c>
+      <c r="R33" s="64">
+        <f t="shared" si="0"/>
+        <v>1.1090058398014111</v>
+      </c>
+      <c r="S33" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="69"/>
+      <c r="U33" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="W33"/>
       <c r="X33"/>
-    </row>
-    <row r="34" spans="18:24" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+    </row>
+    <row r="34" spans="1:26" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="49"/>
       <c r="W34"/>
       <c r="X34"/>
-    </row>
-    <row r="35" spans="18:24" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="R35"/>
-      <c r="S35"/>
-    </row>
-    <row r="36" spans="18:24" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="R36"/>
-      <c r="S36"/>
-    </row>
-    <row r="37" spans="18:24" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="R37"/>
-      <c r="S37"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+    </row>
+    <row r="35" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+    </row>
+    <row r="36" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+    </row>
+    <row r="37" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+    </row>
+    <row r="38" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+    </row>
+    <row r="39" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+    </row>
+    <row r="40" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="F13:G13 A12:A13 F12 G9:G10 G12 G8 G11 F9:F10 A9:A10 A8:F8 A11:F11 B9:E10" numberStoredAsText="1"/>
+    <ignoredError sqref="F16:G16 A15:A16 F15 G12:G13 G15 G10 G14 F12:F13 A12:A13 A10:F10 A14:F14 B12:E13" numberStoredAsText="1"/>
   </ignoredErrors>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6117,12 +8174,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21600" windowHeight="7545" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21600" windowHeight="7545" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="统计" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <calcPr calcId="145621" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="5" r:id="rId5"/>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="17" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="208">
   <si>
     <t>基金</t>
     <rPh sb="0" eb="1">
@@ -1940,7 +1940,27 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <sz val="10"/>
@@ -2087,181 +2107,51 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="19"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="20"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr/>
-          <c:txPr>
-            <a:bodyPr/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="21"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr/>
-          <c:txPr>
-            <a:bodyPr/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="22"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr/>
-          <c:txPr>
-            <a:bodyPr/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="23"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr/>
-          <c:txPr>
-            <a:bodyPr/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="24"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr/>
-          <c:txPr>
-            <a:bodyPr/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="25"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr/>
-          <c:txPr>
-            <a:bodyPr/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="26"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr/>
-          <c:txPr>
-            <a:bodyPr/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="27"/>
@@ -2307,14 +2197,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>统计!$A$34:$A$37</c:f>
+              <c:f>统计!$A$34:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2018/05/04</c:v>
                 </c:pt>
@@ -2327,15 +2217,18 @@
                 <c:pt idx="3">
                   <c:v>2018/05/24</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018/05/25</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>统计!$B$34:$B$37</c:f>
+              <c:f>统计!$B$34:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>13.3</c:v>
                 </c:pt>
@@ -2347,6 +2240,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2367,32 +2263,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>统计!$A$34:$A$37</c:f>
+              <c:f>统计!$A$34:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2018/05/04</c:v>
                 </c:pt>
@@ -2405,15 +2283,18 @@
                 <c:pt idx="3">
                   <c:v>2018/05/24</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018/05/25</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>统计!$C$34:$C$37</c:f>
+              <c:f>统计!$C$34:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>17.23</c:v>
                 </c:pt>
@@ -2424,6 +2305,9 @@
                   <c:v>17.66</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>17.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>17.559999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2445,32 +2329,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>统计!$A$34:$A$37</c:f>
+              <c:f>统计!$A$34:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2018/05/04</c:v>
                 </c:pt>
@@ -2483,15 +2349,18 @@
                 <c:pt idx="3">
                   <c:v>2018/05/24</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018/05/25</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>统计!$D$34:$D$37</c:f>
+              <c:f>统计!$D$34:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9.74</c:v>
                 </c:pt>
@@ -2503,6 +2372,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7899999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2523,32 +2395,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>统计!$A$34:$A$37</c:f>
+              <c:f>统计!$A$34:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2018/05/04</c:v>
                 </c:pt>
@@ -2561,15 +2415,18 @@
                 <c:pt idx="3">
                   <c:v>2018/05/24</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018/05/25</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>统计!$E$34:$E$37</c:f>
+              <c:f>统计!$E$34:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>24.25</c:v>
                 </c:pt>
@@ -2581,6 +2438,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2601,32 +2461,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>统计!$A$34:$A$37</c:f>
+              <c:f>统计!$A$34:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2018/05/04</c:v>
                 </c:pt>
@@ -2639,15 +2481,18 @@
                 <c:pt idx="3">
                   <c:v>2018/05/24</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018/05/25</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>统计!$F$34:$F$37</c:f>
+              <c:f>统计!$F$34:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>25.38</c:v>
                 </c:pt>
@@ -2659,6 +2504,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2679,32 +2527,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>统计!$A$34:$A$37</c:f>
+              <c:f>统计!$A$34:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2018/05/04</c:v>
                 </c:pt>
@@ -2717,15 +2547,18 @@
                 <c:pt idx="3">
                   <c:v>2018/05/24</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018/05/25</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>统计!$G$34:$G$37</c:f>
+              <c:f>统计!$G$34:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>11.28</c:v>
                 </c:pt>
@@ -2737,6 +2570,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2757,32 +2593,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>统计!$A$34:$A$37</c:f>
+              <c:f>统计!$A$34:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2018/05/04</c:v>
                 </c:pt>
@@ -2795,15 +2613,18 @@
                 <c:pt idx="3">
                   <c:v>2018/05/24</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018/05/25</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>统计!$H$34:$H$37</c:f>
+              <c:f>统计!$H$34:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>10.1</c:v>
                 </c:pt>
@@ -2815,6 +2636,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2835,32 +2659,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>统计!$A$34:$A$37</c:f>
+              <c:f>统计!$A$34:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2018/05/04</c:v>
                 </c:pt>
@@ -2873,15 +2679,18 @@
                 <c:pt idx="3">
                   <c:v>2018/05/24</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018/05/25</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>统计!$I$34:$I$37</c:f>
+              <c:f>统计!$I$34:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>21.79</c:v>
                 </c:pt>
@@ -2894,15 +2703,17 @@
                 <c:pt idx="3">
                   <c:v>22.79</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.65</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2910,11 +2721,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97996800"/>
-        <c:axId val="97998336"/>
+        <c:axId val="99331072"/>
+        <c:axId val="99336960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97996800"/>
+        <c:axId val="99331072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2924,7 +2735,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97998336"/>
+        <c:crossAx val="99336960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2932,7 +2743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97998336"/>
+        <c:axId val="99336960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5"/>
@@ -2943,7 +2754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97996800"/>
+        <c:crossAx val="99331072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2983,8 +2794,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -3011,7 +2822,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43244.511157175926" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43244.911437615738" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G11" sheet="计划"/>
   </cacheSource>
@@ -3066,7 +2877,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="YuanXing" refreshedDate="43244.561106597219" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="40">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="YuanXing" refreshedDate="43244.912606597223" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="41">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:U2006" sheet="记录"/>
   </cacheSource>
@@ -3112,11 +2923,12 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="31"/>
     </cacheField>
     <cacheField name="定投日期" numFmtId="180">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2018-05-04T00:00:00" maxDate="2018-05-25T00:00:00" count="5">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2018-05-04T00:00:00" maxDate="2018-05-26T00:00:00" count="6">
         <d v="2018-05-04T00:00:00"/>
         <d v="2018-05-11T00:00:00"/>
         <d v="2018-05-18T00:00:00"/>
         <d v="2018-05-24T00:00:00"/>
+        <d v="2018-05-25T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3148,7 +2960,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="400" maxValue="747"/>
     </cacheField>
     <cacheField name="差额" numFmtId="178">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-266" maxValue="3"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-747" maxValue="3"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3255,7 +3067,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="40">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="41">
   <r>
     <s v="399922"/>
     <x v="0"/>
@@ -3993,167 +3805,190 @@
     <n v="0"/>
   </r>
   <r>
-    <m/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="399922"/>
+    <x v="0"/>
+    <s v="盈利收益率"/>
+    <n v="10"/>
+    <s v="国债利率*2"/>
+    <s v="*"/>
+    <s v="100032"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="10"/>
     <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="11.23"/>
+    <n v="8.9"/>
+    <n v="1.06"/>
+    <n v="3.7"/>
+    <n v="11.9"/>
+    <n v="11.23"/>
+    <n v="1.2611289999999999"/>
+    <n v="504"/>
+    <m/>
+    <n v="-504"/>
   </r>
   <r>
-    <m/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="000925"/>
+    <x v="1"/>
+    <s v="盈利收益率"/>
+    <n v="10"/>
+    <s v="国债利率*2"/>
+    <s v="*"/>
+    <s v="160716"/>
+    <m/>
+    <n v="2"/>
+    <n v="10"/>
     <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="10.02"/>
+    <n v="9.98"/>
+    <n v="1.19"/>
+    <n v="3.01"/>
+    <n v="11.92"/>
+    <n v="10.02"/>
+    <n v="1.0040039999999999"/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
-    <m/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="399919"/>
+    <x v="2"/>
+    <s v="市盈率"/>
+    <n v="13"/>
+    <s v="17(市净率2)"/>
+    <m/>
+    <s v="310398"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="13"/>
     <x v="4"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="9.7899999999999991"/>
+    <n v="1.1499999999999999"/>
+    <n v="3.13"/>
+    <n v="11.77"/>
+    <n v="9.7899999999999991"/>
+    <n v="1.7632801601767876"/>
+    <n v="705"/>
+    <m/>
+    <n v="-705"/>
   </r>
   <r>
-    <m/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="399701"/>
+    <x v="3"/>
+    <s v="市盈率"/>
+    <n v="24"/>
+    <n v="29"/>
+    <s v="159916"/>
+    <s v="530015"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="24"/>
     <x v="4"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="17.559999999999999"/>
+    <n v="2.2000000000000002"/>
+    <n v="1.86"/>
+    <n v="12.53"/>
+    <n v="17.559999999999999"/>
+    <n v="1.8679853259374957"/>
+    <n v="747"/>
+    <m/>
+    <n v="-747"/>
   </r>
   <r>
-    <m/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="CSPSADRP"/>
     <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="市盈率"/>
+    <n v="15"/>
+    <n v="25"/>
+    <s v="501029"/>
+    <s v="501029"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="15"/>
+    <x v="4"/>
+    <m/>
+    <n v="13.55"/>
+    <n v="1.81"/>
+    <n v="3.36"/>
+    <n v="13.36"/>
+    <n v="13.55"/>
+    <n v="1.2254735093476394"/>
+    <n v="490"/>
+    <m/>
+    <n v="-490"/>
   </r>
   <r>
-    <m/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="399905"/>
+    <x v="5"/>
+    <s v="市盈率"/>
+    <n v="33"/>
+    <n v="40"/>
+    <s v="161017"/>
+    <s v="000478"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="31"/>
     <x v="4"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="25.9"/>
+    <n v="2.31"/>
+    <m/>
+    <n v="8.93"/>
+    <n v="25.9"/>
+    <n v="1.4325964132913942"/>
+    <n v="573"/>
+    <m/>
+    <n v="-573"/>
   </r>
   <r>
-    <m/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="003318"/>
+    <x v="6"/>
+    <s v="市盈率"/>
+    <n v="33"/>
+    <n v="40"/>
+    <s v="*"/>
+    <s v="003318"/>
+    <n v="400"/>
+    <n v="2"/>
+    <n v="31"/>
     <x v="4"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="25"/>
+    <n v="1.95"/>
+    <m/>
+    <n v="7.8"/>
+    <n v="25"/>
+    <n v="1.5376000000000001"/>
+    <n v="615"/>
+    <m/>
+    <n v="-615"/>
   </r>
   <r>
+    <s v="399812"/>
+    <x v="7"/>
+    <s v="市盈率"/>
+    <n v="24"/>
+    <n v="33"/>
+    <s v="*"/>
+    <s v="000968"/>
+    <m/>
+    <n v="2"/>
+    <n v="24"/>
+    <x v="4"/>
+    <m/>
+    <n v="22.65"/>
+    <n v="3.09"/>
+    <m/>
+    <n v="13.66"/>
+    <n v="22.65"/>
+    <n v="1.1227577737818519"/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
     <m/>
     <x v="8"/>
     <m/>
@@ -4164,7 +3999,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -4180,8 +4015,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M1:P7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M1:P8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -4193,13 +4028,14 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="180" showAll="0" defaultSubtotal="0">
-      <items count="5">
+    <pivotField axis="axisRow" numFmtId="180" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="6">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -4216,7 +4052,7 @@
   <rowFields count="1">
     <field x="10"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -4231,6 +4067,9 @@
     </i>
     <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -4256,7 +4095,7 @@
     <dataField name="求和项:差额" fld="20" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="6">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4270,8 +4109,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A32:I37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A32:I38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
@@ -4297,12 +4136,13 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" numFmtId="180" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="5">
+      <items count="6">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -4319,7 +4159,7 @@
   <rowFields count="1">
     <field x="10"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -4331,6 +4171,9 @@
     </i>
     <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -4482,7 +4325,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -4572,7 +4415,7 @@
     <dataField name="求和项:差额" fld="20" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="7">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5015,10 +4858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5030,7 +4873,7 @@
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.25" customWidth="1"/>
     <col min="14" max="14" width="12.375" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="10.5" bestFit="1" customWidth="1"/>
@@ -5067,13 +4910,13 @@
         <v>183</v>
       </c>
       <c r="B2" s="76">
-        <v>1965</v>
+        <v>2455</v>
       </c>
       <c r="C2" s="76">
         <v>4</v>
       </c>
       <c r="D2" s="76">
-        <v>-192</v>
+        <v>-682</v>
       </c>
       <c r="M2" s="78">
         <v>43224</v>
@@ -5093,13 +4936,13 @@
         <v>184</v>
       </c>
       <c r="B3" s="76">
-        <v>2992</v>
+        <v>3739</v>
       </c>
       <c r="C3" s="76">
         <v>4</v>
       </c>
       <c r="D3" s="76">
-        <v>-517</v>
+        <v>-1264</v>
       </c>
       <c r="M3" s="78">
         <v>43231</v>
@@ -5119,13 +4962,13 @@
         <v>185</v>
       </c>
       <c r="B4" s="76">
-        <v>2790</v>
+        <v>3495</v>
       </c>
       <c r="C4" s="76">
         <v>4</v>
       </c>
       <c r="D4" s="76">
-        <v>-406</v>
+        <v>-1111</v>
       </c>
       <c r="M4" s="78">
         <v>43238</v>
@@ -5145,13 +4988,13 @@
         <v>186</v>
       </c>
       <c r="B5" s="76">
-        <v>2509</v>
+        <v>3124</v>
       </c>
       <c r="C5" s="76">
         <v>4</v>
       </c>
       <c r="D5" s="76">
-        <v>-472</v>
+        <v>-1087</v>
       </c>
       <c r="M5" s="78">
         <v>43244</v>
@@ -5171,46 +5014,44 @@
         <v>187</v>
       </c>
       <c r="B6" s="76">
-        <v>2317</v>
+        <v>2890</v>
       </c>
       <c r="C6" s="76">
         <v>4</v>
       </c>
       <c r="D6" s="76">
-        <v>-365</v>
-      </c>
-      <c r="M6" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="N6" s="76"/>
+        <v>-938</v>
+      </c>
+      <c r="M6" s="78">
+        <v>43245</v>
+      </c>
+      <c r="N6" s="76">
+        <v>3634</v>
+      </c>
       <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
+      <c r="P6" s="76">
+        <v>-3634</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="75" t="s">
         <v>188</v>
       </c>
       <c r="B7" s="76">
-        <v>1991</v>
+        <v>2495</v>
       </c>
       <c r="C7" s="76">
         <v>4</v>
       </c>
       <c r="D7" s="76">
-        <v>-2</v>
+        <v>-506</v>
       </c>
       <c r="M7" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="76">
-        <v>14564</v>
-      </c>
-      <c r="O7" s="76">
-        <v>12610</v>
-      </c>
-      <c r="P7" s="76">
-        <v>-1954</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="75" t="s">
@@ -5223,6 +5064,18 @@
       <c r="D8" s="76">
         <v>0</v>
       </c>
+      <c r="M8" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="76">
+        <v>18198</v>
+      </c>
+      <c r="O8" s="76">
+        <v>12610</v>
+      </c>
+      <c r="P8" s="76">
+        <v>-5588</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="75" t="s">
@@ -5241,13 +5094,13 @@
         <v>24</v>
       </c>
       <c r="B10" s="76">
-        <v>14564</v>
+        <v>18198</v>
       </c>
       <c r="C10" s="76">
         <v>24</v>
       </c>
       <c r="D10" s="76">
-        <v>-1954</v>
+        <v>-5588</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -5401,6 +5254,35 @@
       </c>
       <c r="I37" s="79">
         <v>22.79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="55">
+        <v>43245</v>
+      </c>
+      <c r="B38" s="79">
+        <v>13.55</v>
+      </c>
+      <c r="C38" s="79">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="D38" s="79">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="E38" s="79">
+        <v>25</v>
+      </c>
+      <c r="F38" s="79">
+        <v>25.9</v>
+      </c>
+      <c r="G38" s="79">
+        <v>11.23</v>
+      </c>
+      <c r="H38" s="79">
+        <v>10.02</v>
+      </c>
+      <c r="I38" s="79">
+        <v>22.65</v>
       </c>
     </row>
   </sheetData>
@@ -5413,13 +5295,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA40"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W19" sqref="W19"/>
+      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -7593,7 +7475,7 @@
       <c r="Y32"/>
       <c r="Z32"/>
     </row>
-    <row r="33" spans="1:26" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="59" t="s">
         <v>104</v>
       </c>
@@ -7658,68 +7540,529 @@
       <c r="Y33"/>
       <c r="Z33"/>
     </row>
-    <row r="34" spans="1:26" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="49"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-    </row>
-    <row r="35" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-    </row>
-    <row r="36" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-    </row>
-    <row r="37" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-    </row>
-    <row r="38" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-    </row>
-    <row r="39" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="43">
+        <v>10</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="44">
+        <v>400</v>
+      </c>
+      <c r="I34" s="36">
+        <v>2</v>
+      </c>
+      <c r="J34" s="36">
+        <v>10</v>
+      </c>
+      <c r="K34" s="70">
+        <v>43245</v>
+      </c>
+      <c r="L34" s="71">
+        <v>11.23</v>
+      </c>
+      <c r="M34" s="71">
+        <v>8.9</v>
+      </c>
+      <c r="N34" s="71">
+        <v>1.06</v>
+      </c>
+      <c r="O34" s="71">
+        <v>3.7</v>
+      </c>
+      <c r="P34" s="71">
+        <v>11.9</v>
+      </c>
+      <c r="Q34" s="45">
+        <f t="shared" ref="Q34:Q41" si="11">IF(C34="盈利收益率",L34,IF(C34="市盈率",M34,IF(C34="市净率",N34,-1)))</f>
+        <v>11.23</v>
+      </c>
+      <c r="R34" s="45">
+        <f t="shared" ref="R34" si="12">IFERROR(IF(C34="盈利收益率",POWER(Q34/J34,I34),POWER(J34/Q34,I34)),0)</f>
+        <v>1.2611289999999999</v>
+      </c>
+      <c r="S34" s="46">
+        <f t="shared" ref="S34" si="13">IF(R34&gt;1,INT(H34*R34),0)</f>
+        <v>504</v>
+      </c>
+      <c r="T34" s="72"/>
+      <c r="U34" s="51">
+        <f>T34-S34</f>
+        <v>-504</v>
+      </c>
+      <c r="AA34"/>
+    </row>
+    <row r="35" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="43">
+        <v>10</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="44"/>
+      <c r="I35" s="36">
+        <v>2</v>
+      </c>
+      <c r="J35" s="43">
+        <v>10</v>
+      </c>
+      <c r="K35" s="70">
+        <v>43245</v>
+      </c>
+      <c r="L35" s="71">
+        <v>10.02</v>
+      </c>
+      <c r="M35" s="71">
+        <v>9.98</v>
+      </c>
+      <c r="N35" s="71">
+        <v>1.19</v>
+      </c>
+      <c r="O35" s="71">
+        <v>3.01</v>
+      </c>
+      <c r="P35" s="71">
+        <v>11.92</v>
+      </c>
+      <c r="Q35" s="45">
+        <f t="shared" si="11"/>
+        <v>10.02</v>
+      </c>
+      <c r="R35" s="45">
+        <f>IFERROR(IF(C35="盈利收益率",POWER(Q35/J35,I35),POWER(J35/Q35,I35)),0)</f>
+        <v>1.0040039999999999</v>
+      </c>
+      <c r="S35" s="46">
+        <f>IF(R35&gt;1,INT(H35*R35),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="72"/>
+      <c r="U35" s="51">
+        <f>T35-S35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="43">
+        <v>13</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="44">
+        <v>400</v>
+      </c>
+      <c r="I36" s="36">
+        <v>2</v>
+      </c>
+      <c r="J36" s="43">
+        <v>13</v>
+      </c>
+      <c r="K36" s="70">
+        <v>43245</v>
+      </c>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="N36" s="71">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O36" s="71">
+        <v>3.13</v>
+      </c>
+      <c r="P36" s="71">
+        <v>11.77</v>
+      </c>
+      <c r="Q36" s="45">
+        <f t="shared" si="11"/>
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="R36" s="45">
+        <f t="shared" ref="R36:R41" si="14">IFERROR(IF(C36="盈利收益率",POWER(Q36/J36,I36),POWER(J36/Q36,I36)),0)</f>
+        <v>1.7632801601767876</v>
+      </c>
+      <c r="S36" s="46">
+        <f t="shared" ref="S36:S41" si="15">IF(R36&gt;1,INT(H36*R36),0)</f>
+        <v>705</v>
+      </c>
+      <c r="T36" s="72"/>
+      <c r="U36" s="51">
+        <f t="shared" ref="U36:U37" si="16">T36-S36</f>
+        <v>-705</v>
+      </c>
+      <c r="AA36"/>
+    </row>
+    <row r="37" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="43">
+        <v>24</v>
+      </c>
+      <c r="E37" s="43">
+        <v>29</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="44">
+        <v>400</v>
+      </c>
+      <c r="I37" s="36">
+        <v>2</v>
+      </c>
+      <c r="J37" s="43">
+        <v>24</v>
+      </c>
+      <c r="K37" s="70">
+        <v>43245</v>
+      </c>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="N37" s="71">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O37" s="71">
+        <v>1.86</v>
+      </c>
+      <c r="P37" s="71">
+        <v>12.53</v>
+      </c>
+      <c r="Q37" s="45">
+        <f t="shared" si="11"/>
+        <v>17.559999999999999</v>
+      </c>
+      <c r="R37" s="45">
+        <f t="shared" si="14"/>
+        <v>1.8679853259374957</v>
+      </c>
+      <c r="S37" s="46">
+        <f t="shared" si="15"/>
+        <v>747</v>
+      </c>
+      <c r="T37" s="72"/>
+      <c r="U37" s="51">
+        <f t="shared" si="16"/>
+        <v>-747</v>
+      </c>
+      <c r="AA37"/>
+    </row>
+    <row r="38" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="43">
+        <v>15</v>
+      </c>
+      <c r="E38" s="43">
+        <v>25</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="44">
+        <v>400</v>
+      </c>
+      <c r="I38" s="36">
+        <v>2</v>
+      </c>
+      <c r="J38" s="43">
+        <v>15</v>
+      </c>
+      <c r="K38" s="70">
+        <v>43245</v>
+      </c>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71">
+        <v>13.55</v>
+      </c>
+      <c r="N38" s="71">
+        <v>1.81</v>
+      </c>
+      <c r="O38" s="71">
+        <v>3.36</v>
+      </c>
+      <c r="P38" s="71">
+        <v>13.36</v>
+      </c>
+      <c r="Q38" s="45">
+        <f t="shared" si="11"/>
+        <v>13.55</v>
+      </c>
+      <c r="R38" s="45">
+        <f t="shared" si="14"/>
+        <v>1.2254735093476394</v>
+      </c>
+      <c r="S38" s="46">
+        <f t="shared" si="15"/>
+        <v>490</v>
+      </c>
+      <c r="T38" s="72"/>
+      <c r="U38" s="51">
+        <f>T38-S38</f>
+        <v>-490</v>
+      </c>
+      <c r="AA38"/>
+    </row>
+    <row r="39" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="43">
+        <v>33</v>
+      </c>
+      <c r="E39" s="43">
+        <v>40</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="44">
+        <v>400</v>
+      </c>
+      <c r="I39" s="36">
+        <v>2</v>
+      </c>
+      <c r="J39" s="47">
+        <v>31</v>
+      </c>
+      <c r="K39" s="70">
+        <v>43245</v>
+      </c>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71">
+        <v>25.9</v>
+      </c>
+      <c r="N39" s="71">
+        <v>2.31</v>
+      </c>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71">
+        <v>8.93</v>
+      </c>
+      <c r="Q39" s="45">
+        <f t="shared" si="11"/>
+        <v>25.9</v>
+      </c>
+      <c r="R39" s="45">
+        <f t="shared" si="14"/>
+        <v>1.4325964132913942</v>
+      </c>
+      <c r="S39" s="46">
+        <f t="shared" si="15"/>
+        <v>573</v>
+      </c>
+      <c r="T39" s="72"/>
+      <c r="U39" s="51">
+        <f t="shared" ref="U39:U41" si="17">T39-S39</f>
+        <v>-573</v>
+      </c>
       <c r="W39"/>
       <c r="X39"/>
       <c r="Y39"/>
       <c r="Z39"/>
     </row>
-    <row r="40" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:27" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="43">
+        <v>33</v>
+      </c>
+      <c r="E40" s="43">
+        <v>40</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="44">
+        <v>400</v>
+      </c>
+      <c r="I40" s="36">
+        <v>2</v>
+      </c>
+      <c r="J40" s="47">
+        <v>31</v>
+      </c>
+      <c r="K40" s="70">
+        <v>43245</v>
+      </c>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71">
+        <v>25</v>
+      </c>
+      <c r="N40" s="71">
+        <v>1.95</v>
+      </c>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71">
+        <v>7.8</v>
+      </c>
+      <c r="Q40" s="45">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="R40" s="45">
+        <f t="shared" si="14"/>
+        <v>1.5376000000000001</v>
+      </c>
+      <c r="S40" s="46">
+        <f t="shared" si="15"/>
+        <v>615</v>
+      </c>
+      <c r="T40" s="72"/>
+      <c r="U40" s="51">
+        <f t="shared" si="17"/>
+        <v>-615</v>
+      </c>
       <c r="W40"/>
       <c r="X40"/>
       <c r="Y40"/>
       <c r="Z40"/>
+    </row>
+    <row r="41" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="43">
+        <v>24</v>
+      </c>
+      <c r="E41" s="43">
+        <v>33</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="H41" s="44"/>
+      <c r="I41" s="36">
+        <v>2</v>
+      </c>
+      <c r="J41" s="43">
+        <v>24</v>
+      </c>
+      <c r="K41" s="70">
+        <v>43245</v>
+      </c>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71">
+        <v>22.65</v>
+      </c>
+      <c r="N41" s="71">
+        <v>3.09</v>
+      </c>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71">
+        <v>13.66</v>
+      </c>
+      <c r="Q41" s="45">
+        <f t="shared" si="11"/>
+        <v>22.65</v>
+      </c>
+      <c r="R41" s="45">
+        <f t="shared" si="14"/>
+        <v>1.1227577737818519</v>
+      </c>
+      <c r="S41" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="72"/>
+      <c r="U41" s="51">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -18,8 +18,8 @@
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
-    <pivotCache cacheId="13" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -2165,1587 +2165,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="351">
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="47">
     <dxf>
       <font>
         <sz val="10"/>
@@ -4461,35 +2881,35 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="65"/>
+        <c:idx val="63"/>
         <c:marker>
           <c:symbol val="square"/>
           <c:size val="3"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="66"/>
+        <c:idx val="64"/>
         <c:marker>
           <c:symbol val="triangle"/>
           <c:size val="3"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="67"/>
+        <c:idx val="65"/>
         <c:marker>
           <c:symbol val="diamond"/>
           <c:size val="3"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="68"/>
+        <c:idx val="66"/>
         <c:marker>
           <c:symbol val="square"/>
           <c:size val="3"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="69"/>
+        <c:idx val="67"/>
         <c:marker>
           <c:symbol val="triangle"/>
           <c:size val="3"/>
@@ -4520,7 +2940,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>中证500低波动 - 指标</c:v>
+                  <c:v>红利机会 - 指标</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4531,70 +2951,82 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>统计!$K$4:$K$24</c:f>
+              <c:f>统计!$K$4:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>2017/06/16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017/07/04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017/08/08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017/09/04</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2017/10/09</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>2017/11/02</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>2017/12/04</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>2018/01/03</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>2018/02/02</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>2018/03/02</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>2018/04/03</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>2018/05/04</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>2018/05/11</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>2018/05/18</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>2018/05/24</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>2018/05/25</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>2018/05/29</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>2018/05/30</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>2018/05/31</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>2018/06/01</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>2018/06/04</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>2018/06/05</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>2018/06/06</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>2018/06/07</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>2018/06/08</c:v>
                 </c:pt>
               </c:strCache>
@@ -4602,72 +3034,84 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>统计!$L$4:$L$24</c:f>
+              <c:f>统计!$L$4:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>28.46</c:v>
+                  <c:v>13.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.99</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.19</c:v>
+                  <c:v>13.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.52</c:v>
+                  <c:v>13.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.19</c:v>
+                  <c:v>13.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.97</c:v>
+                  <c:v>13.73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.33</c:v>
+                  <c:v>13.86</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.25</c:v>
+                  <c:v>14.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.91</c:v>
+                  <c:v>14.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.81</c:v>
+                  <c:v>13.96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.04</c:v>
+                  <c:v>13.34</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.74</c:v>
+                  <c:v>13.63</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.43</c:v>
+                  <c:v>13.58</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.66</c:v>
+                  <c:v>13.61</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.29</c:v>
+                  <c:v>13.55</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.95</c:v>
+                  <c:v>13.51</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.07</c:v>
+                  <c:v>13.47</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.33</c:v>
+                  <c:v>13.15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.28</c:v>
+                  <c:v>13.42</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.13</c:v>
+                  <c:v>13.29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.42</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4684,8 +3128,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102188160"/>
-        <c:axId val="102189696"/>
+        <c:axId val="100288000"/>
+        <c:axId val="100289536"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4699,7 +3143,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>中证500低波动 - 净值</c:v>
+                  <c:v>红利机会 - 净值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4710,70 +3154,82 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>统计!$K$4:$K$24</c:f>
+              <c:f>统计!$K$4:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>2017/06/16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017/07/04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017/08/08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017/09/04</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2017/10/09</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>2017/11/02</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>2017/12/04</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>2018/01/03</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>2018/02/02</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>2018/03/02</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>2018/04/03</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>2018/05/04</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>2018/05/11</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>2018/05/18</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>2018/05/24</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>2018/05/25</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>2018/05/29</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>2018/05/30</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>2018/05/31</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>2018/06/01</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>2018/06/04</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>2018/06/05</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>2018/06/06</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>2018/06/07</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>2018/06/08</c:v>
                 </c:pt>
               </c:strCache>
@@ -4781,69 +3237,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>统计!$M$4:$M$24</c:f>
+              <c:f>统计!$M$4:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>1.0294000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0581</c:v>
+                  <c:v>1.056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0334000000000001</c:v>
+                  <c:v>1.0734999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0516000000000001</c:v>
+                  <c:v>1.0858000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99519999999999997</c:v>
+                  <c:v>1.1065</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0018</c:v>
+                  <c:v>1.0967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0053000000000001</c:v>
+                  <c:v>1.0806</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97209999999999996</c:v>
+                  <c:v>1.1153</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9869</c:v>
+                  <c:v>1.1359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99409999999999998</c:v>
+                  <c:v>1.095</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99409999999999998</c:v>
+                  <c:v>1.028</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98719999999999997</c:v>
+                  <c:v>1.0226</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97719999999999996</c:v>
+                  <c:v>1.0442</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95479999999999998</c:v>
+                  <c:v>1.0533999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.96970000000000001</c:v>
+                  <c:v>1.0450999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.95669999999999999</c:v>
+                  <c:v>1.0435000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.95699999999999996</c:v>
+                  <c:v>1.0409999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97040000000000004</c:v>
+                  <c:v>1.0181</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.96899999999999997</c:v>
+                  <c:v>1.0386</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96289999999999998</c:v>
+                  <c:v>1.0305</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0339</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0416000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0422</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4859,7 +3327,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>中证500低波动 - 额度比率</c:v>
+                  <c:v>红利机会 - 额度比率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4870,70 +3338,82 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>统计!$K$4:$K$24</c:f>
+              <c:f>统计!$K$4:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>2017/06/16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017/07/04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017/08/08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017/09/04</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2017/10/09</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>2017/11/02</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>2017/12/04</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>2018/01/03</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>2018/02/02</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>2018/03/02</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>2018/04/03</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>2018/05/04</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>2018/05/11</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>2018/05/18</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>2018/05/24</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>2018/05/25</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>2018/05/29</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>2018/05/30</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>2018/05/31</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>2018/06/01</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>2018/06/04</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>2018/06/05</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>2018/06/06</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>2018/06/07</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>2018/06/08</c:v>
                 </c:pt>
               </c:strCache>
@@ -4941,72 +3421,84 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>统计!$N$4:$N$24</c:f>
+              <c:f>统计!$N$4:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1.186461352472111</c:v>
+                  <c:v>1.2777346502897051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4226918009871794</c:v>
+                  <c:v>1.2164792387543255</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5144922408669894</c:v>
+                  <c:v>1.2290991686373223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1814744801512287</c:v>
+                  <c:v>1.2309180350828053</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.299885120454443</c:v>
+                  <c:v>1.1987852309659546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3211784912141633</c:v>
+                  <c:v>1.1935522714891127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4977971783122088</c:v>
+                  <c:v>1.1712674050336387</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6341800403868634</c:v>
+                  <c:v>1.1127134184336556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5487307901379532</c:v>
+                  <c:v>1.0775733049173264</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5612406810908412</c:v>
+                  <c:v>1.1545471712054907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5326914636262494</c:v>
+                  <c:v>1.2643603235863328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5376000000000001</c:v>
+                  <c:v>1.2719769348182488</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5700880098864896</c:v>
+                  <c:v>1.211130124358841</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.61018751060822</c:v>
+                  <c:v>1.2200650267546707</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7166980233499516</c:v>
+                  <c:v>1.2146922698603539</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.628802240526803</c:v>
+                  <c:v>1.2254735093476394</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.675376240514991</c:v>
+                  <c:v>1.2327409419565301</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6587128422864417</c:v>
+                  <c:v>1.2400732139225499</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6234509431472885</c:v>
+                  <c:v>1.3011609246916971</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6301441990614711</c:v>
+                  <c:v>1.2493309138883399</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.650474215075854</c:v>
+                  <c:v>1.2738918414870906</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2662580498838136</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2493309138883399</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2493309138883399</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2700663426209993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5023,11 +3515,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102197120"/>
-        <c:axId val="102195584"/>
+        <c:axId val="100296960"/>
+        <c:axId val="100295424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102188160"/>
+        <c:axId val="100288000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5048,7 +3540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102189696"/>
+        <c:crossAx val="100289536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5056,10 +3548,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102189696"/>
+        <c:axId val="100289536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5078,12 +3569,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102188160"/>
+        <c:crossAx val="100288000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102195584"/>
+        <c:axId val="100295424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.6"/>
@@ -5095,12 +3586,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102197120"/>
+        <c:crossAx val="100296960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="102197120"/>
+        <c:axId val="100296960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5109,7 +3600,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102195584"/>
+        <c:crossAx val="100295424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5163,13 +3654,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5194,62 +3685,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43258.945056481483" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G11" sheet="老计划"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="基金" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="类型" numFmtId="0">
-      <sharedItems containsBlank="1" count="12">
-        <s v="大盘6/中小盘4"/>
-        <s v="大盘"/>
-        <s v="均衡"/>
-        <s v="中小盘"/>
-        <s v="混合"/>
-        <s v="泸港深"/>
-        <m u="1"/>
-        <s v="消费行业" u="1"/>
-        <s v="主动型" u="1"/>
-        <s v="中盘(150只)" u="1"/>
-        <s v="中盘" u="1"/>
-        <s v="环保医疗" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="估值状态" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="正常估值"/>
-        <s v="低估值"/>
-        <s v="主动"/>
-        <m u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="计划" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="周投金额" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="400"/>
-    </cacheField>
-    <cacheField name="年投估算" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="19200"/>
-    </cacheField>
-    <cacheField name="备注" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="比例" numFmtId="0" formula="周投金额" databaseField="0"/>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="YuanXing" refreshedDate="43258.956837962964" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="254">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="YuanXing" refreshedDate="43259.487149884262" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="254">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:W2151" sheet="记录"/>
   </cacheSource>
@@ -5328,7 +3764,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="1151"/>
     </cacheField>
     <cacheField name="差额" numFmtId="178">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-737" maxValue="517"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-599" maxValue="517"/>
     </cacheField>
     <cacheField name="定投日期" numFmtId="180">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-06-16T00:00:00" maxDate="2018-06-09T00:00:00" count="27">
@@ -5373,102 +3809,62 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
-  <r>
-    <s v="富国中证红利指数增强(100032)"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="持有"/>
-    <n v="300"/>
-    <n v="14400"/>
-    <m/>
-  </r>
-  <r>
-    <s v="嘉实基本面50指数(160716)"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="持有"/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="景顺长城泸深300增强(000311)"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="持有"/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="华宝兴业标普中国A股红利机会(501029)"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="定投/周"/>
-    <n v="400"/>
-    <n v="19200"/>
-    <m/>
-  </r>
-  <r>
-    <s v="景顺长城中证500行业中性低波动(003318)"/>
-    <x v="3"/>
-    <x v="1"/>
-    <s v="定投/周"/>
-    <n v="400"/>
-    <n v="19200"/>
-    <m/>
-  </r>
-  <r>
-    <s v="建信中证500指数增强(000478)"/>
-    <x v="3"/>
-    <x v="1"/>
-    <s v="定投/周"/>
-    <n v="400"/>
-    <n v="19200"/>
-    <m/>
-  </r>
-  <r>
-    <s v="建信深证基本面60ETF联接(530015)"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="定投/周"/>
-    <n v="200"/>
-    <n v="9600"/>
-    <m/>
-  </r>
-  <r>
-    <s v="申万菱泸深300价值(310398)"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="定投/周"/>
-    <n v="300"/>
-    <n v="14400"/>
-    <m/>
-  </r>
-  <r>
-    <s v="国泰金龙行业混合(020003)"/>
-    <x v="4"/>
-    <x v="2"/>
-    <s v="定投/周"/>
-    <m/>
-    <n v="0"/>
-    <s v="暂时"/>
-  </r>
-  <r>
-    <s v="嘉实泸港深精选股票(001878)"/>
-    <x v="5"/>
-    <x v="2"/>
-    <s v="定投/周"/>
-    <m/>
-    <n v="0"/>
-    <s v="暂时"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43259.524648842591" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G11" sheet="老计划"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="基金" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="类型" numFmtId="0">
+      <sharedItems containsBlank="1" count="12">
+        <s v="大盘6/中小盘4"/>
+        <s v="大盘"/>
+        <s v="均衡"/>
+        <s v="中小盘"/>
+        <s v="混合"/>
+        <s v="泸港深"/>
+        <m u="1"/>
+        <s v="消费行业" u="1"/>
+        <s v="主动型" u="1"/>
+        <s v="中盘(150只)" u="1"/>
+        <s v="中盘" u="1"/>
+        <s v="环保医疗" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="估值状态" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="正常估值"/>
+        <s v="低估值"/>
+        <s v="主动"/>
+        <m u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="计划" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="周投金额" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="400"/>
+    </cacheField>
+    <cacheField name="年投估算" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="19200"/>
+    </cacheField>
+    <cacheField name="备注" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="比例" numFmtId="0" formula="周投金额" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="254">
   <r>
     <s v="000170"/>
@@ -11540,8 +9936,8 @@
     <n v="17.68"/>
     <n v="1.8427141131426468"/>
     <n v="737"/>
-    <m/>
-    <n v="-737"/>
+    <n v="737"/>
+    <n v="0"/>
     <x v="25"/>
     <m/>
   </r>
@@ -11565,8 +9961,8 @@
     <n v="9.7100000000000009"/>
     <n v="1.7924549314253408"/>
     <n v="716"/>
-    <m/>
-    <n v="-716"/>
+    <n v="716"/>
+    <n v="0"/>
     <x v="25"/>
     <m/>
   </r>
@@ -11590,8 +9986,8 @@
     <n v="24.13"/>
     <n v="1.650474215075854"/>
     <n v="660"/>
-    <m/>
-    <n v="-660"/>
+    <n v="660"/>
+    <n v="0"/>
     <x v="25"/>
     <m/>
   </r>
@@ -11615,8 +10011,8 @@
     <n v="24.8"/>
     <n v="1.5625"/>
     <n v="625"/>
-    <m/>
-    <n v="-625"/>
+    <n v="625"/>
+    <n v="0"/>
     <x v="25"/>
     <m/>
   </r>
@@ -11640,8 +10036,8 @@
     <n v="11.37"/>
     <n v="1.2927690000000001"/>
     <n v="517"/>
-    <m/>
-    <n v="-517"/>
+    <n v="517"/>
+    <n v="0"/>
     <x v="25"/>
     <m/>
   </r>
@@ -11665,8 +10061,8 @@
     <n v="11.37"/>
     <n v="1.2927690000000001"/>
     <n v="129"/>
-    <m/>
-    <n v="-129"/>
+    <n v="129"/>
+    <n v="0"/>
     <x v="25"/>
     <m/>
   </r>
@@ -11690,8 +10086,8 @@
     <n v="13.31"/>
     <n v="1.2700663426209993"/>
     <n v="508"/>
-    <m/>
-    <n v="-508"/>
+    <n v="508"/>
+    <n v="0"/>
     <x v="25"/>
     <m/>
   </r>
@@ -11823,8 +10219,103 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
+  <r>
+    <s v="富国中证红利指数增强(100032)"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="持有"/>
+    <n v="300"/>
+    <n v="14400"/>
+    <m/>
+  </r>
+  <r>
+    <s v="嘉实基本面50指数(160716)"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="持有"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="景顺长城泸深300增强(000311)"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="持有"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="华宝兴业标普中国A股红利机会(501029)"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="定投/周"/>
+    <n v="400"/>
+    <n v="19200"/>
+    <m/>
+  </r>
+  <r>
+    <s v="景顺长城中证500行业中性低波动(003318)"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="定投/周"/>
+    <n v="400"/>
+    <n v="19200"/>
+    <m/>
+  </r>
+  <r>
+    <s v="建信中证500指数增强(000478)"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="定投/周"/>
+    <n v="400"/>
+    <n v="19200"/>
+    <m/>
+  </r>
+  <r>
+    <s v="建信深证基本面60ETF联接(530015)"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="定投/周"/>
+    <n v="200"/>
+    <n v="9600"/>
+    <m/>
+  </r>
+  <r>
+    <s v="申万菱泸深300价值(310398)"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="定投/周"/>
+    <n v="300"/>
+    <n v="14400"/>
+    <m/>
+  </r>
+  <r>
+    <s v="国泰金龙行业混合(020003)"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="定投/周"/>
+    <m/>
+    <n v="0"/>
+    <s v="暂时"/>
+  </r>
+  <r>
+    <s v="嘉实泸港深精选股票(001878)"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="定投/周"/>
+    <m/>
+    <n v="0"/>
+    <s v="暂时"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F1:I29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
@@ -11990,7 +10481,7 @@
     <dataField name="求和项:差额" fld="20" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="339">
+    <format dxfId="35">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -12004,19 +10495,19 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="K1:N24" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="K1:N28" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="12">
         <item h="1" x="0"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="9"/>
         <item h="1" x="4"/>
         <item h="1" x="10"/>
-        <item x="8"/>
+        <item h="1" x="8"/>
         <item h="1" x="7"/>
         <item h="1" x="3"/>
         <item h="1" x="6"/>
@@ -12079,7 +10570,19 @@
   <rowFields count="1">
     <field x="21"/>
   </rowFields>
-  <rowItems count="21">
+  <rowItems count="25">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
     <i>
       <x v="4"/>
     </i>
@@ -12150,7 +10653,7 @@
   </colFields>
   <colItems count="3">
     <i>
-      <x v="6"/>
+      <x v="1"/>
       <x/>
     </i>
     <i r="1" i="1">
@@ -12166,10 +10669,10 @@
     <dataField name="额度比率" fld="17" baseField="21" baseItem="0" numFmtId="176"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="349">
+    <format dxfId="45">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="348">
+    <format dxfId="44">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="21" count="7">
@@ -12184,7 +10687,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="347">
+    <format dxfId="43">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12193,7 +10696,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="346">
+    <format dxfId="42">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12202,7 +10705,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="345">
+    <format dxfId="41">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12211,19 +10714,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="344">
+    <format dxfId="40">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="343">
+    <format dxfId="39">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="342">
+    <format dxfId="38">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="341">
+    <format dxfId="37">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="340">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -12231,7 +10734,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="66">
+  <chartFormats count="64">
     <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -12944,10 +11447,10 @@
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="5"/>
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -12956,7 +11459,7 @@
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="9"/>
@@ -12968,30 +11471,6 @@
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="66" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="67" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
@@ -13000,7 +11479,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="68" series="1">
+    <chartFormat chart="2" format="66" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13012,7 +11491,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="69" series="1">
+    <chartFormat chart="2" format="67" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13035,7 +11514,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
@@ -13142,7 +11621,7 @@
     <dataField name="求和项:差额" fld="20" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="350">
+    <format dxfId="46">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13588,7 +12067,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -13604,7 +12083,7 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -13618,7 +12097,7 @@
     <col min="8" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.625" customWidth="1"/>
     <col min="11" max="11" width="10.25" customWidth="1"/>
-    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="8.375" customWidth="1"/>
     <col min="13" max="13" width="7.625" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="15" width="10.5" customWidth="1"/>
@@ -13702,7 +12181,7 @@
       </c>
       <c r="K2" s="90"/>
       <c r="L2" s="87" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M2" s="88"/>
       <c r="N2" s="89"/>
@@ -13715,10 +12194,10 @@
         <v>3477</v>
       </c>
       <c r="C3" s="47">
-        <v>2272</v>
+        <v>2780</v>
       </c>
       <c r="D3" s="47">
-        <v>-1205</v>
+        <v>-697</v>
       </c>
       <c r="F3" s="49">
         <v>42920</v>
@@ -13765,16 +12244,16 @@
         <v>0</v>
       </c>
       <c r="K4" s="67">
-        <v>43017</v>
+        <v>42902</v>
       </c>
       <c r="L4" s="70">
-        <v>28.46</v>
+        <v>13.27</v>
       </c>
       <c r="M4" s="81">
-        <v>1.0900000000000001</v>
+        <v>1.0294000000000001</v>
       </c>
       <c r="N4" s="84">
-        <v>1.186461352472111</v>
+        <v>1.2777346502897051</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -13785,10 +12264,10 @@
         <v>5174</v>
       </c>
       <c r="C5" s="47">
-        <v>4209</v>
+        <v>4946</v>
       </c>
       <c r="D5" s="47">
-        <v>-965</v>
+        <v>-228</v>
       </c>
       <c r="F5" s="49">
         <v>42982</v>
@@ -13801,16 +12280,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="68">
-        <v>43041</v>
+        <v>42920</v>
       </c>
       <c r="L5" s="71">
-        <v>25.99</v>
+        <v>13.6</v>
       </c>
       <c r="M5" s="82">
-        <v>1.0581</v>
+        <v>1.056</v>
       </c>
       <c r="N5" s="85">
-        <v>1.4226918009871794</v>
+        <v>1.2164792387543255</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -13821,10 +12300,10 @@
         <v>387</v>
       </c>
       <c r="C6" s="47">
-        <v>205</v>
+        <v>334</v>
       </c>
       <c r="D6" s="47">
-        <v>-182</v>
+        <v>-53</v>
       </c>
       <c r="F6" s="49">
         <v>43017</v>
@@ -13837,16 +12316,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="68">
-        <v>43073</v>
+        <v>42955</v>
       </c>
       <c r="L6" s="71">
-        <v>25.19</v>
+        <v>13.53</v>
       </c>
       <c r="M6" s="82">
-        <v>1.0334000000000001</v>
+        <v>1.0734999999999999</v>
       </c>
       <c r="N6" s="85">
-        <v>1.5144922408669894</v>
+        <v>1.2290991686373223</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -13857,10 +12336,10 @@
         <v>4910</v>
       </c>
       <c r="C7" s="47">
-        <v>4091</v>
+        <v>4807</v>
       </c>
       <c r="D7" s="47">
-        <v>-819</v>
+        <v>-103</v>
       </c>
       <c r="F7" s="49">
         <v>43041</v>
@@ -13873,16 +12352,16 @@
         <v>0</v>
       </c>
       <c r="K7" s="68">
-        <v>43103</v>
+        <v>42982</v>
       </c>
       <c r="L7" s="71">
-        <v>28.52</v>
+        <v>13.52</v>
       </c>
       <c r="M7" s="82">
-        <v>1.0516000000000001</v>
+        <v>1.0858000000000001</v>
       </c>
       <c r="N7" s="85">
-        <v>1.1814744801512287</v>
+        <v>1.2309180350828053</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -13893,10 +12372,10 @@
         <v>4419</v>
       </c>
       <c r="C8" s="47">
-        <v>3188</v>
+        <v>3848</v>
       </c>
       <c r="D8" s="47">
-        <v>-1231</v>
+        <v>-571</v>
       </c>
       <c r="F8" s="49">
         <v>43073</v>
@@ -13909,16 +12388,16 @@
         <v>0</v>
       </c>
       <c r="K8" s="68">
-        <v>43133</v>
+        <v>43017</v>
       </c>
       <c r="L8" s="71">
-        <v>27.19</v>
+        <v>13.7</v>
       </c>
       <c r="M8" s="82">
-        <v>0.99519999999999997</v>
+        <v>1.1065</v>
       </c>
       <c r="N8" s="85">
-        <v>1.299885120454443</v>
+        <v>1.1987852309659546</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -13929,10 +12408,10 @@
         <v>4095</v>
       </c>
       <c r="C9" s="47">
-        <v>2572</v>
+        <v>3197</v>
       </c>
       <c r="D9" s="47">
-        <v>-1523</v>
+        <v>-898</v>
       </c>
       <c r="F9" s="49">
         <v>43103</v>
@@ -13945,16 +12424,16 @@
         <v>0</v>
       </c>
       <c r="K9" s="68">
-        <v>43161</v>
+        <v>43041</v>
       </c>
       <c r="L9" s="71">
-        <v>26.97</v>
+        <v>13.73</v>
       </c>
       <c r="M9" s="82">
-        <v>1.0018</v>
+        <v>1.0967</v>
       </c>
       <c r="N9" s="85">
-        <v>1.3211784912141633</v>
+        <v>1.1935522714891127</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -13965,10 +12444,10 @@
         <v>3510</v>
       </c>
       <c r="C10" s="47">
-        <v>3508</v>
+        <v>4025</v>
       </c>
       <c r="D10" s="47">
-        <v>-2</v>
+        <v>515</v>
       </c>
       <c r="F10" s="49">
         <v>43133</v>
@@ -13981,16 +12460,16 @@
         <v>0</v>
       </c>
       <c r="K10" s="68">
-        <v>43193</v>
+        <v>43073</v>
       </c>
       <c r="L10" s="71">
-        <v>25.33</v>
+        <v>13.86</v>
       </c>
       <c r="M10" s="82">
-        <v>1.0053000000000001</v>
+        <v>1.0806</v>
       </c>
       <c r="N10" s="85">
-        <v>1.4977971783122088</v>
+        <v>1.1712674050336387</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -14015,16 +12494,16 @@
         <v>0</v>
       </c>
       <c r="K11" s="68">
-        <v>43224</v>
+        <v>43103</v>
       </c>
       <c r="L11" s="71">
-        <v>24.25</v>
+        <v>14.22</v>
       </c>
       <c r="M11" s="82">
-        <v>0.97209999999999996</v>
+        <v>1.1153</v>
       </c>
       <c r="N11" s="85">
-        <v>1.6341800403868634</v>
+        <v>1.1127134184336556</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -14051,16 +12530,16 @@
         <v>-528</v>
       </c>
       <c r="K12" s="68">
-        <v>43231</v>
+        <v>43133</v>
       </c>
       <c r="L12" s="71">
-        <v>24.91</v>
+        <v>14.45</v>
       </c>
       <c r="M12" s="82">
-        <v>0.9869</v>
+        <v>1.1359999999999999</v>
       </c>
       <c r="N12" s="85">
-        <v>1.5487307901379532</v>
+        <v>1.0775733049173264</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -14083,16 +12562,16 @@
         <v>-1023</v>
       </c>
       <c r="K13" s="68">
-        <v>43238</v>
+        <v>43161</v>
       </c>
       <c r="L13" s="71">
-        <v>24.81</v>
+        <v>13.96</v>
       </c>
       <c r="M13" s="82">
-        <v>0.99409999999999998</v>
+        <v>1.095</v>
       </c>
       <c r="N13" s="85">
-        <v>1.5612406810908412</v>
+        <v>1.1545471712054907</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -14103,10 +12582,10 @@
         <v>25972</v>
       </c>
       <c r="C14" s="47">
-        <v>20045</v>
+        <v>23937</v>
       </c>
       <c r="D14" s="47">
-        <v>-5927</v>
+        <v>-2035</v>
       </c>
       <c r="F14" s="49">
         <v>43231</v>
@@ -14121,16 +12600,16 @@
         <v>-934</v>
       </c>
       <c r="K14" s="68">
-        <v>43244</v>
+        <v>43193</v>
       </c>
       <c r="L14" s="71">
-        <v>25.04</v>
+        <v>13.34</v>
       </c>
       <c r="M14" s="82">
-        <v>0.99409999999999998</v>
+        <v>1.028</v>
       </c>
       <c r="N14" s="85">
-        <v>1.5326914636262494</v>
+        <v>1.2643603235863328</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -14147,16 +12626,16 @@
         <v>3</v>
       </c>
       <c r="K15" s="68">
-        <v>43245</v>
+        <v>43224</v>
       </c>
       <c r="L15" s="71">
-        <v>25</v>
+        <v>13.3</v>
       </c>
       <c r="M15" s="82">
-        <v>0.98719999999999997</v>
+        <v>1.0226</v>
       </c>
       <c r="N15" s="85">
-        <v>1.5376000000000001</v>
+        <v>1.2719769348182488</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
@@ -14173,16 +12652,16 @@
         <v>0</v>
       </c>
       <c r="K16" s="68">
-        <v>43249</v>
+        <v>43231</v>
       </c>
       <c r="L16" s="71">
-        <v>24.74</v>
+        <v>13.63</v>
       </c>
       <c r="M16" s="82">
-        <v>0.97719999999999996</v>
+        <v>1.0442</v>
       </c>
       <c r="N16" s="85">
-        <v>1.5700880098864896</v>
+        <v>1.211130124358841</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.15">
@@ -14197,16 +12676,16 @@
         <v>0</v>
       </c>
       <c r="K17" s="68">
-        <v>43250</v>
+        <v>43238</v>
       </c>
       <c r="L17" s="71">
-        <v>24.43</v>
+        <v>13.58</v>
       </c>
       <c r="M17" s="82">
-        <v>0.95479999999999998</v>
+        <v>1.0533999999999999</v>
       </c>
       <c r="N17" s="85">
-        <v>1.61018751060822</v>
+        <v>1.2200650267546707</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.15">
@@ -14223,16 +12702,16 @@
         <v>-29</v>
       </c>
       <c r="K18" s="68">
-        <v>43251</v>
+        <v>43244</v>
       </c>
       <c r="L18" s="71">
-        <v>23.66</v>
+        <v>13.61</v>
       </c>
       <c r="M18" s="82">
-        <v>0.96970000000000001</v>
+        <v>1.0450999999999999</v>
       </c>
       <c r="N18" s="85">
-        <v>1.7166980233499516</v>
+        <v>1.2146922698603539</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.15">
@@ -14247,16 +12726,16 @@
         <v>0</v>
       </c>
       <c r="K19" s="68">
-        <v>43252</v>
+        <v>43245</v>
       </c>
       <c r="L19" s="71">
-        <v>24.29</v>
+        <v>13.55</v>
       </c>
       <c r="M19" s="82">
-        <v>0.95669999999999999</v>
+        <v>1.0435000000000001</v>
       </c>
       <c r="N19" s="85">
-        <v>1.628802240526803</v>
+        <v>1.2254735093476394</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.15">
@@ -14271,16 +12750,16 @@
         <v>0</v>
       </c>
       <c r="K20" s="68">
-        <v>43255</v>
+        <v>43249</v>
       </c>
       <c r="L20" s="71">
-        <v>23.95</v>
+        <v>13.51</v>
       </c>
       <c r="M20" s="82">
-        <v>0.95699999999999996</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="N20" s="85">
-        <v>1.675376240514991</v>
+        <v>1.2327409419565301</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.15">
@@ -14295,16 +12774,16 @@
         <v>0</v>
       </c>
       <c r="K21" s="68">
-        <v>43256</v>
+        <v>43250</v>
       </c>
       <c r="L21" s="71">
-        <v>24.07</v>
+        <v>13.47</v>
       </c>
       <c r="M21" s="82">
-        <v>0.97040000000000004</v>
+        <v>1.0181</v>
       </c>
       <c r="N21" s="85">
-        <v>1.6587128422864417</v>
+        <v>1.2400732139225499</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.15">
@@ -14321,16 +12800,16 @@
         <v>476</v>
       </c>
       <c r="K22" s="68">
-        <v>43257</v>
+        <v>43251</v>
       </c>
       <c r="L22" s="71">
-        <v>24.33</v>
+        <v>13.15</v>
       </c>
       <c r="M22" s="82">
-        <v>0.96899999999999997</v>
+        <v>1.0386</v>
       </c>
       <c r="N22" s="85">
-        <v>1.6234509431472885</v>
+        <v>1.3011609246916971</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.15">
@@ -14345,16 +12824,16 @@
         <v>0</v>
       </c>
       <c r="K23" s="68">
-        <v>43258</v>
+        <v>43252</v>
       </c>
       <c r="L23" s="71">
-        <v>24.28</v>
+        <v>13.42</v>
       </c>
       <c r="M23" s="82">
-        <v>0.96289999999999998</v>
+        <v>1.0305</v>
       </c>
       <c r="N23" s="85">
-        <v>1.6301441990614711</v>
+        <v>1.2493309138883399</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.15">
@@ -14368,15 +12847,17 @@
       <c r="I24" s="47">
         <v>0</v>
       </c>
-      <c r="K24" s="69">
-        <v>43259</v>
-      </c>
-      <c r="L24" s="72">
-        <v>24.13</v>
-      </c>
-      <c r="M24" s="83"/>
-      <c r="N24" s="86">
-        <v>1.650474215075854</v>
+      <c r="K24" s="68">
+        <v>43255</v>
+      </c>
+      <c r="L24" s="71">
+        <v>13.29</v>
+      </c>
+      <c r="M24" s="82">
+        <v>1.0339</v>
+      </c>
+      <c r="N24" s="85">
+        <v>1.2738918414870906</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.15">
@@ -14390,6 +12871,18 @@
       <c r="I25" s="47">
         <v>0</v>
       </c>
+      <c r="K25" s="68">
+        <v>43256</v>
+      </c>
+      <c r="L25" s="71">
+        <v>13.33</v>
+      </c>
+      <c r="M25" s="82">
+        <v>1.0416000000000001</v>
+      </c>
+      <c r="N25" s="85">
+        <v>1.2662580498838136</v>
+      </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.15">
       <c r="F26" s="49">
@@ -14402,6 +12895,18 @@
       <c r="I26" s="47">
         <v>0</v>
       </c>
+      <c r="K26" s="68">
+        <v>43257</v>
+      </c>
+      <c r="L26" s="71">
+        <v>13.42</v>
+      </c>
+      <c r="M26" s="82">
+        <v>1.0422</v>
+      </c>
+      <c r="N26" s="85">
+        <v>1.2493309138883399</v>
+      </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.15">
       <c r="F27" s="49">
@@ -14410,9 +12915,23 @@
       <c r="G27" s="47">
         <v>3892</v>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="47">
+        <v>3892</v>
+      </c>
       <c r="I27" s="47">
-        <v>-3892</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="68">
+        <v>43258</v>
+      </c>
+      <c r="L27" s="71">
+        <v>13.42</v>
+      </c>
+      <c r="M27" s="82">
+        <v>1.0364</v>
+      </c>
+      <c r="N27" s="85">
+        <v>1.2493309138883399</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.15">
@@ -14422,6 +12941,16 @@
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
+      <c r="K28" s="69">
+        <v>43259</v>
+      </c>
+      <c r="L28" s="72">
+        <v>13.31</v>
+      </c>
+      <c r="M28" s="83"/>
+      <c r="N28" s="86">
+        <v>1.2700663426209993</v>
+      </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.15">
       <c r="F29" s="49" t="s">
@@ -14431,10 +12960,10 @@
         <v>25972</v>
       </c>
       <c r="H29" s="47">
-        <v>20045</v>
+        <v>23937</v>
       </c>
       <c r="I29" s="47">
-        <v>-5927</v>
+        <v>-2035</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.15">
@@ -14549,7 +13078,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N259" sqref="N259"/>
+      <selection pane="bottomRight" activeCell="Q260" sqref="Q260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -31527,10 +30056,12 @@
         <f t="shared" si="26"/>
         <v>737</v>
       </c>
-      <c r="T244" s="78"/>
+      <c r="T244" s="78">
+        <v>737</v>
+      </c>
       <c r="U244" s="62">
         <f t="shared" si="27"/>
-        <v>-737</v>
+        <v>0</v>
       </c>
       <c r="V244" s="76">
         <v>43259</v>
@@ -31594,10 +30125,12 @@
         <f t="shared" si="26"/>
         <v>716</v>
       </c>
-      <c r="T245" s="78"/>
+      <c r="T245" s="78">
+        <v>716</v>
+      </c>
       <c r="U245" s="62">
         <f t="shared" si="27"/>
-        <v>-716</v>
+        <v>0</v>
       </c>
       <c r="V245" s="76">
         <v>43259</v>
@@ -31663,10 +30196,12 @@
         <f t="shared" si="26"/>
         <v>660</v>
       </c>
-      <c r="T246" s="78"/>
+      <c r="T246" s="78">
+        <v>660</v>
+      </c>
       <c r="U246" s="62">
         <f t="shared" si="27"/>
-        <v>-660</v>
+        <v>0</v>
       </c>
       <c r="V246" s="76">
         <v>43259</v>
@@ -31732,10 +30267,12 @@
         <f t="shared" si="26"/>
         <v>625</v>
       </c>
-      <c r="T247" s="78"/>
+      <c r="T247" s="78">
+        <v>625</v>
+      </c>
       <c r="U247" s="62">
         <f t="shared" si="27"/>
-        <v>-625</v>
+        <v>0</v>
       </c>
       <c r="V247" s="76">
         <v>43259</v>
@@ -31803,10 +30340,12 @@
         <f t="shared" si="26"/>
         <v>517</v>
       </c>
-      <c r="T248" s="78"/>
+      <c r="T248" s="78">
+        <v>517</v>
+      </c>
       <c r="U248" s="62">
         <f t="shared" si="27"/>
-        <v>-517</v>
+        <v>0</v>
       </c>
       <c r="V248" s="76">
         <v>43259</v>
@@ -31874,10 +30413,12 @@
         <f t="shared" si="26"/>
         <v>129</v>
       </c>
-      <c r="T249" s="78"/>
+      <c r="T249" s="78">
+        <v>129</v>
+      </c>
       <c r="U249" s="62">
         <f t="shared" si="27"/>
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="V249" s="76">
         <v>43259</v>
@@ -31943,10 +30484,12 @@
         <f t="shared" si="26"/>
         <v>508</v>
       </c>
-      <c r="T250" s="78"/>
+      <c r="T250" s="78">
+        <v>508</v>
+      </c>
       <c r="U250" s="62">
         <f t="shared" si="27"/>
-        <v>-508</v>
+        <v>0</v>
       </c>
       <c r="V250" s="76">
         <v>43259</v>
@@ -32244,21 +30787,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="338" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>VALUE($R1)&gt;=1.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>VALUE($R1)&gt;=1.2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>VALUE($R1)&gt;=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>VALUE($R1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576 C1:Q1048576 S1:W1048576">
-    <cfRule type="expression" dxfId="334" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>MOD($K1,2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/wiki/img/fund/funds.xlsx
+++ b/wiki/img/fund/funds.xlsx
@@ -18,8 +18,8 @@
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="5" r:id="rId7"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="9" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -2233,7 +2233,69 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.0000_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.0000_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.00_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.00_ "/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3046,8 +3108,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103824768"/>
-        <c:axId val="103830656"/>
+        <c:axId val="100286848"/>
+        <c:axId val="100288384"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3445,11 +3507,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103838080"/>
-        <c:axId val="103832192"/>
+        <c:axId val="100299904"/>
+        <c:axId val="100289920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103824768"/>
+        <c:axId val="100286848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3470,7 +3532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103830656"/>
+        <c:crossAx val="100288384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3478,7 +3540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103830656"/>
+        <c:axId val="100288384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3499,12 +3561,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103824768"/>
+        <c:crossAx val="100286848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103832192"/>
+        <c:axId val="100289920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.6"/>
@@ -3516,12 +3578,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103838080"/>
+        <c:crossAx val="100299904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="103838080"/>
+        <c:axId val="100299904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,7 +3592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103832192"/>
+        <c:crossAx val="100289920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3615,7 +3677,62 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="YuanXing" refreshedDate="43262.535886342594" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="268">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43262.926288773146" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G11" sheet="老计划"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="基金" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="类型" numFmtId="0">
+      <sharedItems containsBlank="1" count="12">
+        <s v="大盘6/中小盘4"/>
+        <s v="大盘"/>
+        <s v="均衡"/>
+        <s v="中小盘"/>
+        <s v="混合"/>
+        <s v="泸港深"/>
+        <m u="1"/>
+        <s v="消费行业" u="1"/>
+        <s v="主动型" u="1"/>
+        <s v="中盘(150只)" u="1"/>
+        <s v="中盘" u="1"/>
+        <s v="环保医疗" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="估值状态" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="正常估值"/>
+        <s v="低估值"/>
+        <s v="主动"/>
+        <m u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="计划" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="周投金额" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="年投估算" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="备注" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="比例" numFmtId="0" formula="周投金额" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="YuanXing" refreshedDate="43262.926388425927" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="268">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:W2165" sheet="记录"/>
   </cacheSource>
@@ -3743,62 +3860,102 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="YuanXing" refreshedDate="43262.925787152781" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="10">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G11" sheet="老计划"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="基金" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="类型" numFmtId="0">
-      <sharedItems containsBlank="1" count="12">
-        <s v="大盘6/中小盘4"/>
-        <s v="大盘"/>
-        <s v="均衡"/>
-        <s v="中小盘"/>
-        <s v="混合"/>
-        <s v="泸港深"/>
-        <m u="1"/>
-        <s v="消费行业" u="1"/>
-        <s v="主动型" u="1"/>
-        <s v="中盘(150只)" u="1"/>
-        <s v="中盘" u="1"/>
-        <s v="环保医疗" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="估值状态" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="正常估值"/>
-        <s v="低估值"/>
-        <s v="主动"/>
-        <m u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="计划" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="周投金额" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="年投估算" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="备注" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="比例" numFmtId="0" formula="周投金额" databaseField="0"/>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
+  <r>
+    <s v="富国中证红利指数增强(100032)"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="持有"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="嘉实基本面50指数(160716)"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="持有"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="景顺长城泸深300增强(000311)"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="持有"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="华宝兴业标普中国A股红利机会(501029)"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="定投/周"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="景顺长城中证500行业中性低波动(003318)"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="定投/周"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="建信中证500指数增强(000478)"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="定投/周"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="建信深证基本面60ETF联接(530015)"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="定投/周"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="申万菱泸深300价值(310398)"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="定投/周"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="国泰金龙行业混合(020003)"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="定投/周"/>
+    <m/>
+    <n v="0"/>
+    <s v="暂时"/>
+  </r>
+  <r>
+    <s v="嘉实泸港深精选股票(001878)"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="定投/周"/>
+    <m/>
+    <n v="0"/>
+    <s v="暂时"/>
+  </r>
+</pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="268">
   <r>
     <s v="000170"/>
@@ -10503,103 +10660,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
-  <r>
-    <s v="富国中证红利指数增强(100032)"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="持有"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="嘉实基本面50指数(160716)"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="持有"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="景顺长城泸深300增强(000311)"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="持有"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="华宝兴业标普中国A股红利机会(501029)"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="定投/周"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="景顺长城中证500行业中性低波动(003318)"/>
-    <x v="3"/>
-    <x v="1"/>
-    <s v="定投/周"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="建信中证500指数增强(000478)"/>
-    <x v="3"/>
-    <x v="1"/>
-    <s v="定投/周"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="建信深证基本面60ETF联接(530015)"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="定投/周"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="申万菱泸深300价值(310398)"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="定投/周"/>
-    <m/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="国泰金龙行业混合(020003)"/>
-    <x v="4"/>
-    <x v="2"/>
-    <s v="定投/周"/>
-    <m/>
-    <n v="0"/>
-    <s v="暂时"/>
-  </r>
-  <r>
-    <s v="嘉实泸港深精选股票(001878)"/>
-    <x v="5"/>
-    <x v="2"/>
-    <s v="定投/周"/>
-    <m/>
-    <n v="0"/>
-    <s v="暂时"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G1:J30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
@@ -10769,7 +10831,7 @@
     <dataField name="求和项:差额" fld="20" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="17">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10783,7 +10845,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="L1:O29" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -10964,10 +11026,10 @@
     <dataField name="额度比率" fld="17" baseField="21" baseItem="0" numFmtId="176"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="15">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="26">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="21" count="7">
@@ -10982,7 +11044,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="25">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10991,7 +11053,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="24">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -11000,7 +11062,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="23">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -11009,19 +11071,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="22">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="21">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="20">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="19">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -11809,7 +11871,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
@@ -11928,7 +11990,7 @@
     <dataField name="求和项:差额" fld="20" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="16">
+    <format dxfId="28">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -12363,7 +12425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12389,8 +12451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:F59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -31829,21 +31891,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576 S1:W1048576 C1:Q1048576">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>MOD($K1,2)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>VALUE($R1)&gt;=1.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>VALUE($R1)&gt;=1.2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>VALUE($R1)&gt;=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>VALUE($R1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
